--- a/SubRES_TMPL/SubRes_SRV.xlsx
+++ b/SubRES_TMPL/SubRes_SRV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22105B94-5D65-4342-941D-C03902D02B53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50980E8A-57F5-484F-A424-66AA58D26988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="AC4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="V5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="AA35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -539,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="AC35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="V36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -834,7 +834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y67" authorId="0" shapeId="0" xr:uid="{7A4E404A-1036-4E21-92C5-42C8108E792D}">
+    <comment ref="AA67" authorId="0" shapeId="0" xr:uid="{7A4E404A-1036-4E21-92C5-42C8108E792D}">
       <text>
         <r>
           <rPr>
@@ -927,7 +927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA67" authorId="0" shapeId="0" xr:uid="{124FDFF3-0752-4D68-9306-EB2FC23B7832}">
+    <comment ref="AC67" authorId="0" shapeId="0" xr:uid="{124FDFF3-0752-4D68-9306-EB2FC23B7832}">
       <text>
         <r>
           <rPr>
@@ -990,7 +990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T68" authorId="0" shapeId="0" xr:uid="{F92476DF-4767-4743-B9FF-59791224F0E6}">
+    <comment ref="V68" authorId="0" shapeId="0" xr:uid="{F92476DF-4767-4743-B9FF-59791224F0E6}">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y75" authorId="0" shapeId="0" xr:uid="{F75436B6-AE86-4F67-B898-1D51075C81D6}">
+    <comment ref="AA75" authorId="0" shapeId="0" xr:uid="{F75436B6-AE86-4F67-B898-1D51075C81D6}">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA75" authorId="0" shapeId="0" xr:uid="{D62C8464-83DD-474F-AA95-C011B0834043}">
+    <comment ref="AC75" authorId="0" shapeId="0" xr:uid="{D62C8464-83DD-474F-AA95-C011B0834043}">
       <text>
         <r>
           <rPr>
@@ -1378,7 +1378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T76" authorId="0" shapeId="0" xr:uid="{2DEA5D61-E8B9-4812-AFCD-01FEF5ADC1D6}">
+    <comment ref="V76" authorId="0" shapeId="0" xr:uid="{2DEA5D61-E8B9-4812-AFCD-01FEF5ADC1D6}">
       <text>
         <r>
           <rPr>
@@ -1620,7 +1620,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="V4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1713,7 +1713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="R5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2008,7 +2008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="W21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2101,7 +2101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="Y21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2164,7 +2164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="R22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4381,7 +4381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="713">
   <si>
     <t>Max. capacity factor</t>
   </si>
@@ -6514,6 +6514,12 @@
   </si>
   <si>
     <t xml:space="preserve">COMAMB, COMELC </t>
+  </si>
+  <si>
+    <t>Share-I~FX~0</t>
+  </si>
+  <si>
+    <t>Share-O~LO</t>
   </si>
 </sst>
 </file>
@@ -7079,7 +7085,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7683,15 +7689,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7702,6 +7699,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8350,14 +8374,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="239" t="s">
+      <c r="A17" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="239"/>
-      <c r="C17" s="239"/>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="239"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
@@ -8395,13 +8419,13 @@
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="240" t="s">
+      <c r="B20" s="244" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
-      <c r="E20" s="240"/>
-      <c r="F20" s="240"/>
+      <c r="C20" s="244"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
@@ -8415,13 +8439,13 @@
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="241" t="s">
+      <c r="B21" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="241"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="245"/>
+      <c r="E21" s="245"/>
+      <c r="F21" s="245"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
@@ -8435,13 +8459,13 @@
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="241" t="s">
+      <c r="B22" s="245" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="241"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="245"/>
+      <c r="E22" s="245"/>
+      <c r="F22" s="245"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
@@ -9683,7 +9707,7 @@
   </sheetPr>
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -10142,8 +10166,8 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13813,10 +13837,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AL107"/>
+  <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13829,33 +13853,33 @@
     <col min="7" max="7" width="9" style="47" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="47"/>
     <col min="10" max="10" width="9.140625" style="47" customWidth="1"/>
-    <col min="11" max="18" width="9.140625" style="47"/>
-    <col min="19" max="19" width="3.5703125" style="47" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="83" style="47" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="47"/>
-    <col min="25" max="25" width="12.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="9.140625" style="47"/>
-    <col min="31" max="31" width="15.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18" style="47" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="47"/>
-    <col min="35" max="35" width="13" style="47" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="47"/>
+    <col min="11" max="20" width="9.140625" style="47"/>
+    <col min="21" max="21" width="3.5703125" style="47" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="83" style="47" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="47"/>
+    <col min="27" max="27" width="12.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="9.140625" style="47"/>
+    <col min="33" max="33" width="15.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18" style="47" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="47"/>
+    <col min="37" max="37" width="13" style="47" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>285</v>
       </c>
       <c r="B1" s="77"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>36</v>
       </c>
@@ -13867,7 +13891,7 @@
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="D3" s="50" t="s">
         <v>83</v>
       </c>
@@ -13877,18 +13901,18 @@
       <c r="H3" s="48"/>
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
-      <c r="T3" s="50" t="s">
+      <c r="V3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
+      <c r="W3" s="51"/>
       <c r="X3" s="52"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="52"/>
       <c r="AA3" s="52"/>
-    </row>
-    <row r="4" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+    </row>
+    <row r="4" spans="1:40" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>2</v>
       </c>
@@ -13938,37 +13962,43 @@
         <v>704</v>
       </c>
       <c r="Q4" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="R4" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="S4" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="T4" s="54" t="s">
+      <c r="T4" s="56" t="s">
+        <v>712</v>
+      </c>
+      <c r="V4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="54" t="s">
+      <c r="W4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="54" t="s">
+      <c r="X4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="54" t="s">
+      <c r="Y4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="54" t="s">
+      <c r="Z4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="54" t="s">
+      <c r="AA4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="54" t="s">
+      <c r="AB4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="54" t="s">
+      <c r="AC4" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>13</v>
       </c>
@@ -14006,39 +14036,41 @@
       </c>
       <c r="P5" s="59"/>
       <c r="Q5" s="104"/>
-      <c r="R5" s="59"/>
-      <c r="T5" s="63" t="s">
+      <c r="R5" s="104"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="203"/>
+      <c r="V5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="63" t="s">
+      <c r="W5" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="63" t="s">
+      <c r="X5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="63" t="s">
+      <c r="Y5" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="X5" s="63" t="s">
+      <c r="Z5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="63" t="s">
+      <c r="AA5" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="63" t="s">
+      <c r="AB5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="63" t="s">
+      <c r="AC5" s="63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="str">
-        <f>U6</f>
+        <f>W6</f>
         <v>CHCSELC_01_Rad</v>
       </c>
       <c r="B6" s="64" t="str">
-        <f>V6</f>
+        <f>X6</f>
         <v>New commercial - CS Space Heat ELC Electric radiator</v>
       </c>
       <c r="C6" s="64" t="s">
@@ -14094,42 +14126,44 @@
         <f>IF(Raw_CH!R30=0,"",Raw_CH!R30)</f>
         <v/>
       </c>
-      <c r="Q6" s="84" t="str">
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84" t="str">
         <f>IF(Raw_CH!S30=0,"",Raw_CH!S30)</f>
         <v/>
       </c>
-      <c r="R6" s="84" t="str">
+      <c r="S6" s="84" t="str">
         <f>IF(Raw_CH!Q30=0,"",Raw_CH!Q30)</f>
         <v/>
       </c>
-      <c r="T6" s="47" t="s">
+      <c r="T6" s="102"/>
+      <c r="V6" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="U6" s="158" t="s">
+      <c r="W6" s="158" t="s">
         <v>483</v>
       </c>
-      <c r="V6" s="47" t="str">
-        <f t="shared" ref="V6:V20" si="0">"New commercial - CS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AC6</f>
+      <c r="X6" s="47" t="str">
+        <f t="shared" ref="X6:X20" si="0">"New commercial - CS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AE6</f>
         <v>New commercial - CS Space Heat ELC Electric radiator</v>
       </c>
-      <c r="W6" s="47" t="s">
+      <c r="Y6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="47" t="s">
+      <c r="Z6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="85"/>
-      <c r="AC6" s="47" t="s">
+      <c r="AA6" s="85"/>
+      <c r="AE6" s="47" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="str">
-        <f t="shared" ref="A7:A43" si="1">U7</f>
+        <f t="shared" ref="A7:A43" si="1">W7</f>
         <v>CHCSELC_02_Boi</v>
       </c>
       <c r="B7" s="66" t="str">
-        <f t="shared" ref="B7:B43" si="2">V7</f>
+        <f t="shared" ref="B7:B43" si="2">X7</f>
         <v>New commercial - CS Space Heat ELC Electric boiler</v>
       </c>
       <c r="C7" s="67" t="s">
@@ -14185,33 +14219,35 @@
         <f>IF(Raw_CH!R31=0,"",Raw_CH!R31)</f>
         <v/>
       </c>
-      <c r="Q7" s="90" t="str">
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90" t="str">
         <f>IF(Raw_CH!S31=0,"",Raw_CH!S31)</f>
         <v/>
       </c>
-      <c r="R7" s="90" t="str">
+      <c r="S7" s="90" t="str">
         <f>IF(Raw_CH!Q31=0,"",Raw_CH!Q31)</f>
         <v/>
       </c>
-      <c r="U7" s="158" t="s">
+      <c r="T7" s="102"/>
+      <c r="W7" s="158" t="s">
         <v>484</v>
       </c>
-      <c r="V7" s="47" t="str">
+      <c r="X7" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Electric boiler</v>
       </c>
-      <c r="W7" s="47" t="s">
+      <c r="Y7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X7" s="47" t="s">
+      <c r="Z7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y7" s="85"/>
-      <c r="AC7" s="47" t="s">
+      <c r="AA7" s="85"/>
+      <c r="AE7" s="47" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_03_HP</v>
@@ -14273,34 +14309,38 @@
         <f>IF(Raw_CH!R32=0,"",Raw_CH!R32)</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="Q8" s="90" t="str">
+      <c r="Q8" s="246">
+        <v>5</v>
+      </c>
+      <c r="R8" s="90" t="str">
         <f>IF(Raw_CH!S32=0,"",Raw_CH!S32)</f>
         <v/>
       </c>
-      <c r="R8" s="90" t="str">
+      <c r="S8" s="90" t="str">
         <f>IF(Raw_CH!Q32=0,"",Raw_CH!Q32)</f>
         <v/>
       </c>
-      <c r="U8" s="158" t="s">
+      <c r="T8" s="102"/>
+      <c r="W8" s="158" t="s">
         <v>485</v>
       </c>
-      <c r="V8" s="47" t="str">
+      <c r="X8" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Air heat pump with electric boiler</v>
       </c>
-      <c r="W8" s="47" t="s">
+      <c r="Y8" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X8" s="47" t="s">
+      <c r="Z8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y8" s="85"/>
-      <c r="AC8" s="47" t="s">
+      <c r="AA8" s="85"/>
+      <c r="AE8" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="AF8" s="69"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH8" s="69"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_04_DHP</v>
@@ -14362,34 +14402,38 @@
         <f>IF(Raw_CH!R33=0,"",Raw_CH!R33)</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="Q9" s="90" t="str">
+      <c r="Q9" s="246">
+        <v>5</v>
+      </c>
+      <c r="R9" s="90" t="str">
         <f>IF(Raw_CH!S33=0,"",Raw_CH!S33)</f>
         <v/>
       </c>
-      <c r="R9" s="90" t="str">
+      <c r="S9" s="90" t="str">
         <f>IF(Raw_CH!Q33=0,"",Raw_CH!Q33)</f>
         <v/>
       </c>
-      <c r="U9" s="158" t="s">
+      <c r="T9" s="102"/>
+      <c r="W9" s="158" t="s">
         <v>486</v>
       </c>
-      <c r="V9" s="47" t="str">
+      <c r="X9" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Air heat pump with electric boiler.HeatCool</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="Y9" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X9" s="47" t="s">
+      <c r="Z9" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y9" s="85"/>
-      <c r="AC9" s="47" t="s">
+      <c r="AA9" s="85"/>
+      <c r="AE9" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="AF9" s="70"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH9" s="70"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_05_HP</v>
@@ -14451,33 +14495,37 @@
         <f>IF(Raw_CH!R34=0,"",Raw_CH!R34)</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q10" s="90" t="str">
+      <c r="Q10" s="246">
+        <v>5</v>
+      </c>
+      <c r="R10" s="90" t="str">
         <f>IF(Raw_CH!S34=0,"",Raw_CH!S34)</f>
         <v/>
       </c>
-      <c r="R10" s="90" t="str">
+      <c r="S10" s="90" t="str">
         <f>IF(Raw_CH!Q34=0,"",Raw_CH!Q34)</f>
         <v/>
       </c>
-      <c r="U10" s="158" t="s">
+      <c r="T10" s="102"/>
+      <c r="W10" s="158" t="s">
         <v>487</v>
       </c>
-      <c r="V10" s="47" t="str">
+      <c r="X10" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Adv Air heat pump with electric boiler</v>
       </c>
-      <c r="W10" s="47" t="s">
+      <c r="Y10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="47" t="s">
+      <c r="Z10" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y10" s="85"/>
-      <c r="AC10" s="47" t="s">
+      <c r="AA10" s="85"/>
+      <c r="AE10" s="47" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_06_DHP</v>
@@ -14539,41 +14587,45 @@
         <f>IF(Raw_CH!R35=0,"",Raw_CH!R35)</f>
         <v>0.82758620689655205</v>
       </c>
-      <c r="Q11" s="90" t="str">
+      <c r="Q11" s="246">
+        <v>5</v>
+      </c>
+      <c r="R11" s="90" t="str">
         <f>IF(Raw_CH!S35=0,"",Raw_CH!S35)</f>
         <v/>
       </c>
-      <c r="R11" s="90" t="str">
+      <c r="S11" s="90" t="str">
         <f>IF(Raw_CH!Q35=0,"",Raw_CH!Q35)</f>
         <v/>
       </c>
-      <c r="U11" s="158" t="s">
+      <c r="T11" s="102"/>
+      <c r="W11" s="158" t="s">
         <v>488</v>
       </c>
-      <c r="V11" s="47" t="str">
+      <c r="X11" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Adv Air heat pump with electric boiler.HeatCool</v>
       </c>
-      <c r="W11" s="47" t="s">
+      <c r="Y11" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X11" s="47" t="s">
+      <c r="Z11" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y11" s="85"/>
-      <c r="AC11" s="47" t="s">
+      <c r="AA11" s="85"/>
+      <c r="AE11" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="71"/>
       <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
+      <c r="AH11" s="71"/>
       <c r="AI11" s="72"/>
       <c r="AJ11" s="72"/>
       <c r="AK11" s="72"/>
       <c r="AL11" s="72"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="72"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_07_HP</v>
@@ -14635,41 +14687,45 @@
         <f>IF(Raw_CH!R36=0,"",Raw_CH!R36)</f>
         <v>0.8</v>
       </c>
-      <c r="Q12" s="90" t="str">
+      <c r="Q12" s="246">
+        <v>5</v>
+      </c>
+      <c r="R12" s="90" t="str">
         <f>IF(Raw_CH!S36=0,"",Raw_CH!S36)</f>
         <v/>
       </c>
-      <c r="R12" s="90" t="str">
+      <c r="S12" s="90" t="str">
         <f>IF(Raw_CH!Q36=0,"",Raw_CH!Q36)</f>
         <v/>
       </c>
-      <c r="U12" s="158" t="s">
+      <c r="T12" s="102"/>
+      <c r="W12" s="158" t="s">
         <v>489</v>
       </c>
-      <c r="V12" s="47" t="str">
+      <c r="X12" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Ground heat pump with electric boiler</v>
       </c>
-      <c r="W12" s="47" t="s">
+      <c r="Y12" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="47" t="s">
+      <c r="Z12" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y12" s="85"/>
-      <c r="AC12" s="47" t="s">
+      <c r="AA12" s="85"/>
+      <c r="AE12" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
       <c r="AG12" s="72"/>
       <c r="AH12" s="72"/>
       <c r="AI12" s="72"/>
       <c r="AJ12" s="72"/>
       <c r="AK12" s="72"/>
       <c r="AL12" s="72"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSELC_08_DHP</v>
@@ -14731,41 +14787,45 @@
         <f>IF(Raw_CH!R37=0,"",Raw_CH!R37)</f>
         <v>0.8</v>
       </c>
-      <c r="Q13" s="90" t="str">
+      <c r="Q13" s="246">
+        <v>5</v>
+      </c>
+      <c r="R13" s="90" t="str">
         <f>IF(Raw_CH!S37=0,"",Raw_CH!S37)</f>
         <v/>
       </c>
-      <c r="R13" s="90" t="str">
+      <c r="S13" s="90" t="str">
         <f>IF(Raw_CH!Q37=0,"",Raw_CH!Q37)</f>
         <v/>
       </c>
-      <c r="U13" s="158" t="s">
+      <c r="T13" s="102"/>
+      <c r="W13" s="158" t="s">
         <v>490</v>
       </c>
-      <c r="V13" s="47" t="str">
+      <c r="X13" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat ELC Ground heat pump with electric boiler.HeatCool</v>
       </c>
-      <c r="W13" s="47" t="s">
+      <c r="Y13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X13" s="47" t="s">
+      <c r="Z13" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y13" s="85"/>
-      <c r="AC13" s="47" t="s">
+      <c r="AA13" s="85"/>
+      <c r="AE13" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
       <c r="AG13" s="72"/>
       <c r="AH13" s="72"/>
       <c r="AI13" s="72"/>
       <c r="AJ13" s="72"/>
       <c r="AK13" s="72"/>
       <c r="AL13" s="72"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="72"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="86" t="str">
         <f t="shared" si="1"/>
         <v>*CHCSFCH_01</v>
@@ -14827,41 +14887,43 @@
         <f>IF(Raw_CH!R38=0,"",Raw_CH!R38)</f>
         <v/>
       </c>
-      <c r="Q14" s="90" t="str">
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90" t="str">
         <f>IF(Raw_CH!S38=0,"",Raw_CH!S38)</f>
         <v/>
       </c>
-      <c r="R14" s="90" t="str">
+      <c r="S14" s="90" t="str">
         <f>IF(Raw_CH!Q38=0,"",Raw_CH!Q38)</f>
         <v/>
       </c>
-      <c r="U14" s="158" t="s">
+      <c r="T14" s="102"/>
+      <c r="W14" s="158" t="s">
         <v>424</v>
       </c>
-      <c r="V14" s="47" t="str">
+      <c r="X14" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat HET FC output to Heat demand</v>
       </c>
-      <c r="W14" s="47" t="s">
+      <c r="Y14" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X14" s="47" t="s">
+      <c r="Z14" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y14" s="85"/>
-      <c r="AC14" s="47" t="s">
+      <c r="AA14" s="85"/>
+      <c r="AE14" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
       <c r="AG14" s="72"/>
       <c r="AH14" s="72"/>
       <c r="AI14" s="72"/>
       <c r="AJ14" s="72"/>
       <c r="AK14" s="72"/>
       <c r="AL14" s="72"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM14" s="72"/>
+      <c r="AN14" s="72"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_01_Boi</v>
@@ -14923,41 +14985,43 @@
         <f>IF(Raw_CH!R39=0,"",Raw_CH!R39)</f>
         <v/>
       </c>
-      <c r="Q15" s="90" t="str">
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90" t="str">
         <f>IF(Raw_CH!S39=0,"",Raw_CH!S39)</f>
         <v/>
       </c>
-      <c r="R15" s="90" t="str">
+      <c r="S15" s="90" t="str">
         <f>IF(Raw_CH!Q39=0,"",Raw_CH!Q39)</f>
         <v/>
       </c>
-      <c r="U15" s="158" t="s">
+      <c r="T15" s="102"/>
+      <c r="W15" s="158" t="s">
         <v>491</v>
       </c>
-      <c r="V15" s="47" t="str">
+      <c r="X15" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler</v>
       </c>
-      <c r="W15" s="47" t="s">
+      <c r="Y15" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X15" s="47" t="s">
+      <c r="Z15" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y15" s="85"/>
-      <c r="AC15" s="47" t="s">
+      <c r="AA15" s="85"/>
+      <c r="AE15" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
       <c r="AG15" s="72"/>
       <c r="AH15" s="72"/>
       <c r="AI15" s="72"/>
       <c r="AJ15" s="72"/>
       <c r="AK15" s="72"/>
       <c r="AL15" s="72"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="72"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_02_DBoi</v>
@@ -15019,33 +15083,37 @@
         <f>IF(Raw_CH!R40=0,"",Raw_CH!R40)</f>
         <v/>
       </c>
-      <c r="Q16" s="90" t="str">
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90" t="str">
         <f>IF(Raw_CH!S40=0,"",Raw_CH!S40)</f>
         <v/>
       </c>
-      <c r="R16" s="90">
+      <c r="S16" s="90">
         <f>IF(Raw_CH!Q40=0,"",Raw_CH!Q40)</f>
         <v>0.6</v>
       </c>
-      <c r="U16" s="158" t="s">
+      <c r="T16" s="249">
+        <v>5</v>
+      </c>
+      <c r="W16" s="158" t="s">
         <v>492</v>
       </c>
-      <c r="V16" s="47" t="str">
+      <c r="X16" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler.HeatHotwater</v>
       </c>
-      <c r="W16" s="47" t="s">
+      <c r="Y16" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X16" s="47" t="s">
+      <c r="Z16" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y16" s="85"/>
-      <c r="AC16" s="47" t="s">
+      <c r="AA16" s="85"/>
+      <c r="AE16" s="47" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_03_Boi</v>
@@ -15107,33 +15175,35 @@
         <f>IF(Raw_CH!R41=0,"",Raw_CH!R41)</f>
         <v/>
       </c>
-      <c r="Q17" s="90" t="str">
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90" t="str">
         <f>IF(Raw_CH!S41=0,"",Raw_CH!S41)</f>
         <v/>
       </c>
-      <c r="R17" s="90" t="str">
+      <c r="S17" s="90" t="str">
         <f>IF(Raw_CH!Q41=0,"",Raw_CH!Q41)</f>
         <v/>
       </c>
-      <c r="U17" s="158" t="s">
+      <c r="T17" s="102"/>
+      <c r="W17" s="158" t="s">
         <v>493</v>
       </c>
-      <c r="V17" s="47" t="str">
+      <c r="X17" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler condensing</v>
       </c>
-      <c r="W17" s="47" t="s">
+      <c r="Y17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X17" s="47" t="s">
+      <c r="Z17" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y17" s="85"/>
-      <c r="AC17" s="47" t="s">
+      <c r="AA17" s="85"/>
+      <c r="AE17" s="47" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_04_DBoi</v>
@@ -15195,33 +15265,37 @@
         <f>IF(Raw_CH!R42=0,"",Raw_CH!R42)</f>
         <v/>
       </c>
-      <c r="Q18" s="90" t="str">
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90" t="str">
         <f>IF(Raw_CH!S42=0,"",Raw_CH!S42)</f>
         <v/>
       </c>
-      <c r="R18" s="90">
+      <c r="S18" s="90">
         <f>IF(Raw_CH!Q42=0,"",Raw_CH!Q42)</f>
         <v>0.6</v>
       </c>
-      <c r="U18" s="158" t="s">
+      <c r="T18" s="249">
+        <v>5</v>
+      </c>
+      <c r="W18" s="158" t="s">
         <v>494</v>
       </c>
-      <c r="V18" s="47" t="str">
+      <c r="X18" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas boiler condensing.HeatHotwater</v>
       </c>
-      <c r="W18" s="47" t="s">
+      <c r="Y18" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X18" s="47" t="s">
+      <c r="Z18" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y18" s="85"/>
-      <c r="AC18" s="47" t="s">
+      <c r="AA18" s="85"/>
+      <c r="AE18" s="47" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_05_HP</v>
@@ -15283,33 +15357,37 @@
         <f>IF(Raw_CH!R43=0,"",Raw_CH!R43)</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q19" s="90" t="str">
+      <c r="Q19" s="246">
+        <v>5</v>
+      </c>
+      <c r="R19" s="90" t="str">
         <f>IF(Raw_CH!S43=0,"",Raw_CH!S43)</f>
         <v/>
       </c>
-      <c r="R19" s="90" t="str">
+      <c r="S19" s="90" t="str">
         <f>IF(Raw_CH!Q43=0,"",Raw_CH!Q43)</f>
         <v/>
       </c>
-      <c r="U19" s="158" t="s">
+      <c r="T19" s="102"/>
+      <c r="W19" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="V19" s="47" t="str">
+      <c r="X19" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas air heat pump</v>
       </c>
-      <c r="W19" s="47" t="s">
+      <c r="Y19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X19" s="47" t="s">
+      <c r="Z19" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y19" s="85"/>
-      <c r="AC19" s="158" t="s">
+      <c r="AA19" s="85"/>
+      <c r="AE19" s="158" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSGAS_06_DHP</v>
@@ -15371,33 +15449,37 @@
         <f>IF(Raw_CH!R44=0,"",Raw_CH!R44)</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q20" s="90" t="str">
+      <c r="Q20" s="246">
+        <v>5</v>
+      </c>
+      <c r="R20" s="90" t="str">
         <f>IF(Raw_CH!S44=0,"",Raw_CH!S44)</f>
         <v/>
       </c>
-      <c r="R20" s="90" t="str">
+      <c r="S20" s="90" t="str">
         <f>IF(Raw_CH!Q44=0,"",Raw_CH!Q44)</f>
         <v/>
       </c>
-      <c r="U20" s="158" t="s">
+      <c r="T20" s="102"/>
+      <c r="W20" s="158" t="s">
         <v>496</v>
       </c>
-      <c r="V20" s="47" t="str">
+      <c r="X20" s="47" t="str">
         <f t="shared" si="0"/>
         <v>New commercial - CS Space Heat GAS Natural gas air heat pump.HeatCool</v>
       </c>
-      <c r="W20" s="47" t="s">
+      <c r="Y20" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X20" s="47" t="s">
+      <c r="Z20" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y20" s="85"/>
-      <c r="AC20" s="158" t="s">
+      <c r="AA20" s="85"/>
+      <c r="AE20" s="158" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSLPG_01_Boi</v>
@@ -15459,33 +15541,35 @@
         <f>IF(Raw_CH!R45=0,"",Raw_CH!R45)</f>
         <v/>
       </c>
-      <c r="Q21" s="90" t="str">
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90" t="str">
         <f>IF(Raw_CH!S45=0,"",Raw_CH!S45)</f>
         <v/>
       </c>
-      <c r="R21" s="90" t="str">
+      <c r="S21" s="90" t="str">
         <f>IF(Raw_CH!Q45=0,"",Raw_CH!Q45)</f>
         <v/>
       </c>
-      <c r="U21" s="158" t="s">
+      <c r="T21" s="102"/>
+      <c r="W21" s="158" t="s">
         <v>497</v>
       </c>
-      <c r="V21" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;AC21</f>
+      <c r="X21" s="47" t="str">
+        <f>"New commercial - CS Space Heat "&amp;AE21</f>
         <v>New commercial - CS Space Heat LPG boiler</v>
       </c>
-      <c r="W21" s="47" t="s">
+      <c r="Y21" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X21" s="47" t="s">
+      <c r="Z21" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y21" s="85"/>
-      <c r="AC21" s="47" t="s">
+      <c r="AA21" s="85"/>
+      <c r="AE21" s="47" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSLPG_02_DBoi</v>
@@ -15547,33 +15631,37 @@
         <f>IF(Raw_CH!R46=0,"",Raw_CH!R46)</f>
         <v/>
       </c>
-      <c r="Q22" s="90" t="str">
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90" t="str">
         <f>IF(Raw_CH!S46=0,"",Raw_CH!S46)</f>
         <v/>
       </c>
-      <c r="R22" s="90">
+      <c r="S22" s="90">
         <f>IF(Raw_CH!Q46=0,"",Raw_CH!Q46)</f>
         <v>0.6</v>
       </c>
-      <c r="U22" s="158" t="s">
+      <c r="T22" s="249">
+        <v>5</v>
+      </c>
+      <c r="W22" s="158" t="s">
         <v>498</v>
       </c>
-      <c r="V22" s="47" t="str">
-        <f t="shared" ref="V22" si="3">"New commercial - CS Space Heat "&amp;AC22</f>
+      <c r="X22" s="47" t="str">
+        <f t="shared" ref="X22" si="3">"New commercial - CS Space Heat "&amp;AE22</f>
         <v>New commercial - CS Space Heat LPG boiler.HeatHotwater</v>
       </c>
-      <c r="W22" s="47" t="s">
+      <c r="Y22" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X22" s="47" t="s">
+      <c r="Z22" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y22" s="85"/>
-      <c r="AC22" s="47" t="s">
+      <c r="AA22" s="85"/>
+      <c r="AE22" s="47" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSLPG_04_DHP</v>
@@ -15635,33 +15723,37 @@
         <f>IF(Raw_CH!R47=0,"",Raw_CH!R47)</f>
         <v>0.5</v>
       </c>
-      <c r="Q23" s="90" t="str">
+      <c r="Q23" s="246">
+        <v>5</v>
+      </c>
+      <c r="R23" s="90" t="str">
         <f>IF(Raw_CH!S47=0,"",Raw_CH!S47)</f>
         <v/>
       </c>
-      <c r="R23" s="90" t="str">
+      <c r="S23" s="90" t="str">
         <f>IF(Raw_CH!Q47=0,"",Raw_CH!Q47)</f>
         <v/>
       </c>
-      <c r="U23" s="158" t="s">
+      <c r="T23" s="102"/>
+      <c r="W23" s="158" t="s">
         <v>499</v>
       </c>
-      <c r="V23" s="47" t="str">
-        <f t="shared" ref="V23:V31" si="4">"New commercial - CS Space Heat "&amp;RIGHT(C23,3)&amp;" "&amp;AC23</f>
+      <c r="X23" s="47" t="str">
+        <f t="shared" ref="X23:X31" si="4">"New commercial - CS Space Heat "&amp;RIGHT(C23,3)&amp;" "&amp;AE23</f>
         <v>New commercial - CS Space Heat LPG LPG air heat pump.HeatCool</v>
       </c>
-      <c r="W23" s="47" t="s">
+      <c r="Y23" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X23" s="47" t="s">
+      <c r="Z23" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y23" s="85"/>
-      <c r="AC23" s="158" t="s">
+      <c r="AA23" s="85"/>
+      <c r="AE23" s="158" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSHET_01_DH</v>
@@ -15723,33 +15815,37 @@
         <f>IF(Raw_CH!R48=0,"",Raw_CH!R48)</f>
         <v/>
       </c>
-      <c r="Q24" s="90" t="str">
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90" t="str">
         <f>IF(Raw_CH!S48=0,"",Raw_CH!S48)</f>
         <v/>
       </c>
-      <c r="R24" s="90">
+      <c r="S24" s="90">
         <f>IF(Raw_CH!Q48=0,"",Raw_CH!Q48)</f>
         <v>0.6</v>
       </c>
-      <c r="U24" s="158" t="s">
+      <c r="T24" s="249">
+        <v>5</v>
+      </c>
+      <c r="W24" s="158" t="s">
         <v>500</v>
       </c>
-      <c r="V24" s="47" t="str">
+      <c r="X24" s="47" t="str">
         <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat HET District heat exchanger.HeatHotwater</v>
       </c>
-      <c r="W24" s="47" t="s">
+      <c r="Y24" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X24" s="47" t="s">
+      <c r="Z24" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y24" s="85"/>
-      <c r="AC24" s="47" t="s">
+      <c r="AA24" s="85"/>
+      <c r="AE24" s="47" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSOIL_01_Boi</v>
@@ -15811,33 +15907,35 @@
         <f>IF(Raw_CH!R49=0,"",Raw_CH!R49)</f>
         <v/>
       </c>
-      <c r="Q25" s="90" t="str">
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90" t="str">
         <f>IF(Raw_CH!S49=0,"",Raw_CH!S49)</f>
         <v/>
       </c>
-      <c r="R25" s="90" t="str">
+      <c r="S25" s="90" t="str">
         <f>IF(Raw_CH!Q49=0,"",Raw_CH!Q49)</f>
         <v/>
       </c>
-      <c r="U25" s="158" t="s">
+      <c r="T25" s="102"/>
+      <c r="W25" s="158" t="s">
         <v>501</v>
       </c>
-      <c r="V25" s="47" t="str">
+      <c r="X25" s="47" t="str">
         <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat OIL Oil boiler</v>
       </c>
-      <c r="W25" s="47" t="s">
+      <c r="Y25" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X25" s="47" t="s">
+      <c r="Z25" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y25" s="85"/>
-      <c r="AC25" s="47" t="s">
+      <c r="AA25" s="85"/>
+      <c r="AE25" s="47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSOIL_02_DBoi</v>
@@ -15899,33 +15997,37 @@
         <f>IF(Raw_CH!R50=0,"",Raw_CH!R50)</f>
         <v/>
       </c>
-      <c r="Q26" s="90" t="str">
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90" t="str">
         <f>IF(Raw_CH!S50=0,"",Raw_CH!S50)</f>
         <v/>
       </c>
-      <c r="R26" s="90">
+      <c r="S26" s="90">
         <f>IF(Raw_CH!Q50=0,"",Raw_CH!Q50)</f>
         <v>0.6</v>
       </c>
-      <c r="U26" s="158" t="s">
+      <c r="T26" s="249">
+        <v>5</v>
+      </c>
+      <c r="W26" s="158" t="s">
         <v>502</v>
       </c>
-      <c r="V26" s="47" t="str">
+      <c r="X26" s="47" t="str">
         <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat OIL Oil boiler.HeatHotwater</v>
       </c>
-      <c r="W26" s="47" t="s">
+      <c r="Y26" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X26" s="47" t="s">
+      <c r="Z26" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y26" s="85"/>
-      <c r="AC26" s="47" t="s">
+      <c r="AA26" s="85"/>
+      <c r="AE26" s="47" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSOIL_03_DBoi</v>
@@ -15987,33 +16089,37 @@
         <f>IF(Raw_CH!R51=0,"",Raw_CH!R51)</f>
         <v/>
       </c>
-      <c r="Q27" s="90" t="str">
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90" t="str">
         <f>IF(Raw_CH!S51=0,"",Raw_CH!S51)</f>
         <v/>
       </c>
-      <c r="R27" s="90">
+      <c r="S27" s="90">
         <f>IF(Raw_CH!Q51=0,"",Raw_CH!Q51)</f>
         <v>0.6</v>
       </c>
-      <c r="U27" s="158" t="s">
+      <c r="T27" s="249">
+        <v>5</v>
+      </c>
+      <c r="W27" s="158" t="s">
         <v>503</v>
       </c>
-      <c r="V27" s="47" t="str">
+      <c r="X27" s="47" t="str">
         <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat OIL Oil boiler condensing.HeatHotwater</v>
       </c>
-      <c r="W27" s="47" t="s">
+      <c r="Y27" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X27" s="47" t="s">
+      <c r="Z27" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y27" s="85"/>
-      <c r="AC27" s="47" t="s">
+      <c r="AA27" s="85"/>
+      <c r="AE27" s="47" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSSOL_01_EBkp</v>
@@ -16075,33 +16181,39 @@
         <f>IF(Raw_CH!R52=0,"",Raw_CH!R52)</f>
         <v/>
       </c>
-      <c r="Q28" s="90">
+      <c r="Q28" s="246">
+        <v>5</v>
+      </c>
+      <c r="R28" s="90">
         <f>IF(Raw_CH!S52=0,"",Raw_CH!S52)</f>
         <v>0.68</v>
       </c>
-      <c r="R28" s="90">
+      <c r="S28" s="90">
         <f>IF(Raw_CH!Q52=0,"",Raw_CH!Q52)</f>
         <v>0.6</v>
       </c>
-      <c r="U28" s="158" t="s">
+      <c r="T28" s="249">
+        <v>5</v>
+      </c>
+      <c r="W28" s="158" t="s">
         <v>504</v>
       </c>
-      <c r="V28" s="47" t="str">
+      <c r="X28" s="47" t="str">
         <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat SOL Solar collector with electric backup.HeatHotwater</v>
       </c>
-      <c r="W28" s="47" t="s">
+      <c r="Y28" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X28" s="47" t="s">
+      <c r="Z28" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y28" s="85"/>
-      <c r="AC28" s="47" t="s">
+      <c r="AA28" s="85"/>
+      <c r="AE28" s="47" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSSOL_02_DBkp</v>
@@ -16163,33 +16275,39 @@
         <f>IF(Raw_CH!R53=0,"",Raw_CH!R53)</f>
         <v/>
       </c>
-      <c r="Q29" s="90">
+      <c r="Q29" s="246">
+        <v>5</v>
+      </c>
+      <c r="R29" s="90">
         <f>IF(Raw_CH!S53=0,"",Raw_CH!S53)</f>
         <v>0.71</v>
       </c>
-      <c r="R29" s="90">
+      <c r="S29" s="90">
         <f>IF(Raw_CH!Q53=0,"",Raw_CH!Q53)</f>
         <v>0.6</v>
       </c>
-      <c r="U29" s="158" t="s">
+      <c r="T29" s="249">
+        <v>5</v>
+      </c>
+      <c r="W29" s="158" t="s">
         <v>516</v>
       </c>
-      <c r="V29" s="47" t="str">
+      <c r="X29" s="47" t="str">
         <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat SOL Solar collector with diesel backup.HeatHotwater</v>
       </c>
-      <c r="W29" s="47" t="s">
+      <c r="Y29" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X29" s="47" t="s">
+      <c r="Z29" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y29" s="85"/>
-      <c r="AC29" s="47" t="s">
+      <c r="AA29" s="85"/>
+      <c r="AE29" s="47" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHCSSOL_03_GBkp</v>
@@ -16251,33 +16369,39 @@
         <f>IF(Raw_CH!R54=0,"",Raw_CH!R54)</f>
         <v/>
       </c>
-      <c r="Q30" s="90">
+      <c r="Q30" s="246">
+        <v>5</v>
+      </c>
+      <c r="R30" s="90">
         <f>IF(Raw_CH!S54=0,"",Raw_CH!S54)</f>
         <v>0.68</v>
       </c>
-      <c r="R30" s="90">
+      <c r="S30" s="90">
         <f>IF(Raw_CH!Q54=0,"",Raw_CH!Q54)</f>
         <v>0.6</v>
       </c>
-      <c r="U30" s="158" t="s">
+      <c r="T30" s="249">
+        <v>5</v>
+      </c>
+      <c r="W30" s="158" t="s">
         <v>517</v>
       </c>
-      <c r="V30" s="47" t="str">
+      <c r="X30" s="47" t="str">
         <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat SOL Solar collector with gas backup.HeatHotwater</v>
       </c>
-      <c r="W30" s="47" t="s">
+      <c r="Y30" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X30" s="47" t="s">
+      <c r="Z30" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y30" s="85"/>
-      <c r="AC30" s="47" t="s">
+      <c r="AA30" s="85"/>
+      <c r="AE30" s="47" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="91" t="str">
         <f t="shared" si="1"/>
         <v>CHCSBIO_01_DBoi</v>
@@ -16339,36 +16463,40 @@
         <f>IF(Raw_CH!R55=0,"",Raw_CH!R55)</f>
         <v/>
       </c>
-      <c r="Q31" s="96" t="str">
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96" t="str">
         <f>IF(Raw_CH!S55=0,"",Raw_CH!S55)</f>
         <v/>
       </c>
-      <c r="R31" s="96">
+      <c r="S31" s="96">
         <f>IF(Raw_CH!Q55=0,"",Raw_CH!Q55)</f>
         <v>0.6</v>
       </c>
-      <c r="T31" s="97"/>
-      <c r="U31" s="188" t="s">
+      <c r="T31" s="250">
+        <v>5</v>
+      </c>
+      <c r="V31" s="97"/>
+      <c r="W31" s="188" t="s">
         <v>505</v>
       </c>
-      <c r="V31" s="97" t="str">
+      <c r="X31" s="97" t="str">
         <f t="shared" si="4"/>
         <v>New commercial - CS Space Heat BIO Wood-pellets boiler.HeatHotwater</v>
       </c>
-      <c r="W31" s="97" t="s">
+      <c r="Y31" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="X31" s="97" t="s">
+      <c r="Z31" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="Y31" s="97"/>
-      <c r="Z31" s="97"/>
       <c r="AA31" s="97"/>
-      <c r="AC31" s="47" t="s">
+      <c r="AB31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AE31" s="47" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="98"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
@@ -16387,16 +16515,18 @@
       <c r="P32" s="102"/>
       <c r="Q32" s="102"/>
       <c r="R32" s="102"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="189"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
       <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
+      <c r="W32" s="189"/>
       <c r="X32" s="85"/>
       <c r="Y32" s="85"/>
       <c r="Z32" s="85"/>
       <c r="AA32" s="85"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB32" s="85"/>
+      <c r="AC32" s="85"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="98"/>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -16415,16 +16545,18 @@
       <c r="P33" s="102"/>
       <c r="Q33" s="102"/>
       <c r="R33" s="102"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
       <c r="V33" s="85"/>
       <c r="W33" s="85"/>
       <c r="X33" s="85"/>
       <c r="Y33" s="85"/>
       <c r="Z33" s="85"/>
       <c r="AA33" s="85"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB33" s="85"/>
+      <c r="AC33" s="85"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D34" s="50" t="s">
         <v>83</v>
       </c>
@@ -16434,18 +16566,18 @@
       <c r="H34" s="48"/>
       <c r="I34" s="49"/>
       <c r="J34" s="49"/>
-      <c r="T34" s="50" t="s">
+      <c r="V34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="U34" s="51"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
+      <c r="W34" s="51"/>
       <c r="X34" s="52"/>
       <c r="Y34" s="52"/>
       <c r="Z34" s="52"/>
       <c r="AA34" s="52"/>
-    </row>
-    <row r="35" spans="1:29" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+    </row>
+    <row r="35" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>2</v>
       </c>
@@ -16495,37 +16627,43 @@
         <v>704</v>
       </c>
       <c r="Q35" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="R35" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="R35" s="56" t="s">
+      <c r="S35" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="T35" s="54" t="s">
+      <c r="T35" s="56" t="s">
+        <v>712</v>
+      </c>
+      <c r="V35" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="U35" s="54" t="s">
+      <c r="W35" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="V35" s="54" t="s">
+      <c r="X35" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="W35" s="54" t="s">
+      <c r="Y35" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="X35" s="54" t="s">
+      <c r="Z35" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Y35" s="54" t="s">
+      <c r="AA35" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Z35" s="54" t="s">
+      <c r="AB35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AA35" s="54" t="s">
+      <c r="AC35" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>13</v>
       </c>
@@ -16563,33 +16701,35 @@
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="104"/>
-      <c r="R36" s="59"/>
-      <c r="T36" s="63" t="s">
+      <c r="R36" s="104"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="203"/>
+      <c r="V36" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="63" t="s">
+      <c r="W36" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="V36" s="63" t="s">
+      <c r="X36" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="W36" s="63" t="s">
+      <c r="Y36" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="X36" s="63" t="s">
+      <c r="Z36" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="Y36" s="63" t="s">
+      <c r="AA36" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="Z36" s="63" t="s">
+      <c r="AB36" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AA36" s="63" t="s">
+      <c r="AC36" s="63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="64" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_01_Rad</v>
@@ -16650,37 +16790,39 @@
         <v>0.15</v>
       </c>
       <c r="P37" s="84" t="str">
-        <f t="shared" ref="P37:R43" si="9">IF(P6=0,"",P6)</f>
-        <v/>
-      </c>
-      <c r="Q37" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+        <f t="shared" ref="P37:S43" si="9">IF(P6=0,"",P6)</f>
+        <v/>
+      </c>
+      <c r="Q37" s="84"/>
       <c r="R37" s="84" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="T37" s="47" t="s">
+      <c r="S37" s="84" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T37" s="102"/>
+      <c r="V37" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="U37" s="158" t="s">
+      <c r="W37" s="158" t="s">
         <v>460</v>
       </c>
-      <c r="V37" s="47" t="str">
-        <f t="shared" ref="V37:V62" si="10">"New commercial - PS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AC6</f>
+      <c r="X37" s="47" t="str">
+        <f t="shared" ref="X37:X62" si="10">"New commercial - PS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AE6</f>
         <v>New commercial - PS Space Heat ELC Electric radiator</v>
       </c>
-      <c r="W37" s="47" t="s">
+      <c r="Y37" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X37" s="47" t="s">
+      <c r="Z37" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y37" s="85"/>
-      <c r="AC37" s="158"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA37" s="85"/>
+      <c r="AE37" s="158"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_02_Boi</v>
@@ -16744,31 +16886,33 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q38" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+      <c r="Q38" s="90"/>
       <c r="R38" s="90" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U38" s="158" t="s">
+      <c r="S38" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T38" s="102"/>
+      <c r="W38" s="158" t="s">
         <v>461</v>
       </c>
-      <c r="V38" s="47" t="str">
+      <c r="X38" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Electric boiler</v>
       </c>
-      <c r="W38" s="47" t="s">
+      <c r="Y38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X38" s="47" t="s">
+      <c r="Z38" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y38" s="85"/>
-      <c r="AC38" s="158"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA38" s="85"/>
+      <c r="AE38" s="158"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_03_HP</v>
@@ -16832,31 +16976,35 @@
         <f t="shared" si="9"/>
         <v>0.69696969696969702</v>
       </c>
-      <c r="Q39" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="Q39" s="246">
+        <v>5</v>
       </c>
       <c r="R39" s="90" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U39" s="158" t="s">
+      <c r="S39" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T39" s="102"/>
+      <c r="W39" s="158" t="s">
         <v>468</v>
       </c>
-      <c r="V39" s="47" t="str">
+      <c r="X39" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Air heat pump with electric boiler</v>
       </c>
-      <c r="W39" s="47" t="s">
+      <c r="Y39" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X39" s="47" t="s">
+      <c r="Z39" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y39" s="85"/>
-      <c r="AC39" s="158"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA39" s="85"/>
+      <c r="AE39" s="158"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_04_DHP</v>
@@ -16920,31 +17068,35 @@
         <f t="shared" si="9"/>
         <v>0.69696969696969702</v>
       </c>
-      <c r="Q40" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="Q40" s="246">
+        <v>5</v>
       </c>
       <c r="R40" s="90" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U40" s="158" t="s">
+      <c r="S40" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T40" s="102"/>
+      <c r="W40" s="158" t="s">
         <v>469</v>
       </c>
-      <c r="V40" s="47" t="str">
+      <c r="X40" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Air heat pump with electric boiler.HeatCool</v>
       </c>
-      <c r="W40" s="47" t="s">
+      <c r="Y40" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X40" s="47" t="s">
+      <c r="Z40" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y40" s="85"/>
-      <c r="AC40" s="158"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA40" s="85"/>
+      <c r="AE40" s="158"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_05_HP</v>
@@ -17008,31 +17160,35 @@
         <f t="shared" si="9"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q41" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="Q41" s="246">
+        <v>5</v>
       </c>
       <c r="R41" s="90" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U41" s="158" t="s">
+      <c r="S41" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T41" s="102"/>
+      <c r="W41" s="158" t="s">
         <v>470</v>
       </c>
-      <c r="V41" s="47" t="str">
+      <c r="X41" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Adv Air heat pump with electric boiler</v>
       </c>
-      <c r="W41" s="47" t="s">
+      <c r="Y41" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X41" s="47" t="s">
+      <c r="Z41" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y41" s="85"/>
-      <c r="AC41" s="158"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA41" s="85"/>
+      <c r="AE41" s="158"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_06_DHP</v>
@@ -17096,31 +17252,35 @@
         <f t="shared" si="9"/>
         <v>0.82758620689655205</v>
       </c>
-      <c r="Q42" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="Q42" s="246">
+        <v>5</v>
       </c>
       <c r="R42" s="90" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U42" s="158" t="s">
+      <c r="S42" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T42" s="102"/>
+      <c r="W42" s="158" t="s">
         <v>471</v>
       </c>
-      <c r="V42" s="47" t="str">
+      <c r="X42" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Adv Air heat pump with electric boiler.HeatCool</v>
       </c>
-      <c r="W42" s="47" t="s">
+      <c r="Y42" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X42" s="47" t="s">
+      <c r="Z42" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y42" s="85"/>
-      <c r="AC42" s="158"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA42" s="85"/>
+      <c r="AE42" s="158"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="86" t="str">
         <f t="shared" si="1"/>
         <v>CHPSELC_07_HP</v>
@@ -17184,37 +17344,41 @@
         <f>IF(P12=0,"",P12)</f>
         <v>0.8</v>
       </c>
-      <c r="Q43" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="Q43" s="246">
+        <v>5</v>
       </c>
       <c r="R43" s="90" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U43" s="158" t="s">
+      <c r="S43" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T43" s="102"/>
+      <c r="W43" s="158" t="s">
         <v>472</v>
       </c>
-      <c r="V43" s="47" t="str">
+      <c r="X43" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Ground heat pump with electric boiler</v>
       </c>
-      <c r="W43" s="47" t="s">
+      <c r="Y43" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X43" s="47" t="s">
+      <c r="Z43" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y43" s="85"/>
-      <c r="AC43" s="158"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA43" s="85"/>
+      <c r="AE43" s="158"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="86" t="str">
-        <f t="shared" ref="A44:A62" si="11">U44</f>
+        <f t="shared" ref="A44:A62" si="11">W44</f>
         <v>CHPSELC_08_DHP</v>
       </c>
       <c r="B44" s="67" t="str">
-        <f t="shared" ref="B44:B62" si="12">V44</f>
+        <f t="shared" ref="B44:B62" si="12">X44</f>
         <v>New commercial - PS Space Heat ELC Ground heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="C44" s="67" t="str">
@@ -17272,31 +17436,35 @@
         <f>IF(P13=0,"",P13)</f>
         <v>0.8</v>
       </c>
-      <c r="Q44" s="90" t="str">
-        <f t="shared" ref="Q44:R44" si="14">IF(Q13=0,"",Q13)</f>
-        <v/>
+      <c r="Q44" s="246">
+        <v>5</v>
       </c>
       <c r="R44" s="90" t="str">
+        <f t="shared" ref="R44:S44" si="14">IF(R13=0,"",R13)</f>
+        <v/>
+      </c>
+      <c r="S44" s="90" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="U44" s="158" t="s">
+      <c r="T44" s="102"/>
+      <c r="W44" s="158" t="s">
         <v>473</v>
       </c>
-      <c r="V44" s="47" t="str">
+      <c r="X44" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Ground heat pump with electric boiler.HeatCool</v>
       </c>
-      <c r="W44" s="47" t="s">
+      <c r="Y44" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X44" s="47" t="s">
+      <c r="Z44" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y44" s="85"/>
-      <c r="AC44" s="158"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA44" s="85"/>
+      <c r="AE44" s="158"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="86" t="str">
         <f t="shared" si="11"/>
         <v>*CHPSFCH_01</v>
@@ -17357,34 +17525,36 @@
         <v>0.15</v>
       </c>
       <c r="P45" s="90" t="str">
-        <f t="shared" ref="P45:R45" si="16">IF(P14=0,"",P14)</f>
-        <v/>
-      </c>
-      <c r="Q45" s="90" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+        <f t="shared" ref="P45:S45" si="16">IF(P14=0,"",P14)</f>
+        <v/>
+      </c>
+      <c r="Q45" s="90"/>
       <c r="R45" s="90" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="U45" s="158" t="s">
+      <c r="S45" s="90" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="T45" s="102"/>
+      <c r="W45" s="158" t="s">
         <v>425</v>
       </c>
-      <c r="V45" s="47" t="str">
+      <c r="X45" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat HET FC output to Heat demand</v>
       </c>
-      <c r="W45" s="47" t="s">
+      <c r="Y45" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X45" s="47" t="s">
+      <c r="Z45" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y45" s="85"/>
-      <c r="AC45" s="158"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA45" s="85"/>
+      <c r="AE45" s="158"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSGAS_01_Boi</v>
@@ -17445,34 +17615,36 @@
         <v>0.15</v>
       </c>
       <c r="P46" s="90" t="str">
-        <f t="shared" ref="P46:R46" si="18">IF(P15=0,"",P15)</f>
-        <v/>
-      </c>
-      <c r="Q46" s="90" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+        <f t="shared" ref="P46:S46" si="18">IF(P15=0,"",P15)</f>
+        <v/>
+      </c>
+      <c r="Q46" s="90"/>
       <c r="R46" s="90" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="U46" s="158" t="s">
+      <c r="S46" s="90" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T46" s="102"/>
+      <c r="W46" s="158" t="s">
         <v>462</v>
       </c>
-      <c r="V46" s="47" t="str">
+      <c r="X46" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler</v>
       </c>
-      <c r="W46" s="47" t="s">
+      <c r="Y46" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X46" s="47" t="s">
+      <c r="Z46" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y46" s="85"/>
-      <c r="AC46" s="158"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA46" s="85"/>
+      <c r="AE46" s="158"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSGAS_02_DBoi</v>
@@ -17533,34 +17705,38 @@
         <v>0.16</v>
       </c>
       <c r="P47" s="90" t="str">
-        <f t="shared" ref="P47:R47" si="20">IF(P16=0,"",P16)</f>
-        <v/>
-      </c>
-      <c r="Q47" s="90" t="str">
+        <f t="shared" ref="P47:S47" si="20">IF(P16=0,"",P16)</f>
+        <v/>
+      </c>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="R47" s="90">
+      <c r="S47" s="90">
         <f t="shared" si="20"/>
         <v>0.6</v>
       </c>
-      <c r="U47" s="158" t="s">
+      <c r="T47" s="249">
+        <v>5</v>
+      </c>
+      <c r="W47" s="158" t="s">
         <v>463</v>
       </c>
-      <c r="V47" s="47" t="str">
+      <c r="X47" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler.HeatHotwater</v>
       </c>
-      <c r="W47" s="47" t="s">
+      <c r="Y47" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X47" s="47" t="s">
+      <c r="Z47" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y47" s="85"/>
-      <c r="AC47" s="158"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA47" s="85"/>
+      <c r="AE47" s="158"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSGAS_03_Boi</v>
@@ -17621,34 +17797,36 @@
         <v>0.15</v>
       </c>
       <c r="P48" s="90" t="str">
-        <f t="shared" ref="P48:R48" si="22">IF(P17=0,"",P17)</f>
-        <v/>
-      </c>
-      <c r="Q48" s="90" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
+        <f t="shared" ref="P48:S48" si="22">IF(P17=0,"",P17)</f>
+        <v/>
+      </c>
+      <c r="Q48" s="90"/>
       <c r="R48" s="90" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="U48" s="158" t="s">
+      <c r="S48" s="90" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="T48" s="102"/>
+      <c r="W48" s="158" t="s">
         <v>464</v>
       </c>
-      <c r="V48" s="47" t="str">
+      <c r="X48" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler condensing</v>
       </c>
-      <c r="W48" s="47" t="s">
+      <c r="Y48" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X48" s="47" t="s">
+      <c r="Z48" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y48" s="85"/>
-      <c r="AC48" s="158"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA48" s="85"/>
+      <c r="AE48" s="158"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSGAS_04_DBoi</v>
@@ -17709,34 +17887,38 @@
         <v>0.16</v>
       </c>
       <c r="P49" s="90" t="str">
-        <f t="shared" ref="P49:R49" si="24">IF(P18=0,"",P18)</f>
-        <v/>
-      </c>
-      <c r="Q49" s="90" t="str">
+        <f t="shared" ref="P49:S49" si="24">IF(P18=0,"",P18)</f>
+        <v/>
+      </c>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="R49" s="90">
+      <c r="S49" s="90">
         <f t="shared" si="24"/>
         <v>0.6</v>
       </c>
-      <c r="U49" s="158" t="s">
+      <c r="T49" s="249">
+        <v>5</v>
+      </c>
+      <c r="W49" s="158" t="s">
         <v>465</v>
       </c>
-      <c r="V49" s="47" t="str">
+      <c r="X49" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler condensing.HeatHotwater</v>
       </c>
-      <c r="W49" s="47" t="s">
+      <c r="Y49" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X49" s="47" t="s">
+      <c r="Z49" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y49" s="85"/>
-      <c r="AC49" s="158"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA49" s="85"/>
+      <c r="AE49" s="158"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSGAS_05_HP</v>
@@ -17797,34 +17979,38 @@
         <v>0.15</v>
       </c>
       <c r="P50" s="90">
-        <f t="shared" ref="P50:R50" si="26">IF(P19=0,"",P19)</f>
+        <f t="shared" ref="P50:S50" si="26">IF(P19=0,"",P19)</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q50" s="90" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="Q50" s="246">
+        <v>5</v>
       </c>
       <c r="R50" s="90" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U50" s="158" t="s">
+      <c r="S50" s="90" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="T50" s="102"/>
+      <c r="W50" s="158" t="s">
         <v>466</v>
       </c>
-      <c r="V50" s="47" t="str">
+      <c r="X50" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas air heat pump</v>
       </c>
-      <c r="W50" s="47" t="s">
+      <c r="Y50" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X50" s="47" t="s">
+      <c r="Z50" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y50" s="85"/>
-      <c r="AC50" s="158"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA50" s="85"/>
+      <c r="AE50" s="158"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSGAS_06_DHP</v>
@@ -17885,34 +18071,38 @@
         <v>0.15</v>
       </c>
       <c r="P51" s="90">
-        <f t="shared" ref="P51:R51" si="28">IF(P20=0,"",P20)</f>
+        <f t="shared" ref="P51:S51" si="28">IF(P20=0,"",P20)</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q51" s="90" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+      <c r="Q51" s="246">
+        <v>5</v>
       </c>
       <c r="R51" s="90" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="U51" s="158" t="s">
+      <c r="S51" s="90" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="T51" s="102"/>
+      <c r="W51" s="158" t="s">
         <v>467</v>
       </c>
-      <c r="V51" s="47" t="str">
+      <c r="X51" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas air heat pump.HeatCool</v>
       </c>
-      <c r="W51" s="47" t="s">
+      <c r="Y51" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X51" s="47" t="s">
+      <c r="Z51" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y51" s="85"/>
-      <c r="AC51" s="158"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA51" s="85"/>
+      <c r="AE51" s="158"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSLPG_01_Boi</v>
@@ -17973,33 +18163,35 @@
         <v>0.15</v>
       </c>
       <c r="P52" s="90" t="str">
-        <f t="shared" ref="P52:R52" si="30">IF(P21=0,"",P21)</f>
-        <v/>
-      </c>
-      <c r="Q52" s="90" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
+        <f t="shared" ref="P52:S52" si="30">IF(P21=0,"",P21)</f>
+        <v/>
+      </c>
+      <c r="Q52" s="90"/>
       <c r="R52" s="90" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="U52" s="158" t="s">
+      <c r="S52" s="90" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="T52" s="102"/>
+      <c r="W52" s="158" t="s">
         <v>474</v>
       </c>
-      <c r="V52" s="47" t="str">
+      <c r="X52" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat LPG LPG boiler</v>
       </c>
-      <c r="W52" s="47" t="s">
+      <c r="Y52" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X52" s="47" t="s">
+      <c r="Z52" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC52" s="158"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE52" s="158"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSLPG_02_DBoi</v>
@@ -18060,33 +18252,37 @@
         <v>0.16</v>
       </c>
       <c r="P53" s="90" t="str">
-        <f t="shared" ref="P53:R53" si="32">IF(P22=0,"",P22)</f>
-        <v/>
-      </c>
-      <c r="Q53" s="90" t="str">
+        <f t="shared" ref="P53:S53" si="32">IF(P22=0,"",P22)</f>
+        <v/>
+      </c>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="R53" s="90">
+      <c r="S53" s="90">
         <f t="shared" si="32"/>
         <v>0.6</v>
       </c>
-      <c r="U53" s="158" t="s">
+      <c r="T53" s="249">
+        <v>5</v>
+      </c>
+      <c r="W53" s="158" t="s">
         <v>475</v>
       </c>
-      <c r="V53" s="47" t="str">
+      <c r="X53" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat LPG LPG boiler.HeatHotwater</v>
       </c>
-      <c r="W53" s="47" t="s">
+      <c r="Y53" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X53" s="47" t="s">
+      <c r="Z53" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC53" s="158"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE53" s="158"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSLPG_04_DHP</v>
@@ -18147,33 +18343,37 @@
         <v>0.15</v>
       </c>
       <c r="P54" s="90">
-        <f t="shared" ref="P54:R54" si="34">IF(P23=0,"",P23)</f>
+        <f t="shared" ref="P54:S54" si="34">IF(P23=0,"",P23)</f>
         <v>0.5</v>
       </c>
-      <c r="Q54" s="90" t="str">
-        <f t="shared" si="34"/>
-        <v/>
+      <c r="Q54" s="246">
+        <v>5</v>
       </c>
       <c r="R54" s="90" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="U54" s="158" t="s">
+      <c r="S54" s="90" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="T54" s="102"/>
+      <c r="W54" s="158" t="s">
         <v>476</v>
       </c>
-      <c r="V54" s="47" t="str">
+      <c r="X54" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat LPG LPG air heat pump.HeatCool</v>
       </c>
-      <c r="W54" s="47" t="s">
+      <c r="Y54" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X54" s="47" t="s">
+      <c r="Z54" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC54" s="158"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE54" s="158"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSHET_01_DH</v>
@@ -18234,33 +18434,37 @@
         <v>0.16</v>
       </c>
       <c r="P55" s="90" t="str">
-        <f t="shared" ref="P55:R55" si="36">IF(P24=0,"",P24)</f>
-        <v/>
-      </c>
-      <c r="Q55" s="90" t="str">
+        <f t="shared" ref="P55:S55" si="36">IF(P24=0,"",P24)</f>
+        <v/>
+      </c>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="R55" s="90">
+      <c r="S55" s="90">
         <f t="shared" si="36"/>
         <v>0.6</v>
       </c>
-      <c r="U55" s="158" t="s">
+      <c r="T55" s="249">
+        <v>5</v>
+      </c>
+      <c r="W55" s="158" t="s">
         <v>477</v>
       </c>
-      <c r="V55" s="47" t="str">
+      <c r="X55" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat HET District heat exchanger.HeatHotwater</v>
       </c>
-      <c r="W55" s="47" t="s">
+      <c r="Y55" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X55" s="47" t="s">
+      <c r="Z55" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC55" s="158"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE55" s="158"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSOIL_01_Boi</v>
@@ -18321,33 +18525,35 @@
         <v>0.15</v>
       </c>
       <c r="P56" s="90" t="str">
-        <f t="shared" ref="P56:R56" si="38">IF(P25=0,"",P25)</f>
-        <v/>
-      </c>
-      <c r="Q56" s="90" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
+        <f t="shared" ref="P56:S56" si="38">IF(P25=0,"",P25)</f>
+        <v/>
+      </c>
+      <c r="Q56" s="90"/>
       <c r="R56" s="90" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="U56" s="158" t="s">
+      <c r="S56" s="90" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="T56" s="102"/>
+      <c r="W56" s="158" t="s">
         <v>478</v>
       </c>
-      <c r="V56" s="47" t="str">
+      <c r="X56" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat OIL Oil boiler</v>
       </c>
-      <c r="W56" s="47" t="s">
+      <c r="Y56" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X56" s="47" t="s">
+      <c r="Z56" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC56" s="158"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE56" s="158"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSOIL_02_DBoi</v>
@@ -18408,33 +18614,37 @@
         <v>0.16</v>
       </c>
       <c r="P57" s="90" t="str">
-        <f t="shared" ref="P57:R57" si="40">IF(P26=0,"",P26)</f>
-        <v/>
-      </c>
-      <c r="Q57" s="90" t="str">
+        <f t="shared" ref="P57:S57" si="40">IF(P26=0,"",P26)</f>
+        <v/>
+      </c>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="R57" s="90">
+      <c r="S57" s="90">
         <f t="shared" si="40"/>
         <v>0.6</v>
       </c>
-      <c r="U57" s="158" t="s">
+      <c r="T57" s="249">
+        <v>5</v>
+      </c>
+      <c r="W57" s="158" t="s">
         <v>479</v>
       </c>
-      <c r="V57" s="47" t="str">
+      <c r="X57" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat OIL Oil boiler.HeatHotwater</v>
       </c>
-      <c r="W57" s="47" t="s">
+      <c r="Y57" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X57" s="47" t="s">
+      <c r="Z57" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC57" s="158"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE57" s="158"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSOIL_03_DBoi</v>
@@ -18495,33 +18705,37 @@
         <v>0.16</v>
       </c>
       <c r="P58" s="90" t="str">
-        <f t="shared" ref="P58:R58" si="42">IF(P27=0,"",P27)</f>
-        <v/>
-      </c>
-      <c r="Q58" s="90" t="str">
+        <f t="shared" ref="P58:S58" si="42">IF(P27=0,"",P27)</f>
+        <v/>
+      </c>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="90" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="R58" s="90">
+      <c r="S58" s="90">
         <f t="shared" si="42"/>
         <v>0.6</v>
       </c>
-      <c r="U58" s="158" t="s">
+      <c r="T58" s="249">
+        <v>5</v>
+      </c>
+      <c r="W58" s="158" t="s">
         <v>480</v>
       </c>
-      <c r="V58" s="47" t="str">
+      <c r="X58" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat OIL Oil boiler condensing.HeatHotwater</v>
       </c>
-      <c r="W58" s="47" t="s">
+      <c r="Y58" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X58" s="47" t="s">
+      <c r="Z58" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC58" s="158"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE58" s="158"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSSOL_01_EBkp</v>
@@ -18582,33 +18796,39 @@
         <v>0.16</v>
       </c>
       <c r="P59" s="90" t="str">
-        <f t="shared" ref="P59:R59" si="44">IF(P28=0,"",P28)</f>
-        <v/>
-      </c>
-      <c r="Q59" s="90">
+        <f t="shared" ref="P59:S59" si="44">IF(P28=0,"",P28)</f>
+        <v/>
+      </c>
+      <c r="Q59" s="246">
+        <v>5</v>
+      </c>
+      <c r="R59" s="90">
         <f t="shared" si="44"/>
         <v>0.68</v>
       </c>
-      <c r="R59" s="90">
+      <c r="S59" s="90">
         <f t="shared" si="44"/>
         <v>0.6</v>
       </c>
-      <c r="U59" s="158" t="s">
+      <c r="T59" s="249">
+        <v>5</v>
+      </c>
+      <c r="W59" s="158" t="s">
         <v>481</v>
       </c>
-      <c r="V59" s="47" t="str">
+      <c r="X59" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat SOL Solar collector with electric backup.HeatHotwater</v>
       </c>
-      <c r="W59" s="47" t="s">
+      <c r="Y59" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X59" s="47" t="s">
+      <c r="Z59" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC59" s="158"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE59" s="158"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSSOL_02_DBkp</v>
@@ -18669,33 +18889,39 @@
         <v>0.16</v>
       </c>
       <c r="P60" s="90" t="str">
-        <f t="shared" ref="P60:R60" si="46">IF(P29=0,"",P29)</f>
-        <v/>
-      </c>
-      <c r="Q60" s="90">
+        <f t="shared" ref="P60:S60" si="46">IF(P29=0,"",P29)</f>
+        <v/>
+      </c>
+      <c r="Q60" s="246">
+        <v>5</v>
+      </c>
+      <c r="R60" s="90">
         <f t="shared" si="46"/>
         <v>0.71</v>
       </c>
-      <c r="R60" s="90">
+      <c r="S60" s="90">
         <f t="shared" si="46"/>
         <v>0.6</v>
       </c>
-      <c r="U60" s="158" t="s">
+      <c r="T60" s="249">
+        <v>5</v>
+      </c>
+      <c r="W60" s="158" t="s">
         <v>518</v>
       </c>
-      <c r="V60" s="47" t="str">
+      <c r="X60" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat SOL Solar collector with diesel backup.HeatHotwater</v>
       </c>
-      <c r="W60" s="47" t="s">
+      <c r="Y60" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X60" s="47" t="s">
+      <c r="Z60" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC60" s="158"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE60" s="158"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="86" t="str">
         <f t="shared" si="11"/>
         <v>CHPSSOL_03_GBkp</v>
@@ -18756,33 +18982,39 @@
         <v>0.16</v>
       </c>
       <c r="P61" s="90" t="str">
-        <f t="shared" ref="P61:R61" si="48">IF(P30=0,"",P30)</f>
-        <v/>
-      </c>
-      <c r="Q61" s="90">
+        <f t="shared" ref="P61:S61" si="48">IF(P30=0,"",P30)</f>
+        <v/>
+      </c>
+      <c r="Q61" s="246">
+        <v>5</v>
+      </c>
+      <c r="R61" s="90">
         <f t="shared" si="48"/>
         <v>0.68</v>
       </c>
-      <c r="R61" s="90">
+      <c r="S61" s="90">
         <f t="shared" si="48"/>
         <v>0.6</v>
       </c>
-      <c r="U61" s="158" t="s">
+      <c r="T61" s="249">
+        <v>5</v>
+      </c>
+      <c r="W61" s="158" t="s">
         <v>519</v>
       </c>
-      <c r="V61" s="47" t="str">
+      <c r="X61" s="47" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat SOL Solar collector with gas backup.HeatHotwater</v>
       </c>
-      <c r="W61" s="47" t="s">
+      <c r="Y61" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X61" s="47" t="s">
+      <c r="Z61" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC61" s="158"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE61" s="158"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="91" t="str">
         <f t="shared" si="11"/>
         <v>CHPSBIO_01_DBoi</v>
@@ -18843,43 +19075,47 @@
         <v>0.16</v>
       </c>
       <c r="P62" s="96" t="str">
-        <f t="shared" ref="P62:R62" si="50">IF(P31=0,"",P31)</f>
-        <v/>
-      </c>
-      <c r="Q62" s="96" t="str">
+        <f t="shared" ref="P62:S62" si="50">IF(P31=0,"",P31)</f>
+        <v/>
+      </c>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="R62" s="96">
+      <c r="S62" s="96">
         <f t="shared" si="50"/>
         <v>0.6</v>
       </c>
-      <c r="T62" s="97"/>
-      <c r="U62" s="188" t="s">
+      <c r="T62" s="250">
+        <v>5</v>
+      </c>
+      <c r="V62" s="97"/>
+      <c r="W62" s="188" t="s">
         <v>482</v>
       </c>
-      <c r="V62" s="97" t="str">
+      <c r="X62" s="97" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat BIO Wood-pellets boiler.HeatHotwater</v>
       </c>
-      <c r="W62" s="97" t="s">
+      <c r="Y62" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="X62" s="97" t="s">
+      <c r="Z62" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="Y62" s="97"/>
-      <c r="Z62" s="97"/>
       <c r="AA62" s="97"/>
-      <c r="AC62" s="188"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB62" s="97"/>
+      <c r="AC62" s="97"/>
+      <c r="AE62" s="188"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="216" t="s">
         <v>579</v>
       </c>
       <c r="B65" s="216"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D66" s="191" t="s">
         <v>566</v>
       </c>
@@ -18889,18 +19125,18 @@
       <c r="H66" s="48"/>
       <c r="I66" s="49"/>
       <c r="J66" s="49"/>
-      <c r="T66" s="50" t="s">
+      <c r="V66" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="U66" s="51"/>
-      <c r="V66" s="52"/>
-      <c r="W66" s="52"/>
+      <c r="W66" s="51"/>
       <c r="X66" s="52"/>
       <c r="Y66" s="52"/>
       <c r="Z66" s="52"/>
       <c r="AA66" s="52"/>
-    </row>
-    <row r="67" spans="1:33" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="AB66" s="52"/>
+      <c r="AC66" s="52"/>
+    </row>
+    <row r="67" spans="1:35" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>2</v>
       </c>
@@ -18950,37 +19186,43 @@
         <v>704</v>
       </c>
       <c r="Q67" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="R67" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="R67" s="56" t="s">
+      <c r="S67" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="T67" s="54" t="s">
+      <c r="T67" s="56" t="s">
+        <v>712</v>
+      </c>
+      <c r="V67" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="U67" s="54" t="s">
+      <c r="W67" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="V67" s="54" t="s">
+      <c r="X67" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="W67" s="54" t="s">
+      <c r="Y67" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="X67" s="54" t="s">
+      <c r="Z67" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Y67" s="54" t="s">
+      <c r="AA67" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Z67" s="54" t="s">
+      <c r="AB67" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AA67" s="54" t="s">
+      <c r="AC67" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="201" t="s">
         <v>13</v>
       </c>
@@ -19019,38 +19261,40 @@
       <c r="P68" s="203"/>
       <c r="Q68" s="203"/>
       <c r="R68" s="203"/>
-      <c r="T68" s="63" t="s">
+      <c r="S68" s="203"/>
+      <c r="T68" s="203"/>
+      <c r="V68" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="U68" s="63" t="s">
+      <c r="W68" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="V68" s="63" t="s">
+      <c r="X68" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="W68" s="63" t="s">
+      <c r="Y68" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="X68" s="63" t="s">
+      <c r="Z68" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="Y68" s="63" t="s">
+      <c r="AA68" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="Z68" s="63" t="s">
+      <c r="AB68" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AA68" s="63" t="s">
+      <c r="AC68" s="63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="217" t="str">
-        <f t="shared" ref="A69:A72" si="51">U69</f>
+        <f t="shared" ref="A69:A72" si="51">W69</f>
         <v>CHCSGH2_01_Boi</v>
       </c>
       <c r="B69" s="218" t="str">
-        <f t="shared" ref="B69:B72" si="52">V69</f>
+        <f t="shared" ref="B69:B72" si="52">X69</f>
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen boiler</v>
       </c>
       <c r="C69" s="219" t="s">
@@ -19079,7 +19323,7 @@
         <v>0.19996427044383505</v>
       </c>
       <c r="L69" s="224"/>
-      <c r="M69" s="242">
+      <c r="M69" s="239">
         <v>20</v>
       </c>
       <c r="N69" s="225">
@@ -19092,30 +19336,32 @@
       <c r="P69" s="226"/>
       <c r="Q69" s="226"/>
       <c r="R69" s="226"/>
-      <c r="T69" s="189" t="s">
+      <c r="S69" s="226"/>
+      <c r="T69" s="102"/>
+      <c r="V69" s="189" t="s">
         <v>286</v>
       </c>
-      <c r="U69" s="158" t="s">
+      <c r="W69" s="158" t="s">
         <v>570</v>
       </c>
-      <c r="V69" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C69,3)&amp;" "&amp;AC69</f>
+      <c r="X69" s="47" t="str">
+        <f>"New commercial - CS Space Heat "&amp;RIGHT(C69,3)&amp;" "&amp;AE69</f>
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen boiler</v>
       </c>
-      <c r="W69" s="47" t="s">
+      <c r="Y69" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X69" s="158" t="s">
+      <c r="Z69" s="158" t="s">
         <v>578</v>
       </c>
-      <c r="Y69" s="85"/>
-      <c r="Z69" s="85"/>
       <c r="AA69" s="85"/>
-      <c r="AC69" s="158" t="s">
+      <c r="AB69" s="85"/>
+      <c r="AC69" s="85"/>
+      <c r="AE69" s="158" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="86" t="str">
         <f t="shared" si="51"/>
         <v>CHCSGH2_02_DBoi</v>
@@ -19166,38 +19412,42 @@
       </c>
       <c r="P70" s="90"/>
       <c r="Q70" s="90"/>
-      <c r="R70" s="90">
-        <f>R16</f>
+      <c r="R70" s="90"/>
+      <c r="S70" s="90">
+        <f>S16</f>
         <v>0.6</v>
       </c>
-      <c r="S70" s="211"/>
-      <c r="T70" s="211"/>
-      <c r="U70" s="158" t="s">
+      <c r="T70" s="249">
+        <v>5</v>
+      </c>
+      <c r="U70" s="211"/>
+      <c r="V70" s="211"/>
+      <c r="W70" s="158" t="s">
         <v>571</v>
       </c>
-      <c r="V70" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C70,3)&amp;" "&amp;AC70</f>
+      <c r="X70" s="47" t="str">
+        <f>"New commercial - CS Space Heat "&amp;RIGHT(C70,3)&amp;" "&amp;AE70</f>
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen boiler.HeatHotwater</v>
       </c>
-      <c r="W70" s="47" t="s">
+      <c r="Y70" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X70" s="47" t="s">
+      <c r="Z70" s="47" t="s">
         <v>578</v>
       </c>
-      <c r="Y70" s="211"/>
-      <c r="Z70" s="211"/>
       <c r="AA70" s="211"/>
       <c r="AB70" s="211"/>
-      <c r="AC70" s="158" t="s">
+      <c r="AC70" s="211"/>
+      <c r="AD70" s="211"/>
+      <c r="AE70" s="158" t="s">
         <v>575</v>
       </c>
-      <c r="AD70" s="211"/>
-      <c r="AE70" s="211"/>
       <c r="AF70" s="211"/>
       <c r="AG70" s="211"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH70" s="211"/>
+      <c r="AI70" s="211"/>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="86" t="str">
         <f t="shared" si="51"/>
         <v>CHCSGH2_03_HP</v>
@@ -19246,36 +19496,40 @@
         <f>P19</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q71" s="90"/>
+      <c r="Q71" s="246">
+        <v>5</v>
+      </c>
       <c r="R71" s="90"/>
-      <c r="S71" s="211"/>
-      <c r="T71" s="211"/>
-      <c r="U71" s="158" t="s">
+      <c r="S71" s="90"/>
+      <c r="T71" s="102"/>
+      <c r="U71" s="211"/>
+      <c r="V71" s="211"/>
+      <c r="W71" s="158" t="s">
         <v>572</v>
       </c>
-      <c r="V71" s="47" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C71,3)&amp;" "&amp;AC71</f>
+      <c r="X71" s="47" t="str">
+        <f>"New commercial - CS Space Heat "&amp;RIGHT(C71,3)&amp;" "&amp;AE71</f>
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen air heat pump</v>
       </c>
-      <c r="W71" s="47" t="s">
+      <c r="Y71" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X71" s="47" t="s">
+      <c r="Z71" s="47" t="s">
         <v>578</v>
       </c>
-      <c r="Y71" s="211"/>
-      <c r="Z71" s="211"/>
       <c r="AA71" s="211"/>
       <c r="AB71" s="211"/>
-      <c r="AC71" s="158" t="s">
+      <c r="AC71" s="211"/>
+      <c r="AD71" s="211"/>
+      <c r="AE71" s="158" t="s">
         <v>576</v>
       </c>
-      <c r="AD71" s="211"/>
-      <c r="AE71" s="211"/>
       <c r="AF71" s="211"/>
       <c r="AG71" s="211"/>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH71" s="211"/>
+      <c r="AI71" s="211"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="91" t="str">
         <f t="shared" si="51"/>
         <v>CHCSGH2_04_DHP</v>
@@ -19313,7 +19567,7 @@
         <v>0.32856874241555639</v>
       </c>
       <c r="L72" s="95"/>
-      <c r="M72" s="243">
+      <c r="M72" s="240">
         <f>M71</f>
         <v>20</v>
       </c>
@@ -19328,36 +19582,40 @@
         <f>P20</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q72" s="96"/>
+      <c r="Q72" s="247">
+        <v>5</v>
+      </c>
       <c r="R72" s="96"/>
-      <c r="S72" s="211"/>
-      <c r="T72" s="212"/>
-      <c r="U72" s="188" t="s">
+      <c r="S72" s="96"/>
+      <c r="T72" s="248"/>
+      <c r="U72" s="211"/>
+      <c r="V72" s="212"/>
+      <c r="W72" s="188" t="s">
         <v>573</v>
       </c>
-      <c r="V72" s="97" t="str">
-        <f>"New commercial - CS Space Heat "&amp;RIGHT(C72,3)&amp;" "&amp;AC72</f>
+      <c r="X72" s="97" t="str">
+        <f>"New commercial - CS Space Heat "&amp;RIGHT(C72,3)&amp;" "&amp;AE72</f>
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen heat pump.HeatCool</v>
       </c>
-      <c r="W72" s="97" t="s">
+      <c r="Y72" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="X72" s="97" t="s">
+      <c r="Z72" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="Y72" s="212"/>
-      <c r="Z72" s="212"/>
       <c r="AA72" s="212"/>
-      <c r="AB72" s="211"/>
-      <c r="AC72" s="158" t="s">
+      <c r="AB72" s="212"/>
+      <c r="AC72" s="212"/>
+      <c r="AD72" s="211"/>
+      <c r="AE72" s="158" t="s">
         <v>577</v>
       </c>
-      <c r="AD72" s="211"/>
-      <c r="AE72" s="211"/>
       <c r="AF72" s="211"/>
       <c r="AG72" s="211"/>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH72" s="211"/>
+      <c r="AI72" s="211"/>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="98"/>
       <c r="B73" s="75"/>
       <c r="C73" s="229"/>
@@ -19376,23 +19634,25 @@
       <c r="P73" s="102"/>
       <c r="Q73" s="102"/>
       <c r="R73" s="102"/>
-      <c r="S73" s="211"/>
-      <c r="T73" s="230"/>
-      <c r="U73" s="189"/>
-      <c r="V73" s="85"/>
-      <c r="W73" s="85"/>
+      <c r="S73" s="102"/>
+      <c r="T73" s="102"/>
+      <c r="U73" s="211"/>
+      <c r="V73" s="230"/>
+      <c r="W73" s="189"/>
       <c r="X73" s="85"/>
-      <c r="Y73" s="230"/>
-      <c r="Z73" s="230"/>
+      <c r="Y73" s="85"/>
+      <c r="Z73" s="85"/>
       <c r="AA73" s="230"/>
-      <c r="AB73" s="211"/>
-      <c r="AC73" s="158"/>
+      <c r="AB73" s="230"/>
+      <c r="AC73" s="230"/>
       <c r="AD73" s="211"/>
-      <c r="AE73" s="211"/>
+      <c r="AE73" s="158"/>
       <c r="AF73" s="211"/>
       <c r="AG73" s="211"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH73" s="211"/>
+      <c r="AI73" s="211"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D74" s="191" t="s">
         <v>566</v>
       </c>
@@ -19402,24 +19662,24 @@
       <c r="H74" s="48"/>
       <c r="I74" s="49"/>
       <c r="J74" s="49"/>
-      <c r="T74" s="50" t="s">
+      <c r="V74" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="U74" s="51"/>
-      <c r="V74" s="52"/>
-      <c r="W74" s="52"/>
+      <c r="W74" s="51"/>
       <c r="X74" s="52"/>
       <c r="Y74" s="52"/>
       <c r="Z74" s="52"/>
       <c r="AA74" s="52"/>
-      <c r="AB74" s="211"/>
-      <c r="AC74" s="158"/>
+      <c r="AB74" s="52"/>
+      <c r="AC74" s="52"/>
       <c r="AD74" s="211"/>
-      <c r="AE74" s="211"/>
+      <c r="AE74" s="158"/>
       <c r="AF74" s="211"/>
       <c r="AG74" s="211"/>
-    </row>
-    <row r="75" spans="1:33" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="AH74" s="211"/>
+      <c r="AI74" s="211"/>
+    </row>
+    <row r="75" spans="1:35" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="53" t="s">
         <v>2</v>
       </c>
@@ -19469,43 +19729,49 @@
         <v>704</v>
       </c>
       <c r="Q75" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="R75" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="R75" s="56" t="s">
+      <c r="S75" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="T75" s="54" t="s">
+      <c r="T75" s="56" t="s">
+        <v>712</v>
+      </c>
+      <c r="V75" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="U75" s="54" t="s">
+      <c r="W75" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="V75" s="54" t="s">
+      <c r="X75" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="W75" s="54" t="s">
+      <c r="Y75" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="X75" s="54" t="s">
+      <c r="Z75" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Y75" s="54" t="s">
+      <c r="AA75" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Z75" s="54" t="s">
+      <c r="AB75" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AA75" s="54" t="s">
+      <c r="AC75" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="AB75" s="211"/>
-      <c r="AC75" s="158"/>
       <c r="AD75" s="211"/>
-      <c r="AE75" s="211"/>
+      <c r="AE75" s="158"/>
       <c r="AF75" s="211"/>
       <c r="AG75" s="211"/>
-    </row>
-    <row r="76" spans="1:33" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AH75" s="211"/>
+      <c r="AI75" s="211"/>
+    </row>
+    <row r="76" spans="1:35" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="201" t="s">
         <v>13</v>
       </c>
@@ -19544,44 +19810,46 @@
       <c r="P76" s="203"/>
       <c r="Q76" s="203"/>
       <c r="R76" s="203"/>
-      <c r="T76" s="63" t="s">
+      <c r="S76" s="203"/>
+      <c r="T76" s="203"/>
+      <c r="V76" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="U76" s="63" t="s">
+      <c r="W76" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="V76" s="63" t="s">
+      <c r="X76" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="W76" s="63" t="s">
+      <c r="Y76" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="X76" s="63" t="s">
+      <c r="Z76" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="Y76" s="63" t="s">
+      <c r="AA76" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="Z76" s="63" t="s">
+      <c r="AB76" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AA76" s="63" t="s">
+      <c r="AC76" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="AB76" s="211"/>
-      <c r="AC76" s="158"/>
       <c r="AD76" s="211"/>
-      <c r="AE76" s="211"/>
+      <c r="AE76" s="158"/>
       <c r="AF76" s="211"/>
       <c r="AG76" s="211"/>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH76" s="211"/>
+      <c r="AI76" s="211"/>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="217" t="str">
-        <f t="shared" ref="A77:A80" si="53">U77</f>
+        <f t="shared" ref="A77:A80" si="53">W77</f>
         <v>CHPSGH2_01_Boi</v>
       </c>
       <c r="B77" s="218" t="str">
-        <f t="shared" ref="B77:B80" si="54">V77</f>
+        <f t="shared" ref="B77:B80" si="54">X77</f>
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen boiler</v>
       </c>
       <c r="C77" s="219" t="s">
@@ -19595,7 +19863,7 @@
         <v>0.9</v>
       </c>
       <c r="F77" s="220" t="str">
-        <f t="shared" ref="F77:R77" si="55">IF(F69=0,"",F69)</f>
+        <f t="shared" ref="F77:S77" si="55">IF(F69=0,"",F69)</f>
         <v/>
       </c>
       <c r="G77" s="220" t="str">
@@ -19622,7 +19890,7 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="M77" s="242">
+      <c r="M77" s="239">
         <f t="shared" si="55"/>
         <v>20</v>
       </c>
@@ -19638,38 +19906,40 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="Q77" s="226" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
+      <c r="Q77" s="226"/>
       <c r="R77" s="226" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="T77" s="228" t="s">
+      <c r="S77" s="226" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="T77" s="102"/>
+      <c r="V77" s="228" t="s">
         <v>286</v>
       </c>
-      <c r="U77" s="228" t="s">
+      <c r="W77" s="228" t="s">
         <v>580</v>
       </c>
-      <c r="V77" s="227" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C77,3)&amp;" "&amp;AC77</f>
+      <c r="X77" s="227" t="str">
+        <f>"New commercial - PS Space Heat "&amp;RIGHT(C77,3)&amp;" "&amp;AE77</f>
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen boiler</v>
       </c>
-      <c r="W77" s="227" t="s">
+      <c r="Y77" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="X77" s="228" t="s">
+      <c r="Z77" s="228" t="s">
         <v>578</v>
       </c>
-      <c r="Y77" s="227"/>
-      <c r="Z77" s="227"/>
       <c r="AA77" s="227"/>
-      <c r="AC77" s="158" t="s">
+      <c r="AB77" s="227"/>
+      <c r="AC77" s="227"/>
+      <c r="AE77" s="158" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="86" t="str">
         <f t="shared" si="53"/>
         <v>CHPSGH2_02_DBoi</v>
@@ -19681,11 +19951,11 @@
       <c r="C78" s="159" t="s">
         <v>621</v>
       </c>
-      <c r="D78" s="244" t="s">
+      <c r="D78" s="241" t="s">
         <v>327</v>
       </c>
       <c r="E78" s="87" t="str">
-        <f t="shared" ref="E78:R78" si="56">IF(E70=0,"",E70)</f>
+        <f t="shared" ref="E78:S78" si="56">IF(E70=0,"",E70)</f>
         <v/>
       </c>
       <c r="F78" s="87">
@@ -19732,36 +20002,40 @@
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="Q78" s="90" t="str">
+      <c r="Q78" s="90"/>
+      <c r="R78" s="90" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="R78" s="90">
+      <c r="S78" s="90">
         <f t="shared" si="56"/>
         <v>0.6</v>
       </c>
-      <c r="T78" s="85"/>
-      <c r="U78" s="189" t="s">
+      <c r="T78" s="249">
+        <v>5</v>
+      </c>
+      <c r="V78" s="85"/>
+      <c r="W78" s="189" t="s">
         <v>581</v>
       </c>
-      <c r="V78" s="85" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C78,3)&amp;" "&amp;AC78</f>
+      <c r="X78" s="85" t="str">
+        <f>"New commercial - PS Space Heat "&amp;RIGHT(C78,3)&amp;" "&amp;AE78</f>
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen boiler.HeatHotwater</v>
       </c>
-      <c r="W78" s="85" t="s">
+      <c r="Y78" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="X78" s="85" t="s">
+      <c r="Z78" s="85" t="s">
         <v>578</v>
       </c>
-      <c r="Y78" s="85"/>
-      <c r="Z78" s="85"/>
       <c r="AA78" s="85"/>
-      <c r="AC78" s="158" t="s">
+      <c r="AB78" s="85"/>
+      <c r="AC78" s="85"/>
+      <c r="AE78" s="158" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="86" t="str">
         <f t="shared" si="53"/>
         <v>CHPSGH2_03_HP</v>
@@ -19773,11 +20047,11 @@
       <c r="C79" s="159" t="s">
         <v>708</v>
       </c>
-      <c r="D79" s="244" t="s">
+      <c r="D79" s="241" t="s">
         <v>320</v>
       </c>
       <c r="E79" s="87">
-        <f t="shared" ref="E79:R79" si="57">IF(E71=0,"",E71)</f>
+        <f t="shared" ref="E79:S79" si="57">IF(E71=0,"",E71)</f>
         <v>0.93</v>
       </c>
       <c r="F79" s="87" t="str">
@@ -19824,36 +20098,40 @@
         <f t="shared" si="57"/>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q79" s="90" t="str">
-        <f t="shared" si="57"/>
-        <v/>
+      <c r="Q79" s="246">
+        <v>5</v>
       </c>
       <c r="R79" s="90" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="T79" s="85"/>
-      <c r="U79" s="189" t="s">
+      <c r="S79" s="90" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="T79" s="102"/>
+      <c r="V79" s="85"/>
+      <c r="W79" s="189" t="s">
         <v>582</v>
       </c>
-      <c r="V79" s="85" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C79,3)&amp;" "&amp;AC79</f>
+      <c r="X79" s="85" t="str">
+        <f>"New commercial - PS Space Heat "&amp;RIGHT(C79,3)&amp;" "&amp;AE79</f>
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen air heat pump</v>
       </c>
-      <c r="W79" s="85" t="s">
+      <c r="Y79" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="X79" s="85" t="s">
+      <c r="Z79" s="85" t="s">
         <v>578</v>
       </c>
-      <c r="Y79" s="85"/>
-      <c r="Z79" s="85"/>
       <c r="AA79" s="85"/>
-      <c r="AC79" s="158" t="s">
+      <c r="AB79" s="85"/>
+      <c r="AC79" s="85"/>
+      <c r="AE79" s="158" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="91" t="str">
         <f t="shared" si="53"/>
         <v>CHPSGH2_04_DHP</v>
@@ -19865,11 +20143,11 @@
       <c r="C80" s="214" t="s">
         <v>708</v>
       </c>
-      <c r="D80" s="245" t="s">
+      <c r="D80" s="242" t="s">
         <v>326</v>
       </c>
       <c r="E80" s="92" t="str">
-        <f t="shared" ref="E80:R80" si="58">IF(E72=0,"",E72)</f>
+        <f t="shared" ref="E80:S80" si="58">IF(E72=0,"",E72)</f>
         <v/>
       </c>
       <c r="F80" s="92">
@@ -19900,7 +20178,7 @@
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="M80" s="243">
+      <c r="M80" s="240">
         <f t="shared" si="58"/>
         <v>20</v>
       </c>
@@ -19916,41 +20194,45 @@
         <f t="shared" si="58"/>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q80" s="96" t="str">
-        <f t="shared" si="58"/>
-        <v/>
+      <c r="Q80" s="247">
+        <v>5</v>
       </c>
       <c r="R80" s="96" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="T80" s="97"/>
-      <c r="U80" s="188" t="s">
+      <c r="S80" s="96" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="T80" s="248"/>
+      <c r="V80" s="97"/>
+      <c r="W80" s="188" t="s">
         <v>583</v>
       </c>
-      <c r="V80" s="97" t="str">
-        <f>"New commercial - PS Space Heat "&amp;RIGHT(C80,3)&amp;" "&amp;AC80</f>
+      <c r="X80" s="97" t="str">
+        <f>"New commercial - PS Space Heat "&amp;RIGHT(C80,3)&amp;" "&amp;AE80</f>
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen heat pump.HeatCool</v>
       </c>
-      <c r="W80" s="97" t="s">
+      <c r="Y80" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="X80" s="97" t="s">
+      <c r="Z80" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="Y80" s="97"/>
-      <c r="Z80" s="97"/>
       <c r="AA80" s="97"/>
-      <c r="AC80" s="158" t="s">
+      <c r="AB80" s="97"/>
+      <c r="AC80" s="97"/>
+      <c r="AE80" s="158" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="233" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="231" t="s">
         <v>587</v>
       </c>
@@ -19969,8 +20251,9 @@
       <c r="N86" s="231"/>
       <c r="O86" s="231"/>
       <c r="P86" s="231"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86" s="234"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="231" t="s">
         <v>2</v>
       </c>
@@ -20019,8 +20302,9 @@
       <c r="P87" s="231" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87" s="234"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="231" t="s">
         <v>13</v>
       </c>
@@ -20067,8 +20351,9 @@
       <c r="P88" s="231" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88" s="234"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="231" t="s">
         <v>605</v>
       </c>
@@ -20107,8 +20392,9 @@
       <c r="P89" s="231" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89" s="234"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="231" t="s">
         <v>610</v>
       </c>
@@ -20149,8 +20435,9 @@
       <c r="P90" s="231">
         <v>0.19996427044383505</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90" s="234"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="231"/>
       <c r="B91" s="231"/>
       <c r="C91" s="231"/>
@@ -20173,8 +20460,9 @@
       <c r="N91" s="231"/>
       <c r="O91" s="231"/>
       <c r="P91" s="231"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91" s="234"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="231" t="s">
         <v>613</v>
       </c>
@@ -20215,8 +20503,9 @@
       <c r="P92" s="231">
         <v>0.68976066753429011</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92" s="234"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="231"/>
       <c r="B93" s="231"/>
       <c r="C93" s="231"/>
@@ -20241,8 +20530,9 @@
       <c r="N93" s="231"/>
       <c r="O93" s="231"/>
       <c r="P93" s="231"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93" s="234"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="231" t="s">
         <v>614</v>
       </c>
@@ -20283,8 +20573,9 @@
       <c r="P94" s="231">
         <v>0.32856874241555639</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94" s="234"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="231"/>
       <c r="B95" s="231"/>
       <c r="C95" s="231"/>
@@ -20309,8 +20600,9 @@
       <c r="N95" s="231"/>
       <c r="O95" s="231"/>
       <c r="P95" s="231"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95" s="234"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="231" t="s">
         <v>615</v>
       </c>
@@ -20351,8 +20643,9 @@
       <c r="P96" s="231">
         <v>0.32856874241555639</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96" s="234"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="231"/>
       <c r="B97" s="231"/>
       <c r="C97" s="231"/>
@@ -20377,8 +20670,9 @@
       <c r="N97" s="231"/>
       <c r="O97" s="231"/>
       <c r="P97" s="231"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97" s="234"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="231" t="s">
         <v>617</v>
       </c>
@@ -20419,8 +20713,9 @@
       <c r="P98" s="231">
         <v>0.6497662529010263</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98" s="234"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="231"/>
       <c r="B99" s="231"/>
       <c r="C99" s="231"/>
@@ -20445,8 +20740,9 @@
       <c r="N99" s="231"/>
       <c r="O99" s="231"/>
       <c r="P99" s="231"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99" s="234"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="231" t="s">
         <v>618</v>
       </c>
@@ -20487,8 +20783,9 @@
       <c r="P100" s="231">
         <v>0.6497662529010263</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100" s="234"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="231"/>
       <c r="B101" s="231"/>
       <c r="C101" s="231"/>
@@ -20513,8 +20810,9 @@
       <c r="N101" s="231"/>
       <c r="O101" s="231"/>
       <c r="P101" s="231"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101" s="234"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="231" t="s">
         <v>619</v>
       </c>
@@ -20555,8 +20853,9 @@
       <c r="P102" s="231">
         <v>139.78055822369214</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102" s="234"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="231"/>
       <c r="B103" s="231"/>
       <c r="C103" s="231"/>
@@ -20583,8 +20882,9 @@
       <c r="N103" s="231"/>
       <c r="O103" s="231"/>
       <c r="P103" s="231"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103" s="234"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="231"/>
       <c r="B104" s="231"/>
       <c r="C104" s="231"/>
@@ -20603,8 +20903,9 @@
       <c r="N104" s="231"/>
       <c r="O104" s="231"/>
       <c r="P104" s="231"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104" s="234"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="231" t="s">
         <v>562</v>
       </c>
@@ -20645,8 +20946,9 @@
       <c r="P105" s="231">
         <v>5.3323805451689348E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105" s="234"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="231"/>
       <c r="B106" s="231"/>
       <c r="C106" s="231"/>
@@ -20669,8 +20971,9 @@
       <c r="N106" s="231"/>
       <c r="O106" s="231"/>
       <c r="P106" s="231"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106" s="234"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="231" t="s">
         <v>564</v>
       </c>
@@ -20711,6 +21014,7 @@
       <c r="P107" s="231">
         <v>5.7425695315005153E-2</v>
       </c>
+      <c r="Q107" s="234"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23563,10 +23867,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23577,33 +23881,33 @@
     <col min="4" max="4" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="108"/>
     <col min="7" max="8" width="9.140625" style="108" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="108"/>
-    <col min="16" max="16" width="3.5703125" style="108" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="76" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="108"/>
-    <col min="22" max="22" width="12.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="9.140625" style="108"/>
-    <col min="28" max="28" width="15.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18" style="108" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="108"/>
-    <col min="32" max="32" width="13" style="108" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="108"/>
+    <col min="9" max="16" width="9.140625" style="108"/>
+    <col min="17" max="17" width="3.5703125" style="108" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="76" style="108" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="108"/>
+    <col min="23" max="23" width="12.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="9.140625" style="108"/>
+    <col min="29" max="29" width="15.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18" style="108" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="108"/>
+    <col min="33" max="33" width="13" style="108" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="106" t="s">
         <v>341</v>
       </c>
       <c r="B1" s="107"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
         <v>36</v>
       </c>
@@ -23613,7 +23917,7 @@
       <c r="G2" s="110"/>
       <c r="H2" s="110"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D3" s="111" t="s">
         <v>83</v>
       </c>
@@ -23621,18 +23925,18 @@
       <c r="F3" s="110"/>
       <c r="G3" s="110"/>
       <c r="H3" s="110"/>
-      <c r="Q3" s="111" t="s">
+      <c r="R3" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="112"/>
-      <c r="S3" s="113"/>
+      <c r="S3" s="112"/>
       <c r="T3" s="113"/>
       <c r="U3" s="113"/>
       <c r="V3" s="113"/>
       <c r="W3" s="113"/>
       <c r="X3" s="113"/>
-    </row>
-    <row r="4" spans="1:35" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="Y3" s="113"/>
+    </row>
+    <row r="4" spans="1:36" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="114" t="s">
         <v>2</v>
       </c>
@@ -23675,35 +23979,38 @@
       <c r="N4" s="117" t="s">
         <v>704</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="P4" s="117" t="s">
         <v>337</v>
       </c>
-      <c r="Q4" s="115" t="s">
+      <c r="R4" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="115" t="s">
+      <c r="S4" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="115" t="s">
+      <c r="T4" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="115" t="s">
+      <c r="U4" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="V4" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="115" t="s">
+      <c r="W4" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="115" t="s">
+      <c r="X4" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="115" t="s">
+      <c r="Y4" s="115" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
         <v>13</v>
       </c>
@@ -23739,38 +24046,39 @@
       </c>
       <c r="N5" s="120"/>
       <c r="O5" s="124"/>
-      <c r="Q5" s="125" t="s">
+      <c r="P5" s="124"/>
+      <c r="R5" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="125" t="s">
+      <c r="S5" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="125" t="s">
+      <c r="T5" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="125" t="s">
+      <c r="U5" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="125" t="s">
+      <c r="V5" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="125" t="s">
+      <c r="W5" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="125" t="s">
+      <c r="X5" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="125" t="s">
+      <c r="Y5" s="125" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="126" t="str">
-        <f t="shared" ref="A6:A17" si="0">R6</f>
+        <f t="shared" ref="A6:A17" si="0">S6</f>
         <v>CWCSBIO_01_Boi</v>
       </c>
       <c r="B6" s="126" t="str">
-        <f t="shared" ref="B6:B17" si="1">S6</f>
+        <f t="shared" ref="B6:B17" si="1">T6</f>
         <v>New commercial - CS Water Heat BIO Biomass boiler water heater</v>
       </c>
       <c r="C6" s="126" t="s">
@@ -23818,32 +24126,33 @@
         <f>IF(Raw_CW!E16=0,"",Raw_CW!E16)</f>
         <v/>
       </c>
-      <c r="O6" s="133" t="str">
+      <c r="O6" s="133"/>
+      <c r="P6" s="133" t="str">
         <f>IF(Raw_CW!F16=0,"",Raw_CW!F16)</f>
         <v/>
       </c>
-      <c r="Q6" s="108" t="s">
+      <c r="R6" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="R6" s="158" t="s">
+      <c r="S6" s="158" t="s">
         <v>506</v>
       </c>
-      <c r="S6" s="108" t="str">
-        <f t="shared" ref="S6:S17" si="2">"New commercial - CS Water Heat "&amp;RIGHT(C6,3)&amp;" "&amp;Z6</f>
+      <c r="T6" s="108" t="str">
+        <f t="shared" ref="T6:T17" si="2">"New commercial - CS Water Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AA6</f>
         <v>New commercial - CS Water Heat BIO Biomass boiler water heater</v>
       </c>
-      <c r="T6" s="108" t="s">
+      <c r="U6" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="108" t="s">
+      <c r="V6" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="134"/>
-      <c r="Z6" s="108" t="s">
+      <c r="W6" s="134"/>
+      <c r="AA6" s="108" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSELC_01_Boi</v>
@@ -23897,29 +24206,30 @@
         <f>IF(Raw_CW!E17=0,"",Raw_CW!E17)</f>
         <v/>
       </c>
-      <c r="O7" s="142" t="str">
+      <c r="O7" s="142"/>
+      <c r="P7" s="142" t="str">
         <f>IF(Raw_CW!F17=0,"",Raw_CW!F17)</f>
         <v/>
       </c>
-      <c r="R7" s="158" t="s">
+      <c r="S7" s="158" t="s">
         <v>507</v>
       </c>
-      <c r="S7" s="108" t="str">
+      <c r="T7" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat ELC Electric boiler water heater resistance</v>
       </c>
-      <c r="T7" s="108" t="s">
+      <c r="U7" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="108" t="s">
+      <c r="V7" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V7" s="134"/>
-      <c r="Z7" s="108" t="s">
+      <c r="W7" s="134"/>
+      <c r="AA7" s="108" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSELC_02_HP</v>
@@ -23973,30 +24283,33 @@
         <f>IF(Raw_CW!E18=0,"",Raw_CW!E18)</f>
         <v>0.57264957264957295</v>
       </c>
-      <c r="O8" s="142" t="str">
+      <c r="O8" s="251">
+        <v>5</v>
+      </c>
+      <c r="P8" s="142" t="str">
         <f>IF(Raw_CW!F18=0,"",Raw_CW!F18)</f>
         <v/>
       </c>
-      <c r="R8" s="158" t="s">
+      <c r="S8" s="158" t="s">
         <v>508</v>
       </c>
-      <c r="S8" s="108" t="str">
+      <c r="T8" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat LC  Electric heat pump water heater</v>
       </c>
-      <c r="T8" s="108" t="s">
+      <c r="U8" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="108" t="s">
+      <c r="V8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V8" s="134"/>
-      <c r="Z8" s="108" t="s">
+      <c r="W8" s="134"/>
+      <c r="AA8" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="AC8" s="143"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD8" s="143"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="135" t="str">
         <f t="shared" si="0"/>
         <v>*CWCSFCW_01</v>
@@ -24050,30 +24363,31 @@
         <f>IF(Raw_CW!E19=0,"",Raw_CW!E19)</f>
         <v/>
       </c>
-      <c r="O9" s="142" t="str">
+      <c r="O9" s="142"/>
+      <c r="P9" s="142" t="str">
         <f>IF(Raw_CW!F19=0,"",Raw_CW!F19)</f>
         <v/>
       </c>
-      <c r="R9" s="158" t="s">
+      <c r="S9" s="158" t="s">
         <v>426</v>
       </c>
-      <c r="S9" s="108" t="str">
+      <c r="T9" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat HET FC output to HotWater demand</v>
       </c>
-      <c r="T9" s="108" t="s">
+      <c r="U9" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="108" t="s">
+      <c r="V9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="134"/>
-      <c r="Z9" s="108" t="s">
+      <c r="W9" s="134"/>
+      <c r="AA9" s="108" t="s">
         <v>345</v>
       </c>
-      <c r="AC9" s="144"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD9" s="144"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSGAS_01_Boi</v>
@@ -24127,29 +24441,30 @@
         <f>IF(Raw_CW!E20=0,"",Raw_CW!E20)</f>
         <v/>
       </c>
-      <c r="O10" s="142" t="str">
+      <c r="O10" s="142"/>
+      <c r="P10" s="142" t="str">
         <f>IF(Raw_CW!F20=0,"",Raw_CW!F20)</f>
         <v/>
       </c>
-      <c r="R10" s="158" t="s">
+      <c r="S10" s="158" t="s">
         <v>509</v>
       </c>
-      <c r="S10" s="108" t="str">
+      <c r="T10" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat GAS Natural gas boiler water heater</v>
       </c>
-      <c r="T10" s="108" t="s">
+      <c r="U10" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="108" t="s">
+      <c r="V10" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V10" s="134"/>
-      <c r="Z10" s="108" t="s">
+      <c r="W10" s="134"/>
+      <c r="AA10" s="108" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSGEO_01</v>
@@ -24203,37 +24518,38 @@
         <f>IF(Raw_CW!E21=0,"",Raw_CW!E21)</f>
         <v/>
       </c>
-      <c r="O11" s="142" t="str">
+      <c r="O11" s="142"/>
+      <c r="P11" s="142" t="str">
         <f>IF(Raw_CW!F21=0,"",Raw_CW!F21)</f>
         <v/>
       </c>
-      <c r="R11" s="158" t="s">
+      <c r="S11" s="158" t="s">
         <v>427</v>
       </c>
-      <c r="S11" s="108" t="str">
+      <c r="T11" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat GEO Geo Heat Exchanger water heater</v>
       </c>
-      <c r="T11" s="108" t="s">
+      <c r="U11" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U11" s="108" t="s">
+      <c r="V11" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V11" s="134"/>
-      <c r="Z11" s="108" t="s">
+      <c r="W11" s="134"/>
+      <c r="AA11" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="AB11" s="145"/>
-      <c r="AC11" s="146"/>
-      <c r="AD11" s="145"/>
+      <c r="AC11" s="145"/>
+      <c r="AD11" s="146"/>
       <c r="AE11" s="145"/>
       <c r="AF11" s="145"/>
       <c r="AG11" s="145"/>
       <c r="AH11" s="145"/>
       <c r="AI11" s="145"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="145"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSLPG_01_Boi</v>
@@ -24287,28 +24603,28 @@
         <f>IF(Raw_CW!E22=0,"",Raw_CW!E22)</f>
         <v/>
       </c>
-      <c r="O12" s="142" t="str">
+      <c r="O12" s="142"/>
+      <c r="P12" s="142" t="str">
         <f>IF(Raw_CW!F22=0,"",Raw_CW!F22)</f>
         <v/>
       </c>
-      <c r="R12" s="158" t="s">
+      <c r="S12" s="158" t="s">
         <v>510</v>
       </c>
-      <c r="S12" s="108" t="str">
+      <c r="T12" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat LPG LPG boiler water heater</v>
       </c>
-      <c r="T12" s="108" t="s">
+      <c r="U12" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U12" s="108" t="s">
+      <c r="V12" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V12" s="134"/>
-      <c r="Z12" s="108" t="s">
+      <c r="W12" s="134"/>
+      <c r="AA12" s="108" t="s">
         <v>348</v>
       </c>
-      <c r="AB12" s="145"/>
       <c r="AC12" s="145"/>
       <c r="AD12" s="145"/>
       <c r="AE12" s="145"/>
@@ -24316,8 +24632,9 @@
       <c r="AG12" s="145"/>
       <c r="AH12" s="145"/>
       <c r="AI12" s="145"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="145"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSHET_01_DH</v>
@@ -24371,28 +24688,28 @@
         <f>IF(Raw_CW!E23=0,"",Raw_CW!E23)</f>
         <v/>
       </c>
-      <c r="O13" s="142" t="str">
+      <c r="O13" s="142"/>
+      <c r="P13" s="142" t="str">
         <f>IF(Raw_CW!F23=0,"",Raw_CW!F23)</f>
         <v/>
       </c>
-      <c r="R13" s="158" t="s">
+      <c r="S13" s="158" t="s">
         <v>511</v>
       </c>
-      <c r="S13" s="108" t="str">
+      <c r="T13" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat HET District heat exchanger water heatier</v>
       </c>
-      <c r="T13" s="108" t="s">
+      <c r="U13" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="108" t="s">
+      <c r="V13" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V13" s="134"/>
-      <c r="Z13" s="108" t="s">
+      <c r="W13" s="134"/>
+      <c r="AA13" s="108" t="s">
         <v>349</v>
       </c>
-      <c r="AB13" s="145"/>
       <c r="AC13" s="145"/>
       <c r="AD13" s="145"/>
       <c r="AE13" s="145"/>
@@ -24400,8 +24717,9 @@
       <c r="AG13" s="145"/>
       <c r="AH13" s="145"/>
       <c r="AI13" s="145"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="145"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSOIL_01_Boi</v>
@@ -24455,28 +24773,28 @@
         <f>IF(Raw_CW!E24=0,"",Raw_CW!E24)</f>
         <v/>
       </c>
-      <c r="O14" s="142" t="str">
+      <c r="O14" s="142"/>
+      <c r="P14" s="142" t="str">
         <f>IF(Raw_CW!F24=0,"",Raw_CW!F24)</f>
         <v/>
       </c>
-      <c r="R14" s="158" t="s">
+      <c r="S14" s="158" t="s">
         <v>512</v>
       </c>
-      <c r="S14" s="108" t="str">
+      <c r="T14" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat OIL Oil boiler water heater</v>
       </c>
-      <c r="T14" s="108" t="s">
+      <c r="U14" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="108" t="s">
+      <c r="V14" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V14" s="134"/>
-      <c r="Z14" s="108" t="s">
+      <c r="W14" s="134"/>
+      <c r="AA14" s="108" t="s">
         <v>350</v>
       </c>
-      <c r="AB14" s="145"/>
       <c r="AC14" s="145"/>
       <c r="AD14" s="145"/>
       <c r="AE14" s="145"/>
@@ -24484,8 +24802,9 @@
       <c r="AG14" s="145"/>
       <c r="AH14" s="145"/>
       <c r="AI14" s="145"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="145"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSSOL_01_EBkp</v>
@@ -24539,28 +24858,28 @@
         <f>IF(Raw_CW!E25=0,"",Raw_CW!E25)</f>
         <v/>
       </c>
-      <c r="O15" s="142" t="str">
+      <c r="O15" s="142"/>
+      <c r="P15" s="142" t="str">
         <f>IF(Raw_CW!F25=0,"",Raw_CW!F25)</f>
         <v/>
       </c>
-      <c r="R15" s="158" t="s">
+      <c r="S15" s="158" t="s">
         <v>513</v>
       </c>
-      <c r="S15" s="108" t="str">
+      <c r="T15" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat SOL Solar water heater with electricity backup</v>
       </c>
-      <c r="T15" s="108" t="s">
+      <c r="U15" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U15" s="108" t="s">
+      <c r="V15" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V15" s="134"/>
-      <c r="Z15" s="108" t="s">
+      <c r="W15" s="134"/>
+      <c r="AA15" s="108" t="s">
         <v>351</v>
       </c>
-      <c r="AB15" s="145"/>
       <c r="AC15" s="145"/>
       <c r="AD15" s="145"/>
       <c r="AE15" s="145"/>
@@ -24568,8 +24887,9 @@
       <c r="AG15" s="145"/>
       <c r="AH15" s="145"/>
       <c r="AI15" s="145"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="145"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSSOL_02_DBkp</v>
@@ -24623,29 +24943,30 @@
         <f>IF(Raw_CW!E26=0,"",Raw_CW!E26)</f>
         <v/>
       </c>
-      <c r="O16" s="142" t="str">
+      <c r="O16" s="142"/>
+      <c r="P16" s="142" t="str">
         <f>IF(Raw_CW!F26=0,"",Raw_CW!F26)</f>
         <v/>
       </c>
-      <c r="R16" s="158" t="s">
+      <c r="S16" s="158" t="s">
         <v>514</v>
       </c>
-      <c r="S16" s="108" t="str">
+      <c r="T16" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat SOL Solar water heater with diesel backup</v>
       </c>
-      <c r="T16" s="108" t="s">
+      <c r="U16" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="108" t="s">
+      <c r="V16" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V16" s="134"/>
-      <c r="Z16" s="108" t="s">
+      <c r="W16" s="134"/>
+      <c r="AA16" s="108" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="135" t="str">
         <f t="shared" si="0"/>
         <v>CWCSSOL_03_GBkp</v>
@@ -24699,29 +25020,30 @@
         <f>IF(Raw_CW!E27=0,"",Raw_CW!E27)</f>
         <v/>
       </c>
-      <c r="O17" s="142" t="str">
+      <c r="O17" s="142"/>
+      <c r="P17" s="142" t="str">
         <f>IF(Raw_CW!F27=0,"",Raw_CW!F27)</f>
         <v/>
       </c>
-      <c r="R17" s="158" t="s">
+      <c r="S17" s="158" t="s">
         <v>515</v>
       </c>
-      <c r="S17" s="108" t="str">
+      <c r="T17" s="108" t="str">
         <f t="shared" si="2"/>
         <v>New commercial - CS Water Heat SOL Solar water heater with gas backup</v>
       </c>
-      <c r="T17" s="108" t="s">
+      <c r="U17" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="108" t="s">
+      <c r="V17" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V17" s="134"/>
-      <c r="Z17" s="108" t="s">
+      <c r="W17" s="134"/>
+      <c r="AA17" s="108" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="148"/>
       <c r="B18" s="149"/>
       <c r="C18" s="149"/>
@@ -24737,7 +25059,7 @@
       <c r="M18" s="150"/>
       <c r="N18" s="154"/>
       <c r="O18" s="154"/>
-      <c r="Q18" s="134"/>
+      <c r="P18" s="154"/>
       <c r="R18" s="134"/>
       <c r="S18" s="134"/>
       <c r="T18" s="134"/>
@@ -24745,8 +25067,9 @@
       <c r="V18" s="134"/>
       <c r="W18" s="134"/>
       <c r="X18" s="134"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y18" s="134"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="148"/>
       <c r="B19" s="149"/>
       <c r="C19" s="149"/>
@@ -24762,7 +25085,7 @@
       <c r="M19" s="150"/>
       <c r="N19" s="154"/>
       <c r="O19" s="154"/>
-      <c r="Q19" s="134"/>
+      <c r="P19" s="154"/>
       <c r="R19" s="134"/>
       <c r="S19" s="134"/>
       <c r="T19" s="134"/>
@@ -24770,8 +25093,9 @@
       <c r="V19" s="134"/>
       <c r="W19" s="134"/>
       <c r="X19" s="134"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y19" s="134"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D20" s="111" t="s">
         <v>83</v>
       </c>
@@ -24779,18 +25103,18 @@
       <c r="F20" s="110"/>
       <c r="G20" s="110"/>
       <c r="H20" s="110"/>
-      <c r="Q20" s="111" t="s">
+      <c r="R20" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="R20" s="112"/>
-      <c r="S20" s="113"/>
+      <c r="S20" s="112"/>
       <c r="T20" s="113"/>
       <c r="U20" s="113"/>
       <c r="V20" s="113"/>
       <c r="W20" s="113"/>
       <c r="X20" s="113"/>
-    </row>
-    <row r="21" spans="1:26" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="Y20" s="113"/>
+    </row>
+    <row r="21" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="114" t="s">
         <v>2</v>
       </c>
@@ -24833,35 +25157,38 @@
       <c r="N21" s="117" t="s">
         <v>704</v>
       </c>
-      <c r="O21" s="117" t="s">
+      <c r="O21" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="P21" s="117" t="s">
         <v>337</v>
       </c>
-      <c r="Q21" s="115" t="s">
+      <c r="R21" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="115" t="s">
+      <c r="S21" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="115" t="s">
+      <c r="T21" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="T21" s="115" t="s">
+      <c r="U21" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="115" t="s">
+      <c r="V21" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="115" t="s">
+      <c r="W21" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="115" t="s">
+      <c r="X21" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="X21" s="115" t="s">
+      <c r="Y21" s="115" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="118" t="s">
         <v>13</v>
       </c>
@@ -24897,38 +25224,39 @@
       </c>
       <c r="N22" s="120"/>
       <c r="O22" s="124"/>
-      <c r="Q22" s="125" t="s">
+      <c r="P22" s="124"/>
+      <c r="R22" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="125" t="s">
+      <c r="S22" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="125" t="s">
+      <c r="T22" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="T22" s="125" t="s">
+      <c r="U22" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="U22" s="125" t="s">
+      <c r="V22" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="V22" s="125" t="s">
+      <c r="W22" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="W22" s="125" t="s">
+      <c r="X22" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="X22" s="125" t="s">
+      <c r="Y22" s="125" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="126" t="str">
-        <f t="shared" ref="A23:A34" si="3">R23</f>
+        <f t="shared" ref="A23:A34" si="3">S23</f>
         <v>CWPSBIO_01_Boi</v>
       </c>
       <c r="B23" s="126" t="str">
-        <f t="shared" ref="B23:B34" si="4">S23</f>
+        <f t="shared" ref="B23:B34" si="4">T23</f>
         <v>New commercial - PS Space Heat BIO Biomass boiler water heater</v>
       </c>
       <c r="C23" s="126" t="str">
@@ -24972,32 +25300,33 @@
         <v>0.15</v>
       </c>
       <c r="N23" s="133" t="str">
-        <f t="shared" ref="N23:O34" si="9">IF(N6=0,"",N6)</f>
-        <v/>
-      </c>
-      <c r="O23" s="133" t="str">
+        <f t="shared" ref="N23:P34" si="9">IF(N6=0,"",N6)</f>
+        <v/>
+      </c>
+      <c r="O23" s="133"/>
+      <c r="P23" s="133" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q23" s="108" t="s">
+      <c r="R23" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="R23" s="158" t="s">
+      <c r="S23" s="158" t="s">
         <v>520</v>
       </c>
-      <c r="S23" s="108" t="str">
-        <f t="shared" ref="S23:S34" si="10">"New commercial - PS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;Z6</f>
+      <c r="T23" s="108" t="str">
+        <f t="shared" ref="T23:T34" si="10">"New commercial - PS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AA6</f>
         <v>New commercial - PS Space Heat BIO Biomass boiler water heater</v>
       </c>
-      <c r="T23" s="108" t="s">
+      <c r="U23" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U23" s="108" t="s">
+      <c r="V23" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V23" s="134"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W23" s="134"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSELC_01_Boi</v>
@@ -25050,26 +25379,27 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O24" s="142" t="str">
+      <c r="O24" s="142"/>
+      <c r="P24" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R24" s="158" t="s">
+      <c r="S24" s="158" t="s">
         <v>521</v>
       </c>
-      <c r="S24" s="108" t="str">
+      <c r="T24" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat ELC Electric boiler water heater resistance</v>
       </c>
-      <c r="T24" s="108" t="s">
+      <c r="U24" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U24" s="108" t="s">
+      <c r="V24" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V24" s="134"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W24" s="134"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSELC_02_HP</v>
@@ -25122,26 +25452,29 @@
         <f t="shared" si="9"/>
         <v>0.57264957264957295</v>
       </c>
-      <c r="O25" s="142" t="str">
+      <c r="O25" s="251">
+        <v>5</v>
+      </c>
+      <c r="P25" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R25" s="158" t="s">
+      <c r="S25" s="158" t="s">
         <v>522</v>
       </c>
-      <c r="S25" s="108" t="str">
+      <c r="T25" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat LC  Electric heat pump water heater</v>
       </c>
-      <c r="T25" s="108" t="s">
+      <c r="U25" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U25" s="108" t="s">
+      <c r="V25" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V25" s="134"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W25" s="134"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="135" t="str">
         <f t="shared" si="3"/>
         <v>*CWPSFCW_01</v>
@@ -25194,26 +25527,27 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O26" s="142" t="str">
+      <c r="O26" s="142"/>
+      <c r="P26" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R26" s="158" t="s">
+      <c r="S26" s="158" t="s">
         <v>428</v>
       </c>
-      <c r="S26" s="108" t="str">
+      <c r="T26" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat HET FC output to HotWater demand</v>
       </c>
-      <c r="T26" s="108" t="s">
+      <c r="U26" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="108" t="s">
+      <c r="V26" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V26" s="134"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W26" s="134"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSGAS_01_Boi</v>
@@ -25266,26 +25600,27 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O27" s="142" t="str">
+      <c r="O27" s="142"/>
+      <c r="P27" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R27" s="158" t="s">
+      <c r="S27" s="158" t="s">
         <v>523</v>
       </c>
-      <c r="S27" s="108" t="str">
+      <c r="T27" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GAS Natural gas boiler water heater</v>
       </c>
-      <c r="T27" s="108" t="s">
+      <c r="U27" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U27" s="108" t="s">
+      <c r="V27" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V27" s="134"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W27" s="134"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSGEO_01</v>
@@ -25338,26 +25673,27 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O28" s="142" t="str">
+      <c r="O28" s="142"/>
+      <c r="P28" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R28" s="158" t="s">
+      <c r="S28" s="158" t="s">
         <v>429</v>
       </c>
-      <c r="S28" s="108" t="str">
+      <c r="T28" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat GEO Geo Heat Exchanger water heater</v>
       </c>
-      <c r="T28" s="108" t="s">
+      <c r="U28" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U28" s="108" t="s">
+      <c r="V28" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V28" s="134"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W28" s="134"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSLPG_01_Boi</v>
@@ -25410,26 +25746,27 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O29" s="142" t="str">
+      <c r="O29" s="142"/>
+      <c r="P29" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R29" s="158" t="s">
+      <c r="S29" s="158" t="s">
         <v>524</v>
       </c>
-      <c r="S29" s="108" t="str">
+      <c r="T29" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat LPG LPG boiler water heater</v>
       </c>
-      <c r="T29" s="108" t="s">
+      <c r="U29" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U29" s="108" t="s">
+      <c r="V29" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V29" s="134"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W29" s="134"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSHET_01_DH</v>
@@ -25482,26 +25819,27 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O30" s="142" t="str">
+      <c r="O30" s="142"/>
+      <c r="P30" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R30" s="158" t="s">
+      <c r="S30" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="S30" s="108" t="str">
+      <c r="T30" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat HET District heat exchanger water heatier</v>
       </c>
-      <c r="T30" s="108" t="s">
+      <c r="U30" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U30" s="108" t="s">
+      <c r="V30" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V30" s="134"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W30" s="134"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSOIL_01_Boi</v>
@@ -25554,26 +25892,27 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O31" s="142" t="str">
+      <c r="O31" s="142"/>
+      <c r="P31" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R31" s="158" t="s">
+      <c r="S31" s="158" t="s">
         <v>526</v>
       </c>
-      <c r="S31" s="108" t="str">
+      <c r="T31" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat OIL Oil boiler water heater</v>
       </c>
-      <c r="T31" s="108" t="s">
+      <c r="U31" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U31" s="108" t="s">
+      <c r="V31" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V31" s="134"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W31" s="134"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSSOL_01_EBkp</v>
@@ -25626,26 +25965,27 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O32" s="142" t="str">
+      <c r="O32" s="142"/>
+      <c r="P32" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R32" s="158" t="s">
+      <c r="S32" s="158" t="s">
         <v>527</v>
       </c>
-      <c r="S32" s="108" t="str">
+      <c r="T32" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat SOL Solar water heater with electricity backup</v>
       </c>
-      <c r="T32" s="108" t="s">
+      <c r="U32" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="108" t="s">
+      <c r="V32" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V32" s="134"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="134"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSSOL_02_DBkp</v>
@@ -25698,26 +26038,27 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O33" s="142" t="str">
+      <c r="O33" s="142"/>
+      <c r="P33" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R33" s="158" t="s">
+      <c r="S33" s="158" t="s">
         <v>528</v>
       </c>
-      <c r="S33" s="108" t="str">
+      <c r="T33" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat SOL Solar water heater with diesel backup</v>
       </c>
-      <c r="T33" s="108" t="s">
+      <c r="U33" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U33" s="108" t="s">
+      <c r="V33" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V33" s="134"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="134"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="135" t="str">
         <f t="shared" si="3"/>
         <v>CWPSSOL_03_GBkp</v>
@@ -25770,27 +26111,28 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O34" s="142" t="str">
+      <c r="O34" s="142"/>
+      <c r="P34" s="142" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R34" s="158" t="s">
+      <c r="S34" s="158" t="s">
         <v>529</v>
       </c>
-      <c r="S34" s="108" t="str">
+      <c r="T34" s="108" t="str">
         <f t="shared" si="10"/>
         <v>New commercial - PS Space Heat SOL Solar water heater with gas backup</v>
       </c>
-      <c r="T34" s="108" t="s">
+      <c r="U34" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="U34" s="108" t="s">
+      <c r="V34" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="V34" s="134"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R35" s="134"/>
+      <c r="W34" s="134"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S35" s="134"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26990,7 +27332,7 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F24"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29036,7 +29378,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F22"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30163,12 +30505,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30318,15 +30657,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A07C550-9056-4674-9B3B-CB67924D4B57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A420273B-2C8D-4520-9FDE-EF20D51299FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30350,10 +30693,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A420273B-2C8D-4520-9FDE-EF20D51299FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A07C550-9056-4674-9B3B-CB67924D4B57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRes_SRV.xlsx
+++ b/SubRES_TMPL/SubRes_SRV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50980E8A-57F5-484F-A424-66AA58D26988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321630CE-CAA1-4361-BE2E-571D29D1CF79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -4381,7 +4381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="716">
   <si>
     <t>Max. capacity factor</t>
   </si>
@@ -5316,30 +5316,9 @@
     <t>Electric radiator</t>
   </si>
   <si>
-    <t>COMHET</t>
-  </si>
-  <si>
     <t>COMGAS</t>
   </si>
   <si>
-    <t>COMLPG</t>
-  </si>
-  <si>
-    <t>COMOIL</t>
-  </si>
-  <si>
-    <t>COMOIL, COMSOL</t>
-  </si>
-  <si>
-    <t>COMELC, COMSOL</t>
-  </si>
-  <si>
-    <t>COMGAS, COMSOL</t>
-  </si>
-  <si>
-    <t>COMBIO</t>
-  </si>
-  <si>
     <t>CHCS</t>
   </si>
   <si>
@@ -5451,9 +5430,6 @@
     <t>CWPS</t>
   </si>
   <si>
-    <t>COMGEO</t>
-  </si>
-  <si>
     <t>Share-O~LO~CHPS</t>
   </si>
   <si>
@@ -5751,9 +5727,6 @@
     <t>DAYNITE</t>
   </si>
   <si>
-    <t>COMELC, ELCD</t>
-  </si>
-  <si>
     <t>Share-O~UP~ELCD</t>
   </si>
   <si>
@@ -6246,9 +6219,6 @@
     <t>data elaborated from UK TIMES</t>
   </si>
   <si>
-    <t>COMH2G</t>
-  </si>
-  <si>
     <t>NCAP_AFA</t>
   </si>
   <si>
@@ -6441,9 +6411,6 @@
     <t xml:space="preserve">New Commercial CHP - Fuel Cell SOFC Hydrogen </t>
   </si>
   <si>
-    <t>COMBGS</t>
-  </si>
-  <si>
     <t>INVCOST~2015</t>
   </si>
   <si>
@@ -6492,34 +6459,76 @@
     <t>EFF~2035</t>
   </si>
   <si>
-    <t>COMELC, COMHET</t>
-  </si>
-  <si>
     <t>Share-I~FX~COMAMB</t>
   </si>
   <si>
-    <t>COMAMB, COMELC</t>
-  </si>
-  <si>
-    <t>COMAMB, COMGAS</t>
-  </si>
-  <si>
-    <t>COMAMB, COMLPG</t>
-  </si>
-  <si>
-    <t>COMAMB, COMH2G</t>
-  </si>
-  <si>
     <t>COMAMB</t>
   </si>
   <si>
-    <t xml:space="preserve">COMAMB, COMELC </t>
-  </si>
-  <si>
     <t>Share-I~FX~0</t>
   </si>
   <si>
     <t>Share-O~LO</t>
+  </si>
+  <si>
+    <t>SRVELC</t>
+  </si>
+  <si>
+    <t>SRVAMB, SRVELC</t>
+  </si>
+  <si>
+    <t>SRVHET</t>
+  </si>
+  <si>
+    <t>SRVGAS</t>
+  </si>
+  <si>
+    <t>SRVAMB, SRVGAS</t>
+  </si>
+  <si>
+    <t>SRVLPG</t>
+  </si>
+  <si>
+    <t>SRVAMB, SRVLPG</t>
+  </si>
+  <si>
+    <t>SRVOIL</t>
+  </si>
+  <si>
+    <t>SRVELC, SRVSOL</t>
+  </si>
+  <si>
+    <t>SRVOIL, SRVSOL</t>
+  </si>
+  <si>
+    <t>SRVGAS, SRVSOL</t>
+  </si>
+  <si>
+    <t>SRVBIO</t>
+  </si>
+  <si>
+    <t>SRVH2G</t>
+  </si>
+  <si>
+    <t>SRVAMB, SRVH2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRVAMB, SRVELC </t>
+  </si>
+  <si>
+    <t>SRVGEO</t>
+  </si>
+  <si>
+    <t>SRVSOL</t>
+  </si>
+  <si>
+    <t>SRVELC, ELCD</t>
+  </si>
+  <si>
+    <t>SRVELC, SRVHET</t>
+  </si>
+  <si>
+    <t>SRVBGS</t>
   </si>
 </sst>
 </file>
@@ -7701,15 +7710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7726,6 +7726,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8223,7 +8232,7 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -8374,14 +8383,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="243" t="s">
+      <c r="A17" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="243"/>
-      <c r="C17" s="243"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="243"/>
-      <c r="F17" s="243"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="249"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
@@ -8419,13 +8428,13 @@
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="244" t="s">
+      <c r="B20" s="250" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="244"/>
-      <c r="D20" s="244"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="244"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="250"/>
+      <c r="F20" s="250"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
@@ -8439,13 +8448,13 @@
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="245" t="s">
+      <c r="B21" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="245"/>
-      <c r="D21" s="245"/>
-      <c r="E21" s="245"/>
-      <c r="F21" s="245"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
@@ -8459,13 +8468,13 @@
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="245" t="s">
+      <c r="B22" s="251" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="245"/>
-      <c r="D22" s="245"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="251"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
@@ -8745,7 +8754,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="155" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C3" s="164" t="s">
         <v>280</v>
@@ -8777,7 +8786,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="155" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B4" s="155" t="str">
         <f>RIGHT(P4,LEN(P4)-2)</f>
@@ -8811,7 +8820,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="155" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="O4" s="155" t="str">
         <f t="shared" ref="O4:O6" si="0">MID(N4,FIND("[",N4),FIND("]",N4))</f>
@@ -8824,7 +8833,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="155" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B5" s="155" t="str">
         <f>RIGHT(P5,LEN(P5)-2)</f>
@@ -8858,7 +8867,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="155" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="O5" s="155" t="str">
         <f t="shared" si="0"/>
@@ -8871,7 +8880,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="155" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B6" s="155" t="str">
         <f>RIGHT(P6,LEN(P6)-2)</f>
@@ -8905,7 +8914,7 @@
         <v>15</v>
       </c>
       <c r="N6" s="155" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="O6" s="155" t="str">
         <f t="shared" si="0"/>
@@ -8989,7 +8998,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="155" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C11" s="165" t="s">
         <v>280</v>
@@ -9025,7 +9034,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="165" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B12" s="155" t="str">
         <f t="shared" ref="B12:B16" si="2">RIGHT(P12,LEN(P12)-2)</f>
@@ -9058,7 +9067,7 @@
       </c>
       <c r="L12" s="165"/>
       <c r="N12" s="155" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="O12" s="155" t="str">
         <f t="shared" ref="O12:O14" si="3">MID(N12,FIND("[",N12),FIND("]",N12))</f>
@@ -9071,7 +9080,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="165" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B13" s="155" t="str">
         <f t="shared" si="2"/>
@@ -9104,7 +9113,7 @@
       </c>
       <c r="L13" s="165"/>
       <c r="N13" s="155" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="O13" s="155" t="str">
         <f t="shared" si="3"/>
@@ -9117,7 +9126,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="165" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B14" s="155" t="str">
         <f t="shared" si="2"/>
@@ -9150,7 +9159,7 @@
       </c>
       <c r="L14" s="165"/>
       <c r="N14" s="155" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="O14" s="155" t="str">
         <f t="shared" si="3"/>
@@ -9163,7 +9172,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="165" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B15" s="155" t="str">
         <f t="shared" si="2"/>
@@ -9196,7 +9205,7 @@
       </c>
       <c r="L15" s="165"/>
       <c r="N15" s="155" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="O15" s="155" t="str">
         <f t="shared" ref="O15:O16" si="5">MID(N15,FIND("[",N15),FIND("]",N15))</f>
@@ -9209,7 +9218,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="165" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B16" s="155" t="str">
         <f t="shared" si="2"/>
@@ -9244,7 +9253,7 @@
       </c>
       <c r="L16" s="165"/>
       <c r="N16" s="166" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="O16" s="155" t="str">
         <f t="shared" si="5"/>
@@ -9324,7 +9333,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="155" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C21" s="155" t="s">
         <v>280</v>
@@ -9359,7 +9368,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="155" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B22" s="155" t="str">
         <f t="shared" ref="B22:B25" si="7">RIGHT(P22,LEN(P22)-2)</f>
@@ -9393,7 +9402,7 @@
         <v>15</v>
       </c>
       <c r="N22" s="155" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="O22" s="155" t="str">
         <f t="shared" ref="O22:O25" si="8">MID(N22,FIND("[",N22),FIND("]",N22))</f>
@@ -9406,7 +9415,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="155" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B23" s="155" t="str">
         <f t="shared" si="7"/>
@@ -9440,7 +9449,7 @@
         <v>15</v>
       </c>
       <c r="N23" s="155" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O23" s="155" t="str">
         <f t="shared" si="8"/>
@@ -9453,7 +9462,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="155" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B24" s="155" t="str">
         <f t="shared" si="7"/>
@@ -9487,7 +9496,7 @@
         <v>15</v>
       </c>
       <c r="N24" s="155" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="O24" s="155" t="str">
         <f t="shared" si="8"/>
@@ -9500,7 +9509,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="155" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B25" s="155" t="str">
         <f t="shared" si="7"/>
@@ -9534,7 +9543,7 @@
         <v>15</v>
       </c>
       <c r="N25" s="155" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="O25" s="155" t="str">
         <f t="shared" si="8"/>
@@ -9579,7 +9588,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="155" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C29" s="155" t="s">
         <v>278</v>
@@ -9614,7 +9623,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="155" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C30" s="155" t="s">
         <v>280</v>
@@ -9649,7 +9658,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="155" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B31" s="155" t="str">
         <f t="shared" ref="B31" si="10">RIGHT(P31,LEN(P31)-2)</f>
@@ -9683,7 +9692,7 @@
         <v>15</v>
       </c>
       <c r="N31" s="155" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="O31" s="155" t="str">
         <f t="shared" ref="O31" si="11">MID(N31,FIND("[",N31),FIND("]",N31))</f>
@@ -9708,7 +9717,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9724,7 +9733,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="190"/>
@@ -9766,7 +9775,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B2" s="108"/>
       <c r="C2" s="158"/>
@@ -9811,7 +9820,7 @@
       <c r="B3" s="158"/>
       <c r="C3" s="158"/>
       <c r="D3" s="191" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -9867,16 +9876,16 @@
         <v>32</v>
       </c>
       <c r="F4" s="195" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G4" s="195" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H4" s="195" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I4" s="195" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="J4" s="196" t="s">
         <v>11</v>
@@ -9885,46 +9894,46 @@
         <v>7</v>
       </c>
       <c r="L4" s="196" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M4" s="196" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="N4" s="196" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="O4" s="196" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P4" s="196" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="196" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="R4" s="196" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="S4" s="196" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="T4" s="196" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="U4" s="196" t="s">
         <v>9</v>
       </c>
       <c r="V4" s="196" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="W4" s="196" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="X4" s="196" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="Y4" s="196" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="Z4" s="196" t="s">
         <v>10</v>
@@ -9936,7 +9945,7 @@
         <v>6</v>
       </c>
       <c r="AC4" s="196" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="AD4" s="190"/>
       <c r="AE4" s="194" t="s">
@@ -9986,21 +9995,21 @@
       <c r="I5" s="202"/>
       <c r="J5" s="203"/>
       <c r="K5" s="62" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L5" s="203"/>
       <c r="M5" s="203"/>
       <c r="N5" s="203"/>
       <c r="O5" s="203"/>
       <c r="P5" s="62" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="Q5" s="203"/>
       <c r="R5" s="203"/>
       <c r="S5" s="203"/>
       <c r="T5" s="203"/>
       <c r="U5" s="61" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="V5" s="61"/>
       <c r="W5" s="61"/>
@@ -10042,17 +10051,17 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="204" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B6" s="204" t="str">
         <f>"New Commercial - Commercial solar PV system 0.1-2 MW"</f>
         <v>New Commercial - Commercial solar PV system 0.1-2 MW</v>
       </c>
       <c r="C6" s="204" t="s">
-        <v>335</v>
+        <v>712</v>
       </c>
       <c r="D6" s="200" t="s">
-        <v>456</v>
+        <v>713</v>
       </c>
       <c r="E6" s="205">
         <v>0.15</v>
@@ -10131,7 +10140,7 @@
       </c>
       <c r="AD6" s="190"/>
       <c r="AE6" s="190" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AF6" s="190" t="str">
         <f>A6</f>
@@ -10148,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="199" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AK6" s="190"/>
       <c r="AL6" s="190"/>
@@ -10166,8 +10175,8 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10185,7 +10194,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="B1" s="107"/>
       <c r="W1" s="234"/>
@@ -10193,7 +10202,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="158" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="B2" s="108"/>
       <c r="W2" s="234"/>
@@ -10255,13 +10264,13 @@
         <v>32</v>
       </c>
       <c r="F4" s="195" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="G4" s="195" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="H4" s="195" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="I4" s="196" t="s">
         <v>11</v>
@@ -10270,25 +10279,25 @@
         <v>7</v>
       </c>
       <c r="K4" s="196" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="L4" s="196" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="M4" s="196" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="N4" s="196" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="196" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="P4" s="196" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="Q4" s="196" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="R4" s="196" t="s">
         <v>9</v>
@@ -10303,16 +10312,16 @@
         <v>6</v>
       </c>
       <c r="V4" s="196" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="W4" s="196" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="X4" s="196" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="Y4" s="196" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="Z4" s="190"/>
       <c r="AA4" s="194" t="s">
@@ -10354,26 +10363,26 @@
         <v>16</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="F5" s="202"/>
       <c r="G5" s="202"/>
       <c r="H5" s="202"/>
       <c r="I5" s="203"/>
       <c r="J5" s="62" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K5" s="203"/>
       <c r="L5" s="203"/>
       <c r="M5" s="203"/>
       <c r="N5" s="62" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="O5" s="203"/>
       <c r="P5" s="203"/>
       <c r="Q5" s="203"/>
       <c r="R5" s="61" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="S5" s="203" t="s">
         <v>31</v>
@@ -10422,10 +10431,10 @@
         <v xml:space="preserve">New Commercial CHP - Fuel Cell SOFC Hydrogen </v>
       </c>
       <c r="C6" s="159" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="D6" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E6" s="138">
         <f>Raw_CCHP!I3</f>
@@ -10510,13 +10519,13 @@
         <v>0.58899999999999997</v>
       </c>
       <c r="AA6" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="AB6" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="AC6" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="AD6" t="s">
         <v>34</v>
@@ -10525,7 +10534,7 @@
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AJ6" t="str">
         <f>Raw_CCHP!A3</f>
@@ -10546,10 +10555,10 @@
         <v>New commercial CHP - Int Combust Biogas Small</v>
       </c>
       <c r="C7" s="159" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="D7" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E7" s="138">
         <f>Raw_CCHP!H4</f>
@@ -10625,10 +10634,10 @@
         <v>1.6180000000000001</v>
       </c>
       <c r="AB7" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="AC7" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="AD7" s="234" t="s">
         <v>34</v>
@@ -10637,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="AF7" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG7" s="234"/>
       <c r="AJ7" s="234" t="str">
@@ -10659,10 +10668,10 @@
         <v>New commercial CHP - Int Combust Biogas Large</v>
       </c>
       <c r="C8" s="159" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E8" s="138">
         <f>Raw_CCHP!H5</f>
@@ -10738,10 +10747,10 @@
         <v>1.282</v>
       </c>
       <c r="AB8" s="234" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="AC8" s="234" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="AD8" s="234" t="s">
         <v>34</v>
@@ -10750,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="AF8" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG8" s="234"/>
       <c r="AJ8" s="234" t="str">
@@ -10772,10 +10781,10 @@
         <v>New commercial CHP - Int Combust Biomass Small</v>
       </c>
       <c r="C9" s="159" t="s">
-        <v>318</v>
+        <v>707</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E9" s="138">
         <f>Raw_CCHP!H6</f>
@@ -10851,10 +10860,10 @@
         <v>1.21</v>
       </c>
       <c r="AB9" s="234" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="AC9" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="AD9" s="234" t="s">
         <v>34</v>
@@ -10863,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="AF9" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG9" s="234"/>
       <c r="AJ9" s="234" t="str">
@@ -10885,10 +10894,10 @@
         <v>New commercial CHP - Int Combust Biomass Large</v>
       </c>
       <c r="C10" s="159" t="s">
-        <v>318</v>
+        <v>707</v>
       </c>
       <c r="D10" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E10" s="138">
         <f>Raw_CCHP!H7</f>
@@ -10964,10 +10973,10 @@
         <v>1.07</v>
       </c>
       <c r="AB10" s="234" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="AC10" s="234" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="AD10" s="234" t="s">
         <v>34</v>
@@ -10976,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="AF10" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG10" s="234"/>
       <c r="AJ10" s="234" t="str">
@@ -10998,10 +11007,10 @@
         <v>New commercial CHP - Int Combust Gas Small</v>
       </c>
       <c r="C11" s="159" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D11" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E11" s="138">
         <f>Raw_CCHP!H8</f>
@@ -11077,10 +11086,10 @@
         <v>1.833</v>
       </c>
       <c r="AB11" s="234" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="AC11" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="AD11" s="234" t="s">
         <v>34</v>
@@ -11089,7 +11098,7 @@
         <v>1</v>
       </c>
       <c r="AF11" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG11" s="234"/>
       <c r="AJ11" s="234" t="str">
@@ -11111,10 +11120,10 @@
         <v>New commercial CHP - Int Combust Gas Medium</v>
       </c>
       <c r="C12" s="159" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D12" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E12" s="138">
         <f>Raw_CCHP!H9</f>
@@ -11190,10 +11199,10 @@
         <v>1.5</v>
       </c>
       <c r="AB12" s="234" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="AC12" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="AD12" s="234" t="s">
         <v>34</v>
@@ -11202,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="AF12" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG12" s="234"/>
       <c r="AJ12" s="234" t="str">
@@ -11224,10 +11233,10 @@
         <v>New commercial CHP - Int Combust Gas Large</v>
       </c>
       <c r="C13" s="159" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D13" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E13" s="138">
         <f>Raw_CCHP!H10</f>
@@ -11303,10 +11312,10 @@
         <v>1.282</v>
       </c>
       <c r="AB13" s="234" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="AC13" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="AD13" s="234" t="s">
         <v>34</v>
@@ -11315,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="AF13" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG13" s="234"/>
       <c r="AJ13" s="234" t="str">
@@ -11337,10 +11346,10 @@
         <v>New commercial CHP - Int Combust Oil Small</v>
       </c>
       <c r="C14" s="159" t="s">
-        <v>314</v>
+        <v>703</v>
       </c>
       <c r="D14" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E14" s="138">
         <f>Raw_CCHP!H11</f>
@@ -11416,10 +11425,10 @@
         <v>1.9330000000000001</v>
       </c>
       <c r="AB14" s="234" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="AC14" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="AD14" s="234" t="s">
         <v>34</v>
@@ -11428,7 +11437,7 @@
         <v>1</v>
       </c>
       <c r="AF14" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG14" s="234"/>
       <c r="AJ14" s="234" t="str">
@@ -11450,10 +11459,10 @@
         <v>New commercial CHP - Int Combust.Oil Medium</v>
       </c>
       <c r="C15" s="159" t="s">
-        <v>314</v>
+        <v>703</v>
       </c>
       <c r="D15" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E15" s="138">
         <f>Raw_CCHP!H12</f>
@@ -11529,10 +11538,10 @@
         <v>1.5</v>
       </c>
       <c r="AB15" s="234" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="AC15" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="AD15" s="234" t="s">
         <v>34</v>
@@ -11541,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="AF15" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG15" s="234"/>
       <c r="AJ15" s="234" t="str">
@@ -11563,10 +11572,10 @@
         <v>New commercial CHP - Int Combust Oil Large</v>
       </c>
       <c r="C16" s="159" t="s">
-        <v>314</v>
+        <v>703</v>
       </c>
       <c r="D16" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E16" s="138">
         <f>Raw_CCHP!H13</f>
@@ -11642,10 +11651,10 @@
         <v>1.143</v>
       </c>
       <c r="AB16" s="234" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="AC16" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="AD16" s="234" t="s">
         <v>34</v>
@@ -11654,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="AF16" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG16" s="234"/>
       <c r="AJ16" s="234" t="str">
@@ -11676,10 +11685,10 @@
         <v>New commercial CHP - Fuel Cell MCFC Biogas</v>
       </c>
       <c r="C17" s="159" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="D17" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E17" s="138">
         <f>Raw_CCHP!I14</f>
@@ -11764,10 +11773,10 @@
         <v>0.75</v>
       </c>
       <c r="AB17" s="234" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="AC17" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="AD17" s="234" t="s">
         <v>34</v>
@@ -11776,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="AF17" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG17" s="234"/>
       <c r="AJ17" s="234" t="str">
@@ -11798,10 +11807,10 @@
         <v>New commercial CHP - Fuel Cell MCFC Gas</v>
       </c>
       <c r="C18" s="159" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D18" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E18" s="138">
         <f>Raw_CCHP!I15</f>
@@ -11877,10 +11886,10 @@
         <v>0.75</v>
       </c>
       <c r="AB18" s="234" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="AC18" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="AD18" s="234" t="s">
         <v>34</v>
@@ -11889,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="AF18" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG18" s="234"/>
       <c r="AJ18" s="234" t="str">
@@ -11911,10 +11920,10 @@
         <v>New commercial CHP - Fuel Cell SOFC Biogas</v>
       </c>
       <c r="C19" s="159" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="D19" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E19" s="138">
         <f>Raw_CCHP!I16</f>
@@ -11999,10 +12008,10 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="AB19" s="234" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="AC19" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="AD19" s="234" t="s">
         <v>34</v>
@@ -12011,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="AF19" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG19" s="234"/>
       <c r="AJ19" s="234" t="str">
@@ -12033,10 +12042,10 @@
         <v>New commercial CHP - Fuel Cell SOFC Gas</v>
       </c>
       <c r="C20" s="159" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D20" s="135" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="E20" s="138">
         <f>Raw_CCHP!I17</f>
@@ -12121,10 +12130,10 @@
         <v>0.58899999999999997</v>
       </c>
       <c r="AB20" s="234" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="AC20" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AD20" s="234" t="s">
         <v>34</v>
@@ -12133,7 +12142,7 @@
         <v>1</v>
       </c>
       <c r="AF20" s="234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG20" s="234"/>
       <c r="AJ20" s="234" t="str">
@@ -12200,10 +12209,10 @@
         <v>281</v>
       </c>
       <c r="M1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="O1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="T1" t="s">
         <v>86</v>
@@ -12220,7 +12229,7 @@
         <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C2">
         <v>2005</v>
@@ -12315,7 +12324,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B3" s="155" t="str">
         <f t="shared" ref="B3:B17" si="0">RIGHT(AI3,LEN(AI3)-2)</f>
@@ -12388,7 +12397,7 @@
         <v>20</v>
       </c>
       <c r="AG3" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="AH3" s="155" t="str">
         <f>MID(AG3,FIND("[",AG3),FIND("]",AG3))</f>
@@ -12402,7 +12411,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B4" s="155" t="str">
         <f t="shared" si="0"/>
@@ -12466,7 +12475,7 @@
         <v>20</v>
       </c>
       <c r="AG4" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="AH4" s="155" t="str">
         <f t="shared" ref="AH4:AH17" si="2">MID(AG4,FIND("[",AG4),FIND("]",AG4))</f>
@@ -12479,7 +12488,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B5" s="155" t="str">
         <f t="shared" si="0"/>
@@ -12543,7 +12552,7 @@
         <v>20</v>
       </c>
       <c r="AG5" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="AH5" s="155" t="str">
         <f t="shared" si="2"/>
@@ -12556,7 +12565,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B6" s="155" t="str">
         <f t="shared" si="0"/>
@@ -12620,7 +12629,7 @@
         <v>20</v>
       </c>
       <c r="AG6" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="AH6" s="155" t="str">
         <f t="shared" si="2"/>
@@ -12633,7 +12642,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B7" s="155" t="str">
         <f t="shared" si="0"/>
@@ -12697,7 +12706,7 @@
         <v>20</v>
       </c>
       <c r="AG7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="AH7" s="155" t="str">
         <f t="shared" si="2"/>
@@ -12710,7 +12719,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B8" s="155" t="str">
         <f t="shared" si="0"/>
@@ -12774,7 +12783,7 @@
         <v>20</v>
       </c>
       <c r="AG8" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="AH8" s="155" t="str">
         <f t="shared" si="2"/>
@@ -12787,7 +12796,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B9" s="155" t="str">
         <f t="shared" si="0"/>
@@ -12851,7 +12860,7 @@
         <v>20</v>
       </c>
       <c r="AG9" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="AH9" s="155" t="str">
         <f t="shared" si="2"/>
@@ -12864,7 +12873,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B10" s="155" t="str">
         <f t="shared" si="0"/>
@@ -12928,7 +12937,7 @@
         <v>20</v>
       </c>
       <c r="AG10" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="AH10" s="155" t="str">
         <f t="shared" si="2"/>
@@ -12941,7 +12950,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B11" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13005,7 +13014,7 @@
         <v>20</v>
       </c>
       <c r="AG11" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="AH11" s="155" t="str">
         <f t="shared" si="2"/>
@@ -13018,7 +13027,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B12" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13082,7 +13091,7 @@
         <v>20</v>
       </c>
       <c r="AG12" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="AH12" s="155" t="str">
         <f t="shared" si="2"/>
@@ -13095,7 +13104,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B13" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13159,7 +13168,7 @@
         <v>20</v>
       </c>
       <c r="AG13" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="AH13" s="155" t="str">
         <f t="shared" si="2"/>
@@ -13172,7 +13181,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B14" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13245,7 +13254,7 @@
         <v>20</v>
       </c>
       <c r="AG14" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="AH14" s="155" t="str">
         <f t="shared" si="2"/>
@@ -13258,7 +13267,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B15" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13325,7 +13334,7 @@
         <v>20</v>
       </c>
       <c r="AG15" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="AH15" s="155" t="str">
         <f t="shared" si="2"/>
@@ -13338,7 +13347,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B16" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13411,7 +13420,7 @@
         <v>20</v>
       </c>
       <c r="AG16" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="AH16" s="155" t="str">
         <f t="shared" si="2"/>
@@ -13424,7 +13433,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B17" s="155" t="str">
         <f t="shared" si="0"/>
@@ -13500,7 +13509,7 @@
         <v>20</v>
       </c>
       <c r="AG17" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="AH17" s="155" t="str">
         <f t="shared" si="2"/>
@@ -13839,8 +13848,8 @@
   </sheetPr>
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R80" sqref="R80"/>
+    <sheetView topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13929,13 +13938,13 @@
         <v>32</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I4" s="56" t="s">
         <v>11</v>
@@ -13959,19 +13968,19 @@
         <v>6</v>
       </c>
       <c r="P4" s="56" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="R4" s="56" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="S4" s="56" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="T4" s="56" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="V4" s="54" t="s">
         <v>18</v>
@@ -14019,13 +14028,13 @@
       <c r="H5" s="58"/>
       <c r="I5" s="59"/>
       <c r="J5" s="60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M5" s="59" t="s">
         <v>31</v>
@@ -14074,10 +14083,10 @@
         <v>New commercial - CS Space Heat ELC Electric radiator</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E6" s="79">
         <f>IF(Raw_CH!D30=0,"",Raw_CH!D30)</f>
@@ -14140,7 +14149,7 @@
         <v>286</v>
       </c>
       <c r="W6" s="158" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="X6" s="47" t="str">
         <f t="shared" ref="X6:X20" si="0">"New commercial - CS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AE6</f>
@@ -14167,10 +14176,10 @@
         <v>New commercial - CS Space Heat ELC Electric boiler</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E7" s="87">
         <f>IF(Raw_CH!D31=0,"",Raw_CH!D31)</f>
@@ -14230,7 +14239,7 @@
       </c>
       <c r="T7" s="102"/>
       <c r="W7" s="158" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="X7" s="47" t="str">
         <f t="shared" si="0"/>
@@ -14257,10 +14266,10 @@
         <v>New commercial - CS Space Heat ELC Air heat pump with electric boiler</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E8" s="87">
         <f>IF(Raw_CH!D32=0,"",Raw_CH!D32)</f>
@@ -14309,7 +14318,7 @@
         <f>IF(Raw_CH!R32=0,"",Raw_CH!R32)</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="Q8" s="246">
+      <c r="Q8" s="243">
         <v>5</v>
       </c>
       <c r="R8" s="90" t="str">
@@ -14322,7 +14331,7 @@
       </c>
       <c r="T8" s="102"/>
       <c r="W8" s="158" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="X8" s="47" t="str">
         <f t="shared" si="0"/>
@@ -14350,10 +14359,10 @@
         <v>New commercial - CS Space Heat ELC Air heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E9" s="87" t="str">
         <f>IF(Raw_CH!D33=0,"",Raw_CH!D33)</f>
@@ -14402,7 +14411,7 @@
         <f>IF(Raw_CH!R33=0,"",Raw_CH!R33)</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="Q9" s="246">
+      <c r="Q9" s="243">
         <v>5</v>
       </c>
       <c r="R9" s="90" t="str">
@@ -14415,7 +14424,7 @@
       </c>
       <c r="T9" s="102"/>
       <c r="W9" s="158" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="X9" s="47" t="str">
         <f t="shared" si="0"/>
@@ -14443,10 +14452,10 @@
         <v>New commercial - CS Space Heat ELC Adv Air heat pump with electric boiler</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E10" s="87">
         <f>IF(Raw_CH!D34=0,"",Raw_CH!D34)</f>
@@ -14495,7 +14504,7 @@
         <f>IF(Raw_CH!R34=0,"",Raw_CH!R34)</f>
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q10" s="246">
+      <c r="Q10" s="243">
         <v>5</v>
       </c>
       <c r="R10" s="90" t="str">
@@ -14508,7 +14517,7 @@
       </c>
       <c r="T10" s="102"/>
       <c r="W10" s="158" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="X10" s="47" t="str">
         <f t="shared" si="0"/>
@@ -14535,10 +14544,10 @@
         <v>New commercial - CS Space Heat ELC Adv Air heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E11" s="87" t="str">
         <f>IF(Raw_CH!D35=0,"",Raw_CH!D35)</f>
@@ -14587,7 +14596,7 @@
         <f>IF(Raw_CH!R35=0,"",Raw_CH!R35)</f>
         <v>0.82758620689655205</v>
       </c>
-      <c r="Q11" s="246">
+      <c r="Q11" s="243">
         <v>5</v>
       </c>
       <c r="R11" s="90" t="str">
@@ -14600,7 +14609,7 @@
       </c>
       <c r="T11" s="102"/>
       <c r="W11" s="158" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="X11" s="47" t="str">
         <f t="shared" si="0"/>
@@ -14635,10 +14644,10 @@
         <v>New commercial - CS Space Heat ELC Ground heat pump with electric boiler</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E12" s="87">
         <f>IF(Raw_CH!D36=0,"",Raw_CH!D36)</f>
@@ -14687,7 +14696,7 @@
         <f>IF(Raw_CH!R36=0,"",Raw_CH!R36)</f>
         <v>0.8</v>
       </c>
-      <c r="Q12" s="246">
+      <c r="Q12" s="243">
         <v>5</v>
       </c>
       <c r="R12" s="90" t="str">
@@ -14700,7 +14709,7 @@
       </c>
       <c r="T12" s="102"/>
       <c r="W12" s="158" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="X12" s="47" t="str">
         <f t="shared" si="0"/>
@@ -14735,10 +14744,10 @@
         <v>New commercial - CS Space Heat ELC Ground heat pump with electric boiler.HeatCool</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E13" s="87" t="str">
         <f>IF(Raw_CH!D37=0,"",Raw_CH!D37)</f>
@@ -14787,7 +14796,7 @@
         <f>IF(Raw_CH!R37=0,"",Raw_CH!R37)</f>
         <v>0.8</v>
       </c>
-      <c r="Q13" s="246">
+      <c r="Q13" s="243">
         <v>5</v>
       </c>
       <c r="R13" s="90" t="str">
@@ -14800,7 +14809,7 @@
       </c>
       <c r="T13" s="102"/>
       <c r="W13" s="158" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="X13" s="47" t="str">
         <f t="shared" si="0"/>
@@ -14835,10 +14844,10 @@
         <v>New commercial - CS Space Heat HET FC output to Heat demand</v>
       </c>
       <c r="C14" s="238" t="s">
-        <v>311</v>
+        <v>698</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E14" s="87">
         <f>IF(Raw_CH!D38=0,"",Raw_CH!D38)</f>
@@ -14898,7 +14907,7 @@
       </c>
       <c r="T14" s="102"/>
       <c r="W14" s="158" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="X14" s="47" t="str">
         <f t="shared" si="0"/>
@@ -14933,10 +14942,10 @@
         <v>New commercial - CS Space Heat GAS Natural gas boiler</v>
       </c>
       <c r="C15" s="67" t="s">
+        <v>699</v>
+      </c>
+      <c r="D15" s="86" t="s">
         <v>312</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>319</v>
       </c>
       <c r="E15" s="87">
         <f>IF(Raw_CH!D39=0,"",Raw_CH!D39)</f>
@@ -14996,7 +15005,7 @@
       </c>
       <c r="T15" s="102"/>
       <c r="W15" s="158" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="X15" s="47" t="str">
         <f t="shared" si="0"/>
@@ -15031,10 +15040,10 @@
         <v>New commercial - CS Space Heat GAS Natural gas boiler.HeatHotwater</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E16" s="87" t="str">
         <f>IF(Raw_CH!D40=0,"",Raw_CH!D40)</f>
@@ -15092,11 +15101,11 @@
         <f>IF(Raw_CH!Q40=0,"",Raw_CH!Q40)</f>
         <v>0.6</v>
       </c>
-      <c r="T16" s="249">
+      <c r="T16" s="246">
         <v>5</v>
       </c>
       <c r="W16" s="158" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="X16" s="47" t="str">
         <f t="shared" si="0"/>
@@ -15123,10 +15132,10 @@
         <v>New commercial - CS Space Heat GAS Natural gas boiler condensing</v>
       </c>
       <c r="C17" s="67" t="s">
+        <v>699</v>
+      </c>
+      <c r="D17" s="86" t="s">
         <v>312</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>319</v>
       </c>
       <c r="E17" s="87">
         <f>IF(Raw_CH!D41=0,"",Raw_CH!D41)</f>
@@ -15186,7 +15195,7 @@
       </c>
       <c r="T17" s="102"/>
       <c r="W17" s="158" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="X17" s="47" t="str">
         <f t="shared" si="0"/>
@@ -15213,10 +15222,10 @@
         <v>New commercial - CS Space Heat GAS Natural gas boiler condensing.HeatHotwater</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E18" s="87" t="str">
         <f>IF(Raw_CH!D42=0,"",Raw_CH!D42)</f>
@@ -15274,11 +15283,11 @@
         <f>IF(Raw_CH!Q42=0,"",Raw_CH!Q42)</f>
         <v>0.6</v>
       </c>
-      <c r="T18" s="249">
+      <c r="T18" s="246">
         <v>5</v>
       </c>
       <c r="W18" s="158" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="X18" s="47" t="str">
         <f t="shared" si="0"/>
@@ -15305,10 +15314,10 @@
         <v>New commercial - CS Space Heat GAS Natural gas air heat pump</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D19" s="86" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E19" s="87">
         <f>IF(Raw_CH!D43=0,"",Raw_CH!D43)</f>
@@ -15357,7 +15366,7 @@
         <f>IF(Raw_CH!R43=0,"",Raw_CH!R43)</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q19" s="246">
+      <c r="Q19" s="243">
         <v>5</v>
       </c>
       <c r="R19" s="90" t="str">
@@ -15370,7 +15379,7 @@
       </c>
       <c r="T19" s="102"/>
       <c r="W19" s="158" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="X19" s="47" t="str">
         <f t="shared" si="0"/>
@@ -15384,7 +15393,7 @@
       </c>
       <c r="AA19" s="85"/>
       <c r="AE19" s="158" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -15397,10 +15406,10 @@
         <v>New commercial - CS Space Heat GAS Natural gas air heat pump.HeatCool</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D20" s="86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E20" s="87" t="str">
         <f>IF(Raw_CH!D44=0,"",Raw_CH!D44)</f>
@@ -15449,7 +15458,7 @@
         <f>IF(Raw_CH!R44=0,"",Raw_CH!R44)</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q20" s="246">
+      <c r="Q20" s="243">
         <v>5</v>
       </c>
       <c r="R20" s="90" t="str">
@@ -15462,7 +15471,7 @@
       </c>
       <c r="T20" s="102"/>
       <c r="W20" s="158" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="X20" s="47" t="str">
         <f t="shared" si="0"/>
@@ -15476,7 +15485,7 @@
       </c>
       <c r="AA20" s="85"/>
       <c r="AE20" s="158" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -15489,10 +15498,10 @@
         <v>New commercial - CS Space Heat LPG boiler</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>313</v>
+        <v>701</v>
       </c>
       <c r="D21" s="86" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E21" s="87">
         <f>IF(Raw_CH!D45=0,"",Raw_CH!D45)</f>
@@ -15552,7 +15561,7 @@
       </c>
       <c r="T21" s="102"/>
       <c r="W21" s="158" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="X21" s="47" t="str">
         <f>"New commercial - CS Space Heat "&amp;AE21</f>
@@ -15579,10 +15588,10 @@
         <v>New commercial - CS Space Heat LPG boiler.HeatHotwater</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>313</v>
+        <v>701</v>
       </c>
       <c r="D22" s="86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E22" s="87" t="str">
         <f>IF(Raw_CH!D46=0,"",Raw_CH!D46)</f>
@@ -15640,11 +15649,11 @@
         <f>IF(Raw_CH!Q46=0,"",Raw_CH!Q46)</f>
         <v>0.6</v>
       </c>
-      <c r="T22" s="249">
+      <c r="T22" s="246">
         <v>5</v>
       </c>
       <c r="W22" s="158" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="X22" s="47" t="str">
         <f t="shared" ref="X22" si="3">"New commercial - CS Space Heat "&amp;AE22</f>
@@ -15671,10 +15680,10 @@
         <v>New commercial - CS Space Heat LPG LPG air heat pump.HeatCool</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D23" s="86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E23" s="87" t="str">
         <f>IF(Raw_CH!D47=0,"",Raw_CH!D47)</f>
@@ -15723,7 +15732,7 @@
         <f>IF(Raw_CH!R47=0,"",Raw_CH!R47)</f>
         <v>0.5</v>
       </c>
-      <c r="Q23" s="246">
+      <c r="Q23" s="243">
         <v>5</v>
       </c>
       <c r="R23" s="90" t="str">
@@ -15736,7 +15745,7 @@
       </c>
       <c r="T23" s="102"/>
       <c r="W23" s="158" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="X23" s="47" t="str">
         <f t="shared" ref="X23:X31" si="4">"New commercial - CS Space Heat "&amp;RIGHT(C23,3)&amp;" "&amp;AE23</f>
@@ -15750,7 +15759,7 @@
       </c>
       <c r="AA23" s="85"/>
       <c r="AE23" s="158" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -15763,10 +15772,10 @@
         <v>New commercial - CS Space Heat HET District heat exchanger.HeatHotwater</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>311</v>
+        <v>698</v>
       </c>
       <c r="D24" s="86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E24" s="87" t="str">
         <f>IF(Raw_CH!D48=0,"",Raw_CH!D48)</f>
@@ -15824,11 +15833,11 @@
         <f>IF(Raw_CH!Q48=0,"",Raw_CH!Q48)</f>
         <v>0.6</v>
       </c>
-      <c r="T24" s="249">
+      <c r="T24" s="246">
         <v>5</v>
       </c>
       <c r="W24" s="158" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="X24" s="47" t="str">
         <f t="shared" si="4"/>
@@ -15855,10 +15864,10 @@
         <v>New commercial - CS Space Heat OIL Oil boiler</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>314</v>
+        <v>703</v>
       </c>
       <c r="D25" s="86" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E25" s="87">
         <f>IF(Raw_CH!D49=0,"",Raw_CH!D49)</f>
@@ -15918,7 +15927,7 @@
       </c>
       <c r="T25" s="102"/>
       <c r="W25" s="158" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="X25" s="47" t="str">
         <f t="shared" si="4"/>
@@ -15945,10 +15954,10 @@
         <v>New commercial - CS Space Heat OIL Oil boiler.HeatHotwater</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>314</v>
+        <v>703</v>
       </c>
       <c r="D26" s="86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E26" s="87" t="str">
         <f>IF(Raw_CH!D50=0,"",Raw_CH!D50)</f>
@@ -16006,11 +16015,11 @@
         <f>IF(Raw_CH!Q50=0,"",Raw_CH!Q50)</f>
         <v>0.6</v>
       </c>
-      <c r="T26" s="249">
+      <c r="T26" s="246">
         <v>5</v>
       </c>
       <c r="W26" s="158" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="X26" s="47" t="str">
         <f t="shared" si="4"/>
@@ -16037,10 +16046,10 @@
         <v>New commercial - CS Space Heat OIL Oil boiler condensing.HeatHotwater</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>314</v>
+        <v>703</v>
       </c>
       <c r="D27" s="86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E27" s="87" t="str">
         <f>IF(Raw_CH!D51=0,"",Raw_CH!D51)</f>
@@ -16098,11 +16107,11 @@
         <f>IF(Raw_CH!Q51=0,"",Raw_CH!Q51)</f>
         <v>0.6</v>
       </c>
-      <c r="T27" s="249">
+      <c r="T27" s="246">
         <v>5</v>
       </c>
       <c r="W27" s="158" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="X27" s="47" t="str">
         <f t="shared" si="4"/>
@@ -16129,10 +16138,10 @@
         <v>New commercial - CS Space Heat SOL Solar collector with electric backup.HeatHotwater</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>316</v>
+        <v>704</v>
       </c>
       <c r="D28" s="86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E28" s="87" t="str">
         <f>IF(Raw_CH!D52=0,"",Raw_CH!D52)</f>
@@ -16181,7 +16190,7 @@
         <f>IF(Raw_CH!R52=0,"",Raw_CH!R52)</f>
         <v/>
       </c>
-      <c r="Q28" s="246">
+      <c r="Q28" s="243">
         <v>5</v>
       </c>
       <c r="R28" s="90">
@@ -16192,11 +16201,11 @@
         <f>IF(Raw_CH!Q52=0,"",Raw_CH!Q52)</f>
         <v>0.6</v>
       </c>
-      <c r="T28" s="249">
+      <c r="T28" s="246">
         <v>5</v>
       </c>
       <c r="W28" s="158" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="X28" s="47" t="str">
         <f t="shared" si="4"/>
@@ -16223,10 +16232,10 @@
         <v>New commercial - CS Space Heat SOL Solar collector with diesel backup.HeatHotwater</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>315</v>
+        <v>705</v>
       </c>
       <c r="D29" s="86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E29" s="87" t="str">
         <f>IF(Raw_CH!D53=0,"",Raw_CH!D53)</f>
@@ -16275,7 +16284,7 @@
         <f>IF(Raw_CH!R53=0,"",Raw_CH!R53)</f>
         <v/>
       </c>
-      <c r="Q29" s="246">
+      <c r="Q29" s="243">
         <v>5</v>
       </c>
       <c r="R29" s="90">
@@ -16286,11 +16295,11 @@
         <f>IF(Raw_CH!Q53=0,"",Raw_CH!Q53)</f>
         <v>0.6</v>
       </c>
-      <c r="T29" s="249">
+      <c r="T29" s="246">
         <v>5</v>
       </c>
       <c r="W29" s="158" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="X29" s="47" t="str">
         <f t="shared" si="4"/>
@@ -16317,10 +16326,10 @@
         <v>New commercial - CS Space Heat SOL Solar collector with gas backup.HeatHotwater</v>
       </c>
       <c r="C30" s="67" t="s">
-        <v>317</v>
+        <v>706</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E30" s="87" t="str">
         <f>IF(Raw_CH!D54=0,"",Raw_CH!D54)</f>
@@ -16369,7 +16378,7 @@
         <f>IF(Raw_CH!R54=0,"",Raw_CH!R54)</f>
         <v/>
       </c>
-      <c r="Q30" s="246">
+      <c r="Q30" s="243">
         <v>5</v>
       </c>
       <c r="R30" s="90">
@@ -16380,11 +16389,11 @@
         <f>IF(Raw_CH!Q54=0,"",Raw_CH!Q54)</f>
         <v>0.6</v>
       </c>
-      <c r="T30" s="249">
+      <c r="T30" s="246">
         <v>5</v>
       </c>
       <c r="W30" s="158" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="X30" s="47" t="str">
         <f t="shared" si="4"/>
@@ -16411,10 +16420,10 @@
         <v>New commercial - CS Space Heat BIO Wood-pellets boiler.HeatHotwater</v>
       </c>
       <c r="C31" s="73" t="s">
+        <v>707</v>
+      </c>
+      <c r="D31" s="91" t="s">
         <v>318</v>
-      </c>
-      <c r="D31" s="91" t="s">
-        <v>325</v>
       </c>
       <c r="E31" s="92" t="str">
         <f>IF(Raw_CH!D55=0,"",Raw_CH!D55)</f>
@@ -16472,12 +16481,12 @@
         <f>IF(Raw_CH!Q55=0,"",Raw_CH!Q55)</f>
         <v>0.6</v>
       </c>
-      <c r="T31" s="250">
+      <c r="T31" s="247">
         <v>5</v>
       </c>
       <c r="V31" s="97"/>
       <c r="W31" s="188" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="X31" s="97" t="str">
         <f t="shared" si="4"/>
@@ -16594,13 +16603,13 @@
         <v>32</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I35" s="56" t="s">
         <v>11</v>
@@ -16624,19 +16633,19 @@
         <v>6</v>
       </c>
       <c r="P35" s="56" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="Q35" s="56" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="R35" s="56" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="S35" s="56" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="T35" s="56" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="V35" s="54" t="s">
         <v>18</v>
@@ -16684,13 +16693,13 @@
       <c r="H36" s="58"/>
       <c r="I36" s="59"/>
       <c r="J36" s="60" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K36" s="60" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L36" s="61" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M36" s="59" t="s">
         <v>31</v>
@@ -16740,10 +16749,10 @@
       </c>
       <c r="C37" s="64" t="str">
         <f t="shared" ref="C37:C62" si="5">C6</f>
-        <v>COMELC</v>
+        <v>SRVELC</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E37" s="79">
         <f t="shared" ref="E37:E62" si="6">IF(E6=0,"",E6)</f>
@@ -16807,7 +16816,7 @@
         <v>286</v>
       </c>
       <c r="W37" s="158" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="X37" s="47" t="str">
         <f t="shared" ref="X37:X62" si="10">"New commercial - PS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AE6</f>
@@ -16833,10 +16842,10 @@
       </c>
       <c r="C38" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMELC</v>
+        <v>SRVELC</v>
       </c>
       <c r="D38" s="86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E38" s="87">
         <f t="shared" si="6"/>
@@ -16897,7 +16906,7 @@
       </c>
       <c r="T38" s="102"/>
       <c r="W38" s="158" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="X38" s="47" t="str">
         <f t="shared" si="10"/>
@@ -16923,10 +16932,10 @@
       </c>
       <c r="C39" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMAMB, COMELC</v>
+        <v>SRVAMB, SRVELC</v>
       </c>
       <c r="D39" s="86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E39" s="87">
         <f t="shared" si="6"/>
@@ -16976,7 +16985,7 @@
         <f t="shared" si="9"/>
         <v>0.69696969696969702</v>
       </c>
-      <c r="Q39" s="246">
+      <c r="Q39" s="243">
         <v>5</v>
       </c>
       <c r="R39" s="90" t="str">
@@ -16989,7 +16998,7 @@
       </c>
       <c r="T39" s="102"/>
       <c r="W39" s="158" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="X39" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17015,10 +17024,10 @@
       </c>
       <c r="C40" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMAMB, COMELC</v>
+        <v>SRVAMB, SRVELC</v>
       </c>
       <c r="D40" s="86" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E40" s="87" t="str">
         <f t="shared" si="6"/>
@@ -17068,7 +17077,7 @@
         <f t="shared" si="9"/>
         <v>0.69696969696969702</v>
       </c>
-      <c r="Q40" s="246">
+      <c r="Q40" s="243">
         <v>5</v>
       </c>
       <c r="R40" s="90" t="str">
@@ -17081,7 +17090,7 @@
       </c>
       <c r="T40" s="102"/>
       <c r="W40" s="158" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="X40" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17107,10 +17116,10 @@
       </c>
       <c r="C41" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMAMB, COMELC</v>
+        <v>SRVAMB, SRVELC</v>
       </c>
       <c r="D41" s="86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E41" s="87">
         <f t="shared" si="6"/>
@@ -17160,7 +17169,7 @@
         <f t="shared" si="9"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q41" s="246">
+      <c r="Q41" s="243">
         <v>5</v>
       </c>
       <c r="R41" s="90" t="str">
@@ -17173,7 +17182,7 @@
       </c>
       <c r="T41" s="102"/>
       <c r="W41" s="158" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="X41" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17199,10 +17208,10 @@
       </c>
       <c r="C42" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMAMB, COMELC</v>
+        <v>SRVAMB, SRVELC</v>
       </c>
       <c r="D42" s="86" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E42" s="87" t="str">
         <f t="shared" si="6"/>
@@ -17252,7 +17261,7 @@
         <f t="shared" si="9"/>
         <v>0.82758620689655205</v>
       </c>
-      <c r="Q42" s="246">
+      <c r="Q42" s="243">
         <v>5</v>
       </c>
       <c r="R42" s="90" t="str">
@@ -17265,7 +17274,7 @@
       </c>
       <c r="T42" s="102"/>
       <c r="W42" s="158" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="X42" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17291,10 +17300,10 @@
       </c>
       <c r="C43" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMAMB, COMELC</v>
+        <v>SRVAMB, SRVELC</v>
       </c>
       <c r="D43" s="86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E43" s="87">
         <f t="shared" si="6"/>
@@ -17344,7 +17353,7 @@
         <f>IF(P12=0,"",P12)</f>
         <v>0.8</v>
       </c>
-      <c r="Q43" s="246">
+      <c r="Q43" s="243">
         <v>5</v>
       </c>
       <c r="R43" s="90" t="str">
@@ -17357,7 +17366,7 @@
       </c>
       <c r="T43" s="102"/>
       <c r="W43" s="158" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="X43" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17383,10 +17392,10 @@
       </c>
       <c r="C44" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMAMB, COMELC</v>
+        <v>SRVAMB, SRVELC</v>
       </c>
       <c r="D44" s="86" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E44" s="87" t="str">
         <f t="shared" si="6"/>
@@ -17436,7 +17445,7 @@
         <f>IF(P13=0,"",P13)</f>
         <v>0.8</v>
       </c>
-      <c r="Q44" s="246">
+      <c r="Q44" s="243">
         <v>5</v>
       </c>
       <c r="R44" s="90" t="str">
@@ -17449,7 +17458,7 @@
       </c>
       <c r="T44" s="102"/>
       <c r="W44" s="158" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="X44" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17475,10 +17484,10 @@
       </c>
       <c r="C45" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMHET</v>
+        <v>SRVHET</v>
       </c>
       <c r="D45" s="86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E45" s="87">
         <f t="shared" si="6"/>
@@ -17539,7 +17548,7 @@
       </c>
       <c r="T45" s="102"/>
       <c r="W45" s="158" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="X45" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17565,10 +17574,10 @@
       </c>
       <c r="C46" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMGAS</v>
+        <v>SRVGAS</v>
       </c>
       <c r="D46" s="86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E46" s="87">
         <f t="shared" si="6"/>
@@ -17629,7 +17638,7 @@
       </c>
       <c r="T46" s="102"/>
       <c r="W46" s="158" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="X46" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17655,10 +17664,10 @@
       </c>
       <c r="C47" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMGAS</v>
+        <v>SRVGAS</v>
       </c>
       <c r="D47" s="86" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E47" s="87" t="str">
         <f t="shared" si="6"/>
@@ -17717,11 +17726,11 @@
         <f t="shared" si="20"/>
         <v>0.6</v>
       </c>
-      <c r="T47" s="249">
+      <c r="T47" s="246">
         <v>5</v>
       </c>
       <c r="W47" s="158" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="X47" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17747,10 +17756,10 @@
       </c>
       <c r="C48" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMGAS</v>
+        <v>SRVGAS</v>
       </c>
       <c r="D48" s="86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E48" s="87">
         <f t="shared" si="6"/>
@@ -17811,7 +17820,7 @@
       </c>
       <c r="T48" s="102"/>
       <c r="W48" s="158" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X48" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17837,10 +17846,10 @@
       </c>
       <c r="C49" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMGAS</v>
+        <v>SRVGAS</v>
       </c>
       <c r="D49" s="86" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E49" s="87" t="str">
         <f t="shared" si="6"/>
@@ -17899,11 +17908,11 @@
         <f t="shared" si="24"/>
         <v>0.6</v>
       </c>
-      <c r="T49" s="249">
+      <c r="T49" s="246">
         <v>5</v>
       </c>
       <c r="W49" s="158" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="X49" s="47" t="str">
         <f t="shared" si="10"/>
@@ -17929,10 +17938,10 @@
       </c>
       <c r="C50" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMAMB, COMGAS</v>
+        <v>SRVAMB, SRVGAS</v>
       </c>
       <c r="D50" s="86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E50" s="87">
         <f t="shared" si="6"/>
@@ -17982,7 +17991,7 @@
         <f t="shared" ref="P50:S50" si="26">IF(P19=0,"",P19)</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q50" s="246">
+      <c r="Q50" s="243">
         <v>5</v>
       </c>
       <c r="R50" s="90" t="str">
@@ -17995,7 +18004,7 @@
       </c>
       <c r="T50" s="102"/>
       <c r="W50" s="158" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="X50" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18021,10 +18030,10 @@
       </c>
       <c r="C51" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMAMB, COMGAS</v>
+        <v>SRVAMB, SRVGAS</v>
       </c>
       <c r="D51" s="86" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E51" s="87" t="str">
         <f t="shared" si="6"/>
@@ -18074,7 +18083,7 @@
         <f t="shared" ref="P51:S51" si="28">IF(P20=0,"",P20)</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q51" s="246">
+      <c r="Q51" s="243">
         <v>5</v>
       </c>
       <c r="R51" s="90" t="str">
@@ -18087,7 +18096,7 @@
       </c>
       <c r="T51" s="102"/>
       <c r="W51" s="158" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="X51" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18113,10 +18122,10 @@
       </c>
       <c r="C52" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMLPG</v>
+        <v>SRVLPG</v>
       </c>
       <c r="D52" s="86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E52" s="87">
         <f t="shared" si="6"/>
@@ -18177,7 +18186,7 @@
       </c>
       <c r="T52" s="102"/>
       <c r="W52" s="158" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="X52" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18202,10 +18211,10 @@
       </c>
       <c r="C53" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMLPG</v>
+        <v>SRVLPG</v>
       </c>
       <c r="D53" s="86" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E53" s="87" t="str">
         <f t="shared" si="6"/>
@@ -18264,11 +18273,11 @@
         <f t="shared" si="32"/>
         <v>0.6</v>
       </c>
-      <c r="T53" s="249">
+      <c r="T53" s="246">
         <v>5</v>
       </c>
       <c r="W53" s="158" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="X53" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18293,10 +18302,10 @@
       </c>
       <c r="C54" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMAMB, COMLPG</v>
+        <v>SRVAMB, SRVLPG</v>
       </c>
       <c r="D54" s="86" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E54" s="87" t="str">
         <f t="shared" si="6"/>
@@ -18346,7 +18355,7 @@
         <f t="shared" ref="P54:S54" si="34">IF(P23=0,"",P23)</f>
         <v>0.5</v>
       </c>
-      <c r="Q54" s="246">
+      <c r="Q54" s="243">
         <v>5</v>
       </c>
       <c r="R54" s="90" t="str">
@@ -18359,7 +18368,7 @@
       </c>
       <c r="T54" s="102"/>
       <c r="W54" s="158" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="X54" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18384,10 +18393,10 @@
       </c>
       <c r="C55" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMHET</v>
+        <v>SRVHET</v>
       </c>
       <c r="D55" s="86" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E55" s="87" t="str">
         <f t="shared" si="6"/>
@@ -18446,11 +18455,11 @@
         <f t="shared" si="36"/>
         <v>0.6</v>
       </c>
-      <c r="T55" s="249">
+      <c r="T55" s="246">
         <v>5</v>
       </c>
       <c r="W55" s="158" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="X55" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18475,10 +18484,10 @@
       </c>
       <c r="C56" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMOIL</v>
+        <v>SRVOIL</v>
       </c>
       <c r="D56" s="86" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E56" s="87">
         <f t="shared" si="6"/>
@@ -18539,7 +18548,7 @@
       </c>
       <c r="T56" s="102"/>
       <c r="W56" s="158" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="X56" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18564,10 +18573,10 @@
       </c>
       <c r="C57" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMOIL</v>
+        <v>SRVOIL</v>
       </c>
       <c r="D57" s="86" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E57" s="87" t="str">
         <f t="shared" si="6"/>
@@ -18626,11 +18635,11 @@
         <f t="shared" si="40"/>
         <v>0.6</v>
       </c>
-      <c r="T57" s="249">
+      <c r="T57" s="246">
         <v>5</v>
       </c>
       <c r="W57" s="158" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="X57" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18655,10 +18664,10 @@
       </c>
       <c r="C58" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMOIL</v>
+        <v>SRVOIL</v>
       </c>
       <c r="D58" s="86" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E58" s="87" t="str">
         <f t="shared" si="6"/>
@@ -18717,11 +18726,11 @@
         <f t="shared" si="42"/>
         <v>0.6</v>
       </c>
-      <c r="T58" s="249">
+      <c r="T58" s="246">
         <v>5</v>
       </c>
       <c r="W58" s="158" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="X58" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18746,10 +18755,10 @@
       </c>
       <c r="C59" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMELC, COMSOL</v>
+        <v>SRVELC, SRVSOL</v>
       </c>
       <c r="D59" s="86" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E59" s="87" t="str">
         <f t="shared" si="6"/>
@@ -18799,7 +18808,7 @@
         <f t="shared" ref="P59:S59" si="44">IF(P28=0,"",P28)</f>
         <v/>
       </c>
-      <c r="Q59" s="246">
+      <c r="Q59" s="243">
         <v>5</v>
       </c>
       <c r="R59" s="90">
@@ -18810,11 +18819,11 @@
         <f t="shared" si="44"/>
         <v>0.6</v>
       </c>
-      <c r="T59" s="249">
+      <c r="T59" s="246">
         <v>5</v>
       </c>
       <c r="W59" s="158" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="X59" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18839,10 +18848,10 @@
       </c>
       <c r="C60" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMOIL, COMSOL</v>
+        <v>SRVOIL, SRVSOL</v>
       </c>
       <c r="D60" s="86" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E60" s="87" t="str">
         <f t="shared" si="6"/>
@@ -18892,7 +18901,7 @@
         <f t="shared" ref="P60:S60" si="46">IF(P29=0,"",P29)</f>
         <v/>
       </c>
-      <c r="Q60" s="246">
+      <c r="Q60" s="243">
         <v>5</v>
       </c>
       <c r="R60" s="90">
@@ -18903,11 +18912,11 @@
         <f t="shared" si="46"/>
         <v>0.6</v>
       </c>
-      <c r="T60" s="249">
+      <c r="T60" s="246">
         <v>5</v>
       </c>
       <c r="W60" s="158" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="X60" s="47" t="str">
         <f t="shared" si="10"/>
@@ -18932,10 +18941,10 @@
       </c>
       <c r="C61" s="67" t="str">
         <f t="shared" si="5"/>
-        <v>COMGAS, COMSOL</v>
+        <v>SRVGAS, SRVSOL</v>
       </c>
       <c r="D61" s="86" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E61" s="87" t="str">
         <f t="shared" si="6"/>
@@ -18985,7 +18994,7 @@
         <f t="shared" ref="P61:S61" si="48">IF(P30=0,"",P30)</f>
         <v/>
       </c>
-      <c r="Q61" s="246">
+      <c r="Q61" s="243">
         <v>5</v>
       </c>
       <c r="R61" s="90">
@@ -18996,11 +19005,11 @@
         <f t="shared" si="48"/>
         <v>0.6</v>
       </c>
-      <c r="T61" s="249">
+      <c r="T61" s="246">
         <v>5</v>
       </c>
       <c r="W61" s="158" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="X61" s="47" t="str">
         <f t="shared" si="10"/>
@@ -19025,10 +19034,10 @@
       </c>
       <c r="C62" s="73" t="str">
         <f t="shared" si="5"/>
-        <v>COMBIO</v>
+        <v>SRVBIO</v>
       </c>
       <c r="D62" s="91" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E62" s="97" t="str">
         <f t="shared" si="6"/>
@@ -19087,12 +19096,12 @@
         <f t="shared" si="50"/>
         <v>0.6</v>
       </c>
-      <c r="T62" s="250">
+      <c r="T62" s="247">
         <v>5</v>
       </c>
       <c r="V62" s="97"/>
       <c r="W62" s="188" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="X62" s="97" t="str">
         <f t="shared" si="10"/>
@@ -19111,13 +19120,13 @@
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="216" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B65" s="216"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D66" s="191" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E66" s="48"/>
       <c r="F66" s="48"/>
@@ -19153,13 +19162,13 @@
         <v>32</v>
       </c>
       <c r="F67" s="55" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H67" s="55" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I67" s="56" t="s">
         <v>11</v>
@@ -19183,19 +19192,19 @@
         <v>6</v>
       </c>
       <c r="P67" s="56" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="Q67" s="56" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="R67" s="56" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="S67" s="56" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="T67" s="56" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="V67" s="54" t="s">
         <v>18</v>
@@ -19243,13 +19252,13 @@
       <c r="H68" s="202"/>
       <c r="I68" s="203"/>
       <c r="J68" s="62" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="K68" s="62" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="L68" s="61" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="M68" s="203" t="s">
         <v>31</v>
@@ -19298,10 +19307,10 @@
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen boiler</v>
       </c>
       <c r="C69" s="219" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="D69" s="217" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E69" s="220">
         <f>K90</f>
@@ -19342,7 +19351,7 @@
         <v>286</v>
       </c>
       <c r="W69" s="158" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="X69" s="47" t="str">
         <f>"New commercial - CS Space Heat "&amp;RIGHT(C69,3)&amp;" "&amp;AE69</f>
@@ -19352,13 +19361,13 @@
         <v>34</v>
       </c>
       <c r="Z69" s="158" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AA69" s="85"/>
       <c r="AB69" s="85"/>
       <c r="AC69" s="85"/>
       <c r="AE69" s="158" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.25">
@@ -19371,10 +19380,10 @@
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen boiler.HeatHotwater</v>
       </c>
       <c r="C70" s="159" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="D70" s="86" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E70" s="87"/>
       <c r="F70" s="87">
@@ -19417,13 +19426,13 @@
         <f>S16</f>
         <v>0.6</v>
       </c>
-      <c r="T70" s="249">
+      <c r="T70" s="246">
         <v>5</v>
       </c>
       <c r="U70" s="211"/>
       <c r="V70" s="211"/>
       <c r="W70" s="158" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="X70" s="47" t="str">
         <f>"New commercial - CS Space Heat "&amp;RIGHT(C70,3)&amp;" "&amp;AE70</f>
@@ -19433,14 +19442,14 @@
         <v>34</v>
       </c>
       <c r="Z70" s="47" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AA70" s="211"/>
       <c r="AB70" s="211"/>
       <c r="AC70" s="211"/>
       <c r="AD70" s="211"/>
       <c r="AE70" s="158" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="AF70" s="211"/>
       <c r="AG70" s="211"/>
@@ -19457,10 +19466,10 @@
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen air heat pump</v>
       </c>
       <c r="C71" s="159" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D71" s="86" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E71" s="87">
         <f>E19</f>
@@ -19496,7 +19505,7 @@
         <f>P19</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q71" s="246">
+      <c r="Q71" s="243">
         <v>5</v>
       </c>
       <c r="R71" s="90"/>
@@ -19505,7 +19514,7 @@
       <c r="U71" s="211"/>
       <c r="V71" s="211"/>
       <c r="W71" s="158" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="X71" s="47" t="str">
         <f>"New commercial - CS Space Heat "&amp;RIGHT(C71,3)&amp;" "&amp;AE71</f>
@@ -19515,14 +19524,14 @@
         <v>34</v>
       </c>
       <c r="Z71" s="47" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AA71" s="211"/>
       <c r="AB71" s="211"/>
       <c r="AC71" s="211"/>
       <c r="AD71" s="211"/>
       <c r="AE71" s="158" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="AF71" s="211"/>
       <c r="AG71" s="211"/>
@@ -19539,10 +19548,10 @@
         <v>New commercial - CS Space Heat H2G Gaseous hydrogen heat pump.HeatCool</v>
       </c>
       <c r="C72" s="214" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D72" s="91" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E72" s="92"/>
       <c r="F72" s="92">
@@ -19582,16 +19591,16 @@
         <f>P20</f>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q72" s="247">
+      <c r="Q72" s="244">
         <v>5</v>
       </c>
       <c r="R72" s="96"/>
       <c r="S72" s="96"/>
-      <c r="T72" s="248"/>
+      <c r="T72" s="245"/>
       <c r="U72" s="211"/>
       <c r="V72" s="212"/>
       <c r="W72" s="188" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="X72" s="97" t="str">
         <f>"New commercial - CS Space Heat "&amp;RIGHT(C72,3)&amp;" "&amp;AE72</f>
@@ -19601,14 +19610,14 @@
         <v>34</v>
       </c>
       <c r="Z72" s="97" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AA72" s="212"/>
       <c r="AB72" s="212"/>
       <c r="AC72" s="212"/>
       <c r="AD72" s="211"/>
       <c r="AE72" s="158" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="AF72" s="211"/>
       <c r="AG72" s="211"/>
@@ -19654,7 +19663,7 @@
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D74" s="191" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E74" s="48"/>
       <c r="F74" s="48"/>
@@ -19696,13 +19705,13 @@
         <v>32</v>
       </c>
       <c r="F75" s="55" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G75" s="55" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H75" s="55" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I75" s="56" t="s">
         <v>11</v>
@@ -19726,19 +19735,19 @@
         <v>6</v>
       </c>
       <c r="P75" s="56" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="Q75" s="56" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="R75" s="56" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="S75" s="56" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="T75" s="56" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="V75" s="54" t="s">
         <v>18</v>
@@ -19792,13 +19801,13 @@
       <c r="H76" s="202"/>
       <c r="I76" s="203"/>
       <c r="J76" s="62" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="K76" s="62" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="L76" s="61" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="M76" s="203" t="s">
         <v>31</v>
@@ -19853,10 +19862,10 @@
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen boiler</v>
       </c>
       <c r="C77" s="219" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="D77" s="177" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E77" s="220">
         <f>IF(E69=0,"",E69)</f>
@@ -19920,7 +19929,7 @@
         <v>286</v>
       </c>
       <c r="W77" s="228" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="X77" s="227" t="str">
         <f>"New commercial - PS Space Heat "&amp;RIGHT(C77,3)&amp;" "&amp;AE77</f>
@@ -19930,13 +19939,13 @@
         <v>34</v>
       </c>
       <c r="Z77" s="228" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AA77" s="227"/>
       <c r="AB77" s="227"/>
       <c r="AC77" s="227"/>
       <c r="AE77" s="158" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.25">
@@ -19949,10 +19958,10 @@
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen boiler.HeatHotwater</v>
       </c>
       <c r="C78" s="159" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="D78" s="241" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E78" s="87" t="str">
         <f t="shared" ref="E78:S78" si="56">IF(E70=0,"",E70)</f>
@@ -20011,12 +20020,12 @@
         <f t="shared" si="56"/>
         <v>0.6</v>
       </c>
-      <c r="T78" s="249">
+      <c r="T78" s="246">
         <v>5</v>
       </c>
       <c r="V78" s="85"/>
       <c r="W78" s="189" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="X78" s="85" t="str">
         <f>"New commercial - PS Space Heat "&amp;RIGHT(C78,3)&amp;" "&amp;AE78</f>
@@ -20026,13 +20035,13 @@
         <v>34</v>
       </c>
       <c r="Z78" s="85" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AA78" s="85"/>
       <c r="AB78" s="85"/>
       <c r="AC78" s="85"/>
       <c r="AE78" s="158" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.25">
@@ -20045,10 +20054,10 @@
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen air heat pump</v>
       </c>
       <c r="C79" s="159" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D79" s="241" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E79" s="87">
         <f t="shared" ref="E79:S79" si="57">IF(E71=0,"",E71)</f>
@@ -20098,7 +20107,7 @@
         <f t="shared" si="57"/>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q79" s="246">
+      <c r="Q79" s="243">
         <v>5</v>
       </c>
       <c r="R79" s="90" t="str">
@@ -20112,7 +20121,7 @@
       <c r="T79" s="102"/>
       <c r="V79" s="85"/>
       <c r="W79" s="189" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="X79" s="85" t="str">
         <f>"New commercial - PS Space Heat "&amp;RIGHT(C79,3)&amp;" "&amp;AE79</f>
@@ -20122,13 +20131,13 @@
         <v>34</v>
       </c>
       <c r="Z79" s="85" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AA79" s="85"/>
       <c r="AB79" s="85"/>
       <c r="AC79" s="85"/>
       <c r="AE79" s="158" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.25">
@@ -20141,10 +20150,10 @@
         <v>New commercial - PS Space Heat H2G Gaseous hydrogen heat pump.HeatCool</v>
       </c>
       <c r="C80" s="214" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D80" s="242" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E80" s="92" t="str">
         <f t="shared" ref="E80:S80" si="58">IF(E72=0,"",E72)</f>
@@ -20194,7 +20203,7 @@
         <f t="shared" si="58"/>
         <v>0.42857142857142899</v>
       </c>
-      <c r="Q80" s="247">
+      <c r="Q80" s="244">
         <v>5</v>
       </c>
       <c r="R80" s="96" t="str">
@@ -20205,10 +20214,10 @@
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="T80" s="248"/>
+      <c r="T80" s="245"/>
       <c r="V80" s="97"/>
       <c r="W80" s="188" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="X80" s="97" t="str">
         <f>"New commercial - PS Space Heat "&amp;RIGHT(C80,3)&amp;" "&amp;AE80</f>
@@ -20218,23 +20227,23 @@
         <v>34</v>
       </c>
       <c r="Z80" s="97" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AA80" s="97"/>
       <c r="AB80" s="97"/>
       <c r="AC80" s="97"/>
       <c r="AE80" s="158" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="233" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="231" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B86" s="231"/>
       <c r="C86" s="231"/>
@@ -20261,7 +20270,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D87" s="231" t="s">
         <v>4</v>
@@ -20270,7 +20279,7 @@
         <v>5</v>
       </c>
       <c r="F87" s="231" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="G87" s="231" t="s">
         <v>278</v>
@@ -20282,25 +20291,25 @@
         <v>32</v>
       </c>
       <c r="J87" s="231" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K87" s="231" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="L87" s="231" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="M87" s="231" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="N87" s="231" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="O87" s="231" t="s">
         <v>87</v>
       </c>
       <c r="P87" s="231" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="Q87" s="234"/>
     </row>
@@ -20312,7 +20321,7 @@
         <v>14</v>
       </c>
       <c r="C88" s="231" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D88" s="231" t="s">
         <v>15</v>
@@ -20322,40 +20331,40 @@
       </c>
       <c r="F88" s="231"/>
       <c r="G88" s="231" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="H88" s="231" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="I88" s="231" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="J88" s="231" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="K88" s="231" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="L88" s="231" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="M88" s="231" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="N88" s="231" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="O88" s="231" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="P88" s="231" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="Q88" s="234"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="231" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B89" s="231"/>
       <c r="C89" s="231"/>
@@ -20363,50 +20372,50 @@
       <c r="E89" s="231"/>
       <c r="F89" s="231"/>
       <c r="G89" s="231" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="H89" s="231" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="I89" s="231" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="J89" s="231" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="K89" s="231" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="L89" s="231" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="M89" s="231" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="N89" s="231" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="O89" s="231" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="P89" s="231" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="Q89" s="234"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="231" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B90" s="231" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C90" s="231"/>
       <c r="D90" s="231" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E90" s="231" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F90" s="231"/>
       <c r="G90" s="231">
@@ -20442,7 +20451,7 @@
       <c r="B91" s="231"/>
       <c r="C91" s="231"/>
       <c r="D91" s="231" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E91" s="231"/>
       <c r="F91" s="231"/>
@@ -20464,17 +20473,17 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="231" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B92" s="231" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C92" s="231"/>
       <c r="D92" s="231" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E92" s="231" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F92" s="231"/>
       <c r="G92" s="231">
@@ -20510,13 +20519,13 @@
       <c r="B93" s="231"/>
       <c r="C93" s="231"/>
       <c r="D93" s="231" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E93" s="231"/>
       <c r="F93" s="231"/>
       <c r="G93" s="231"/>
       <c r="H93" s="231" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I93" s="231"/>
       <c r="J93" s="231"/>
@@ -20534,17 +20543,17 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="231" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B94" s="231" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C94" s="231"/>
       <c r="D94" s="231" t="s">
         <v>309</v>
       </c>
       <c r="E94" s="231" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F94" s="231"/>
       <c r="G94" s="231">
@@ -20580,13 +20589,13 @@
       <c r="B95" s="231"/>
       <c r="C95" s="231"/>
       <c r="D95" s="231" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E95" s="231"/>
       <c r="F95" s="231"/>
       <c r="G95" s="231"/>
       <c r="H95" s="231" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I95" s="231"/>
       <c r="J95" s="231"/>
@@ -20604,17 +20613,17 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="231" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B96" s="231" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C96" s="231"/>
       <c r="D96" s="231" t="s">
         <v>309</v>
       </c>
       <c r="E96" s="231" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F96" s="231"/>
       <c r="G96" s="231">
@@ -20650,13 +20659,13 @@
       <c r="B97" s="231"/>
       <c r="C97" s="231"/>
       <c r="D97" s="231" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E97" s="231"/>
       <c r="F97" s="231"/>
       <c r="G97" s="231"/>
       <c r="H97" s="231" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I97" s="231"/>
       <c r="J97" s="231"/>
@@ -20674,17 +20683,17 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="231" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B98" s="231" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C98" s="231"/>
       <c r="D98" s="231" t="s">
         <v>309</v>
       </c>
       <c r="E98" s="231" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F98" s="231"/>
       <c r="G98" s="231">
@@ -20720,13 +20729,13 @@
       <c r="B99" s="231"/>
       <c r="C99" s="231"/>
       <c r="D99" s="231" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E99" s="231"/>
       <c r="F99" s="231"/>
       <c r="G99" s="231"/>
       <c r="H99" s="231" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I99" s="231"/>
       <c r="J99" s="231"/>
@@ -20744,17 +20753,17 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="231" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B100" s="231" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C100" s="231"/>
       <c r="D100" s="231" t="s">
         <v>309</v>
       </c>
       <c r="E100" s="231" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F100" s="231"/>
       <c r="G100" s="231">
@@ -20790,13 +20799,13 @@
       <c r="B101" s="231"/>
       <c r="C101" s="231"/>
       <c r="D101" s="231" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E101" s="231"/>
       <c r="F101" s="231"/>
       <c r="G101" s="231"/>
       <c r="H101" s="231" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I101" s="231"/>
       <c r="J101" s="231"/>
@@ -20814,14 +20823,14 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="231" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B102" s="231" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C102" s="231"/>
       <c r="D102" s="231" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E102" s="231" t="s">
         <v>309</v>
@@ -20860,15 +20869,15 @@
       <c r="B103" s="231"/>
       <c r="C103" s="231"/>
       <c r="D103" s="231" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E103" s="231" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F103" s="231"/>
       <c r="G103" s="231"/>
       <c r="H103" s="231" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I103" s="231"/>
       <c r="J103" s="231"/>
@@ -20891,7 +20900,7 @@
       <c r="D104" s="231"/>
       <c r="E104" s="231"/>
       <c r="F104" s="231" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G104" s="231"/>
       <c r="H104" s="231"/>
@@ -20907,17 +20916,17 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="231" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B105" s="231" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C105" s="231"/>
       <c r="D105" s="231" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E105" s="231" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F105" s="231"/>
       <c r="G105" s="231">
@@ -20953,7 +20962,7 @@
       <c r="B106" s="231"/>
       <c r="C106" s="231"/>
       <c r="D106" s="231" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E106" s="231"/>
       <c r="F106" s="231"/>
@@ -20975,17 +20984,17 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="231" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B107" s="231" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C107" s="231"/>
       <c r="D107" s="231" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E107" s="231" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F107" s="231"/>
       <c r="G107" s="231">
@@ -21086,16 +21095,16 @@
         <v>278</v>
       </c>
       <c r="P1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="R1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="S1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -21148,10 +21157,10 @@
         <v>274</v>
       </c>
       <c r="R2" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="S2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -21201,16 +21210,16 @@
         <v>280</v>
       </c>
       <c r="P3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="R3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="S3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="T3" t="s">
         <v>88</v>
@@ -23870,7 +23879,7 @@
   <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="C6" sqref="C6:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23903,7 +23912,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="106" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B1" s="107"/>
     </row>
@@ -23959,7 +23968,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="117" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="I4" s="117" t="s">
         <v>8</v>
@@ -23977,13 +23986,13 @@
         <v>6</v>
       </c>
       <c r="N4" s="117" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="O4" s="56" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="P4" s="117" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="R4" s="115" t="s">
         <v>18</v>
@@ -24028,14 +24037,14 @@
       </c>
       <c r="F5" s="120"/>
       <c r="G5" s="121" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H5" s="121"/>
       <c r="I5" s="121" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J5" s="122" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K5" s="120" t="s">
         <v>31</v>
@@ -24082,10 +24091,10 @@
         <v>New commercial - CS Water Heat BIO Biomass boiler water heater</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>318</v>
+        <v>707</v>
       </c>
       <c r="D6" s="127" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E6" s="128">
         <f>Raw_CW!D16</f>
@@ -24135,7 +24144,7 @@
         <v>286</v>
       </c>
       <c r="S6" s="158" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="T6" s="108" t="str">
         <f t="shared" ref="T6:T17" si="2">"New commercial - CS Water Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AA6</f>
@@ -24149,7 +24158,7 @@
       </c>
       <c r="W6" s="134"/>
       <c r="AA6" s="108" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -24162,10 +24171,10 @@
         <v>New commercial - CS Water Heat ELC Electric boiler water heater resistance</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D7" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E7" s="138">
         <f>Raw_CW!D17</f>
@@ -24212,7 +24221,7 @@
         <v/>
       </c>
       <c r="S7" s="158" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="T7" s="108" t="str">
         <f t="shared" si="2"/>
@@ -24226,7 +24235,7 @@
       </c>
       <c r="W7" s="134"/>
       <c r="AA7" s="108" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -24242,7 +24251,7 @@
         <v>710</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E8" s="138">
         <f>Raw_CW!D18</f>
@@ -24283,7 +24292,7 @@
         <f>IF(Raw_CW!E18=0,"",Raw_CW!E18)</f>
         <v>0.57264957264957295</v>
       </c>
-      <c r="O8" s="251">
+      <c r="O8" s="248">
         <v>5</v>
       </c>
       <c r="P8" s="142" t="str">
@@ -24291,7 +24300,7 @@
         <v/>
       </c>
       <c r="S8" s="158" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="T8" s="108" t="str">
         <f t="shared" si="2"/>
@@ -24305,7 +24314,7 @@
       </c>
       <c r="W8" s="134"/>
       <c r="AA8" s="108" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AD8" s="143"/>
     </row>
@@ -24319,10 +24328,10 @@
         <v>New commercial - CS Water Heat HET FC output to HotWater demand</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>311</v>
+        <v>698</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E9" s="138">
         <f>Raw_CW!D19</f>
@@ -24369,7 +24378,7 @@
         <v/>
       </c>
       <c r="S9" s="158" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="T9" s="108" t="str">
         <f t="shared" si="2"/>
@@ -24383,7 +24392,7 @@
       </c>
       <c r="W9" s="134"/>
       <c r="AA9" s="108" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AD9" s="144"/>
     </row>
@@ -24397,10 +24406,10 @@
         <v>New commercial - CS Water Heat GAS Natural gas boiler water heater</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D10" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E10" s="138">
         <f>Raw_CW!D20</f>
@@ -24447,7 +24456,7 @@
         <v/>
       </c>
       <c r="S10" s="158" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="T10" s="108" t="str">
         <f t="shared" si="2"/>
@@ -24461,7 +24470,7 @@
       </c>
       <c r="W10" s="134"/>
       <c r="AA10" s="108" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -24474,10 +24483,10 @@
         <v>New commercial - CS Water Heat GEO Geo Heat Exchanger water heater</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>356</v>
+        <v>711</v>
       </c>
       <c r="D11" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E11" s="138">
         <f>Raw_CW!D21</f>
@@ -24524,7 +24533,7 @@
         <v/>
       </c>
       <c r="S11" s="158" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="T11" s="108" t="str">
         <f t="shared" si="2"/>
@@ -24538,7 +24547,7 @@
       </c>
       <c r="W11" s="134"/>
       <c r="AA11" s="108" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AC11" s="145"/>
       <c r="AD11" s="146"/>
@@ -24559,10 +24568,10 @@
         <v>New commercial - CS Water Heat LPG LPG boiler water heater</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>313</v>
+        <v>701</v>
       </c>
       <c r="D12" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E12" s="138">
         <f>Raw_CW!D22</f>
@@ -24609,7 +24618,7 @@
         <v/>
       </c>
       <c r="S12" s="158" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="T12" s="108" t="str">
         <f t="shared" si="2"/>
@@ -24623,7 +24632,7 @@
       </c>
       <c r="W12" s="134"/>
       <c r="AA12" s="108" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AC12" s="145"/>
       <c r="AD12" s="145"/>
@@ -24644,10 +24653,10 @@
         <v>New commercial - CS Water Heat HET District heat exchanger water heatier</v>
       </c>
       <c r="C13" s="137" t="s">
-        <v>311</v>
+        <v>698</v>
       </c>
       <c r="D13" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E13" s="138">
         <f>Raw_CW!D23</f>
@@ -24694,7 +24703,7 @@
         <v/>
       </c>
       <c r="S13" s="158" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="T13" s="108" t="str">
         <f t="shared" si="2"/>
@@ -24708,7 +24717,7 @@
       </c>
       <c r="W13" s="134"/>
       <c r="AA13" s="108" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AC13" s="145"/>
       <c r="AD13" s="145"/>
@@ -24729,10 +24738,10 @@
         <v>New commercial - CS Water Heat OIL Oil boiler water heater</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>314</v>
+        <v>703</v>
       </c>
       <c r="D14" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E14" s="138">
         <f>Raw_CW!D24</f>
@@ -24779,7 +24788,7 @@
         <v/>
       </c>
       <c r="S14" s="158" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="T14" s="108" t="str">
         <f t="shared" si="2"/>
@@ -24793,7 +24802,7 @@
       </c>
       <c r="W14" s="134"/>
       <c r="AA14" s="108" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AC14" s="145"/>
       <c r="AD14" s="145"/>
@@ -24814,10 +24823,10 @@
         <v>New commercial - CS Water Heat SOL Solar water heater with electricity backup</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>316</v>
+        <v>704</v>
       </c>
       <c r="D15" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E15" s="138">
         <f>Raw_CW!D25</f>
@@ -24864,7 +24873,7 @@
         <v/>
       </c>
       <c r="S15" s="158" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="T15" s="108" t="str">
         <f t="shared" si="2"/>
@@ -24878,7 +24887,7 @@
       </c>
       <c r="W15" s="134"/>
       <c r="AA15" s="108" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AC15" s="145"/>
       <c r="AD15" s="145"/>
@@ -24899,10 +24908,10 @@
         <v>New commercial - CS Water Heat SOL Solar water heater with diesel backup</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>315</v>
+        <v>705</v>
       </c>
       <c r="D16" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E16" s="138">
         <f>Raw_CW!D26</f>
@@ -24949,7 +24958,7 @@
         <v/>
       </c>
       <c r="S16" s="158" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="T16" s="108" t="str">
         <f t="shared" si="2"/>
@@ -24963,7 +24972,7 @@
       </c>
       <c r="W16" s="134"/>
       <c r="AA16" s="108" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -24976,10 +24985,10 @@
         <v>New commercial - CS Water Heat SOL Solar water heater with gas backup</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>317</v>
+        <v>706</v>
       </c>
       <c r="D17" s="135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E17" s="138">
         <f>Raw_CW!D27</f>
@@ -25026,7 +25035,7 @@
         <v/>
       </c>
       <c r="S17" s="158" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="T17" s="108" t="str">
         <f t="shared" si="2"/>
@@ -25040,7 +25049,7 @@
       </c>
       <c r="W17" s="134"/>
       <c r="AA17" s="108" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -25137,7 +25146,7 @@
         <v>7</v>
       </c>
       <c r="H21" s="117" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="I21" s="117" t="s">
         <v>8</v>
@@ -25155,13 +25164,13 @@
         <v>6</v>
       </c>
       <c r="N21" s="117" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="P21" s="117" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="R21" s="115" t="s">
         <v>18</v>
@@ -25206,14 +25215,14 @@
       </c>
       <c r="F22" s="120"/>
       <c r="G22" s="121" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H22" s="121"/>
       <c r="I22" s="121" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J22" s="122" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K22" s="120" t="s">
         <v>31</v>
@@ -25261,10 +25270,10 @@
       </c>
       <c r="C23" s="126" t="str">
         <f t="shared" ref="C23:C34" si="5">C6</f>
-        <v>COMBIO</v>
+        <v>SRVBIO</v>
       </c>
       <c r="D23" s="127" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E23" s="128">
         <f t="shared" ref="E23:E34" si="6">IF(E6=0,"",E6)</f>
@@ -25312,7 +25321,7 @@
         <v>286</v>
       </c>
       <c r="S23" s="158" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="T23" s="108" t="str">
         <f t="shared" ref="T23:T34" si="10">"New commercial - PS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;AA6</f>
@@ -25337,10 +25346,10 @@
       </c>
       <c r="C24" s="137" t="str">
         <f t="shared" si="5"/>
-        <v>COMELC</v>
+        <v>SRVELC</v>
       </c>
       <c r="D24" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E24" s="138">
         <f t="shared" si="6"/>
@@ -25385,7 +25394,7 @@
         <v/>
       </c>
       <c r="S24" s="158" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="T24" s="108" t="str">
         <f t="shared" si="10"/>
@@ -25410,10 +25419,10 @@
       </c>
       <c r="C25" s="137" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">COMAMB, COMELC </v>
+        <v xml:space="preserve">SRVAMB, SRVELC </v>
       </c>
       <c r="D25" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E25" s="138">
         <f t="shared" si="6"/>
@@ -25452,7 +25461,7 @@
         <f t="shared" si="9"/>
         <v>0.57264957264957295</v>
       </c>
-      <c r="O25" s="251">
+      <c r="O25" s="248">
         <v>5</v>
       </c>
       <c r="P25" s="142" t="str">
@@ -25460,7 +25469,7 @@
         <v/>
       </c>
       <c r="S25" s="158" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T25" s="108" t="str">
         <f t="shared" si="10"/>
@@ -25485,10 +25494,10 @@
       </c>
       <c r="C26" s="137" t="str">
         <f t="shared" si="5"/>
-        <v>COMHET</v>
+        <v>SRVHET</v>
       </c>
       <c r="D26" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E26" s="138">
         <f t="shared" si="6"/>
@@ -25533,7 +25542,7 @@
         <v/>
       </c>
       <c r="S26" s="158" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="T26" s="108" t="str">
         <f t="shared" si="10"/>
@@ -25558,10 +25567,10 @@
       </c>
       <c r="C27" s="137" t="str">
         <f t="shared" si="5"/>
-        <v>COMGAS</v>
+        <v>SRVGAS</v>
       </c>
       <c r="D27" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E27" s="138">
         <f t="shared" si="6"/>
@@ -25606,7 +25615,7 @@
         <v/>
       </c>
       <c r="S27" s="158" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="T27" s="108" t="str">
         <f t="shared" si="10"/>
@@ -25631,10 +25640,10 @@
       </c>
       <c r="C28" s="137" t="str">
         <f t="shared" si="5"/>
-        <v>COMGEO</v>
+        <v>SRVGEO</v>
       </c>
       <c r="D28" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E28" s="138">
         <f t="shared" si="6"/>
@@ -25679,7 +25688,7 @@
         <v/>
       </c>
       <c r="S28" s="158" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="T28" s="108" t="str">
         <f t="shared" si="10"/>
@@ -25704,10 +25713,10 @@
       </c>
       <c r="C29" s="137" t="str">
         <f t="shared" si="5"/>
-        <v>COMLPG</v>
+        <v>SRVLPG</v>
       </c>
       <c r="D29" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E29" s="138">
         <f t="shared" si="6"/>
@@ -25752,7 +25761,7 @@
         <v/>
       </c>
       <c r="S29" s="158" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="T29" s="108" t="str">
         <f t="shared" si="10"/>
@@ -25777,10 +25786,10 @@
       </c>
       <c r="C30" s="137" t="str">
         <f t="shared" si="5"/>
-        <v>COMHET</v>
+        <v>SRVHET</v>
       </c>
       <c r="D30" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E30" s="138">
         <f t="shared" si="6"/>
@@ -25825,7 +25834,7 @@
         <v/>
       </c>
       <c r="S30" s="158" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="T30" s="108" t="str">
         <f t="shared" si="10"/>
@@ -25850,10 +25859,10 @@
       </c>
       <c r="C31" s="137" t="str">
         <f t="shared" si="5"/>
-        <v>COMOIL</v>
+        <v>SRVOIL</v>
       </c>
       <c r="D31" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E31" s="138">
         <f t="shared" si="6"/>
@@ -25898,7 +25907,7 @@
         <v/>
       </c>
       <c r="S31" s="158" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="T31" s="108" t="str">
         <f t="shared" si="10"/>
@@ -25923,10 +25932,10 @@
       </c>
       <c r="C32" s="137" t="str">
         <f t="shared" si="5"/>
-        <v>COMELC, COMSOL</v>
+        <v>SRVELC, SRVSOL</v>
       </c>
       <c r="D32" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E32" s="138">
         <f t="shared" si="6"/>
@@ -25971,7 +25980,7 @@
         <v/>
       </c>
       <c r="S32" s="158" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="T32" s="108" t="str">
         <f t="shared" si="10"/>
@@ -25996,10 +26005,10 @@
       </c>
       <c r="C33" s="137" t="str">
         <f t="shared" si="5"/>
-        <v>COMOIL, COMSOL</v>
+        <v>SRVOIL, SRVSOL</v>
       </c>
       <c r="D33" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E33" s="138">
         <f t="shared" si="6"/>
@@ -26044,7 +26053,7 @@
         <v/>
       </c>
       <c r="S33" s="158" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="T33" s="108" t="str">
         <f t="shared" si="10"/>
@@ -26069,10 +26078,10 @@
       </c>
       <c r="C34" s="137" t="str">
         <f t="shared" si="5"/>
-        <v>COMGAS, COMSOL</v>
+        <v>SRVGAS, SRVSOL</v>
       </c>
       <c r="D34" s="135" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E34" s="138">
         <f t="shared" si="6"/>
@@ -26117,7 +26126,7 @@
         <v/>
       </c>
       <c r="S34" s="158" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="T34" s="108" t="str">
         <f t="shared" si="10"/>
@@ -26170,10 +26179,10 @@
         <v>281</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G1" t="s">
         <v>269</v>
@@ -26234,7 +26243,7 @@
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
         <v>280</v>
@@ -26243,10 +26252,10 @@
         <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="F3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G3" t="s">
         <v>280</v>
@@ -27332,7 +27341,7 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="C6" sqref="C6:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27365,7 +27374,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B1" s="107"/>
     </row>
@@ -27472,17 +27481,17 @@
         <v>16</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F5" s="120"/>
       <c r="G5" s="121" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H5" s="121" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I5" s="122" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J5" s="120" t="s">
         <v>31</v>
@@ -27526,10 +27535,10 @@
         <v>New commercial - CS Water Heat ELC Room air-conditioner</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D6" s="162" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E6" s="160">
         <f>Raw_CC!F10</f>
@@ -27566,7 +27575,7 @@
         <v>286</v>
       </c>
       <c r="O6" s="158" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="P6" s="108" t="str">
         <f t="shared" ref="P6:P12" si="1">"New commercial - CS Water Heat "&amp;RIGHT(C6,3)&amp;" "&amp;W6</f>
@@ -27580,7 +27589,7 @@
       </c>
       <c r="S6" s="134"/>
       <c r="W6" s="108" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -27593,10 +27602,10 @@
         <v>New commercial - CS Water Heat ELC Air fans</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D7" s="135" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E7" s="161">
         <f>Raw_CC!F11</f>
@@ -27630,7 +27639,7 @@
         <v>0.15</v>
       </c>
       <c r="O7" s="158" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="P7" s="108" t="str">
         <f t="shared" si="1"/>
@@ -27644,7 +27653,7 @@
       </c>
       <c r="S7" s="134"/>
       <c r="W7" s="108" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -27657,10 +27666,10 @@
         <v>New commercial - CS Water Heat ELC Roof-top central electric chiller</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E8" s="161">
         <f>Raw_CC!F12</f>
@@ -27694,7 +27703,7 @@
         <v>0.15</v>
       </c>
       <c r="O8" s="158" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="P8" s="108" t="str">
         <f t="shared" si="1"/>
@@ -27708,7 +27717,7 @@
       </c>
       <c r="S8" s="134"/>
       <c r="W8" s="108" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Z8" s="143"/>
     </row>
@@ -27722,10 +27731,10 @@
         <v>New commercial - CS Water Heat ELC Centralized electrical air conditioner</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E9" s="161">
         <f>Raw_CC!F13</f>
@@ -27759,7 +27768,7 @@
         <v>0.15</v>
       </c>
       <c r="O9" s="158" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="P9" s="108" t="str">
         <f t="shared" si="1"/>
@@ -27773,7 +27782,7 @@
       </c>
       <c r="S9" s="134"/>
       <c r="W9" s="108" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="Z9" s="144"/>
     </row>
@@ -27787,10 +27796,10 @@
         <v>New commercial - CS Water Heat ELC Non-reversible electricity heat pump</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D10" s="135" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E10" s="161">
         <f>Raw_CC!F14</f>
@@ -27824,7 +27833,7 @@
         <v>0.15</v>
       </c>
       <c r="O10" s="158" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="P10" s="108" t="str">
         <f t="shared" si="1"/>
@@ -27838,7 +27847,7 @@
       </c>
       <c r="S10" s="134"/>
       <c r="W10" s="108" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -27851,10 +27860,10 @@
         <v>New commercial - CS Water Heat GAS Centralized gas air conditioner</v>
       </c>
       <c r="C11" s="159" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D11" s="135" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E11" s="161">
         <f>Raw_CC!F15</f>
@@ -27888,7 +27897,7 @@
         <v>0.15</v>
       </c>
       <c r="O11" s="158" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="P11" s="108" t="str">
         <f t="shared" si="1"/>
@@ -27902,7 +27911,7 @@
       </c>
       <c r="S11" s="134"/>
       <c r="W11" s="108" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Y11" s="145"/>
       <c r="Z11" s="146"/>
@@ -27923,10 +27932,10 @@
         <v>New commercial - CS Water Heat GAS Non reversible gas heat pump</v>
       </c>
       <c r="C12" s="159" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D12" s="135" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E12" s="161">
         <f>Raw_CC!F16</f>
@@ -27960,7 +27969,7 @@
         <v>0.15</v>
       </c>
       <c r="O12" s="158" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="P12" s="108" t="str">
         <f t="shared" si="1"/>
@@ -27974,7 +27983,7 @@
       </c>
       <c r="S12" s="134"/>
       <c r="W12" s="108" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Y12" s="145"/>
       <c r="Z12" s="145"/>
@@ -28123,17 +28132,17 @@
         <v>16</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F17" s="120"/>
       <c r="G17" s="121" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H17" s="121" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I17" s="122" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J17" s="120" t="s">
         <v>31</v>
@@ -28178,10 +28187,10 @@
       </c>
       <c r="C18" s="126" t="str">
         <f t="shared" ref="C18:C24" si="3">C6</f>
-        <v>COMELC</v>
+        <v>SRVELC</v>
       </c>
       <c r="D18" s="162" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E18" s="128">
         <f t="shared" ref="E18:E24" si="4">IF(E6=0,"",E6)</f>
@@ -28219,7 +28228,7 @@
         <v>286</v>
       </c>
       <c r="O18" s="158" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="P18" s="108" t="str">
         <f t="shared" ref="P18:P24" si="6">"New commercial - PS Space Heat "&amp;RIGHT(C6,3)&amp;" "&amp;W6</f>
@@ -28244,10 +28253,10 @@
       </c>
       <c r="C19" s="137" t="str">
         <f t="shared" si="3"/>
-        <v>COMELC</v>
+        <v>SRVELC</v>
       </c>
       <c r="D19" s="135" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E19" s="138">
         <f t="shared" si="4"/>
@@ -28282,7 +28291,7 @@
         <v>0.15</v>
       </c>
       <c r="O19" s="158" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="P19" s="108" t="str">
         <f t="shared" si="6"/>
@@ -28307,10 +28316,10 @@
       </c>
       <c r="C20" s="137" t="str">
         <f t="shared" si="3"/>
-        <v>COMELC</v>
+        <v>SRVELC</v>
       </c>
       <c r="D20" s="135" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E20" s="138">
         <f t="shared" si="4"/>
@@ -28345,7 +28354,7 @@
         <v>0.15</v>
       </c>
       <c r="O20" s="158" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="P20" s="108" t="str">
         <f t="shared" si="6"/>
@@ -28370,10 +28379,10 @@
       </c>
       <c r="C21" s="137" t="str">
         <f t="shared" si="3"/>
-        <v>COMELC</v>
+        <v>SRVELC</v>
       </c>
       <c r="D21" s="135" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E21" s="138">
         <f t="shared" si="4"/>
@@ -28408,7 +28417,7 @@
         <v>0.15</v>
       </c>
       <c r="O21" s="158" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="P21" s="108" t="str">
         <f t="shared" si="6"/>
@@ -28433,10 +28442,10 @@
       </c>
       <c r="C22" s="137" t="str">
         <f t="shared" si="3"/>
-        <v>COMELC</v>
+        <v>SRVELC</v>
       </c>
       <c r="D22" s="135" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E22" s="138">
         <f t="shared" si="4"/>
@@ -28471,7 +28480,7 @@
         <v>0.15</v>
       </c>
       <c r="O22" s="158" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="P22" s="108" t="str">
         <f t="shared" si="6"/>
@@ -28496,10 +28505,10 @@
       </c>
       <c r="C23" s="137" t="str">
         <f t="shared" si="3"/>
-        <v>COMGAS</v>
+        <v>SRVGAS</v>
       </c>
       <c r="D23" s="135" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E23" s="138">
         <f t="shared" si="4"/>
@@ -28534,7 +28543,7 @@
         <v>0.15</v>
       </c>
       <c r="O23" s="158" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="P23" s="108" t="str">
         <f t="shared" si="6"/>
@@ -28559,10 +28568,10 @@
       </c>
       <c r="C24" s="137" t="str">
         <f t="shared" si="3"/>
-        <v>COMGAS</v>
+        <v>SRVGAS</v>
       </c>
       <c r="D24" s="135" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E24" s="138">
         <f t="shared" si="4"/>
@@ -28597,7 +28606,7 @@
         <v>0.15</v>
       </c>
       <c r="O24" s="158" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="P24" s="108" t="str">
         <f t="shared" si="6"/>
@@ -28675,7 +28684,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="155" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C2" s="155" t="s">
         <v>278</v>
@@ -29378,7 +29387,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="C7" sqref="C7:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29411,7 +29420,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B1" s="107"/>
     </row>
@@ -29522,13 +29531,13 @@
       </c>
       <c r="F5" s="124"/>
       <c r="G5" s="184" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H5" s="184" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="I5" s="174" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J5" s="124" t="s">
         <v>31</v>
@@ -29564,7 +29573,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="185" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B6" s="185"/>
       <c r="C6" s="185"/>
@@ -29578,7 +29587,7 @@
       <c r="K6" s="185"/>
       <c r="L6" s="185"/>
       <c r="N6" s="186" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="O6" s="185"/>
       <c r="P6" s="185"/>
@@ -29599,10 +29608,10 @@
         <v>New commercial - Cooking ELC</v>
       </c>
       <c r="C7" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D7" s="177" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E7" s="178">
         <f>Raw_COth!F4</f>
@@ -29639,7 +29648,7 @@
         <v>286</v>
       </c>
       <c r="O7" s="158" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P7" s="108" t="str">
         <f>"New commercial - Cooking "&amp;RIGHT(C7,3)</f>
@@ -29649,11 +29658,11 @@
         <v>34</v>
       </c>
       <c r="R7" s="168" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="S7" s="134"/>
       <c r="W7" s="158" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -29666,10 +29675,10 @@
         <v>New commercial - Cooking GAS</v>
       </c>
       <c r="C8" s="159" t="s">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E8" s="138">
         <f>Raw_COth!F5</f>
@@ -29703,7 +29712,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="158" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="P8" s="108" t="str">
         <f t="shared" ref="P8:P9" si="1">"New commercial - Cooking "&amp;RIGHT(C8,3)</f>
@@ -29713,11 +29722,11 @@
         <v>34</v>
       </c>
       <c r="R8" s="168" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="S8" s="134"/>
       <c r="W8" s="158" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -29730,10 +29739,10 @@
         <v>New commercial - Cooking LPG</v>
       </c>
       <c r="C9" s="159" t="s">
-        <v>313</v>
+        <v>701</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E9" s="138">
         <f>Raw_COth!F6</f>
@@ -29767,7 +29776,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="158" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="P9" s="108" t="str">
         <f t="shared" si="1"/>
@@ -29777,17 +29786,17 @@
         <v>34</v>
       </c>
       <c r="R9" s="168" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="S9" s="134"/>
       <c r="W9" s="158" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Z9" s="143"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="185" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B10" s="185"/>
       <c r="C10" s="185"/>
@@ -29801,7 +29810,7 @@
       <c r="K10" s="185"/>
       <c r="L10" s="185"/>
       <c r="N10" s="185" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="O10" s="185"/>
       <c r="P10" s="185"/>
@@ -29821,10 +29830,10 @@
         <v>New commercial - Lighting Incandescent STAD</v>
       </c>
       <c r="C11" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D11" s="177" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E11" s="187">
         <f>Raw_COth!F12</f>
@@ -29859,7 +29868,7 @@
       </c>
       <c r="N11" s="134"/>
       <c r="O11" s="189" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="P11" s="108" t="str">
         <f>"New commercial - Lighting "&amp;W11</f>
@@ -29869,13 +29878,13 @@
         <v>34</v>
       </c>
       <c r="R11" s="134" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="S11" s="134"/>
       <c r="T11" s="134"/>
       <c r="U11" s="134"/>
       <c r="W11" s="158" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -29888,10 +29897,10 @@
         <v>New commercial - Lighting Incandescent IMP</v>
       </c>
       <c r="C12" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D12" s="177" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E12" s="187">
         <f>Raw_COth!F13</f>
@@ -29925,7 +29934,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="158" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="P12" s="108" t="str">
         <f t="shared" ref="P12:P14" si="4">"New commercial - Lighting "&amp;W12</f>
@@ -29935,10 +29944,10 @@
         <v>34</v>
       </c>
       <c r="R12" s="108" t="s">
+        <v>395</v>
+      </c>
+      <c r="W12" s="158" t="s">
         <v>403</v>
-      </c>
-      <c r="W12" s="158" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -29951,10 +29960,10 @@
         <v>New commercial - Lighting Halogens</v>
       </c>
       <c r="C13" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D13" s="177" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E13" s="187">
         <f>Raw_COth!F14</f>
@@ -29988,7 +29997,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="158" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="P13" s="108" t="str">
         <f t="shared" si="4"/>
@@ -29998,10 +30007,10 @@
         <v>34</v>
       </c>
       <c r="R13" s="108" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="W13" s="158" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -30014,10 +30023,10 @@
         <v>New commercial - Lighting Fluorescent</v>
       </c>
       <c r="C14" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D14" s="177" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E14" s="187">
         <f>Raw_COth!F15</f>
@@ -30051,7 +30060,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="158" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="P14" s="108" t="str">
         <f t="shared" si="4"/>
@@ -30061,10 +30070,10 @@
         <v>34</v>
       </c>
       <c r="R14" s="108" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="W14" s="158" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -30077,10 +30086,10 @@
         <v>New commercial - Public Lighting</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D15" s="177" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E15" s="187">
         <f>Raw_COth!F16</f>
@@ -30114,7 +30123,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="158" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P15" s="108" t="str">
         <f>"New commercial - Public Lighting"</f>
@@ -30124,15 +30133,15 @@
         <v>34</v>
       </c>
       <c r="R15" s="108" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="W15" s="158" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="185" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B16" s="185"/>
       <c r="C16" s="185"/>
@@ -30146,7 +30155,7 @@
       <c r="K16" s="185"/>
       <c r="L16" s="185"/>
       <c r="N16" s="185" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="O16" s="185"/>
       <c r="P16" s="185"/>
@@ -30166,10 +30175,10 @@
         <v>New commercial - Refrigerators (energy class B,A)</v>
       </c>
       <c r="C17" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D17" s="177" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E17" s="187">
         <f>Raw_COth!F22</f>
@@ -30203,7 +30212,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="158" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="P17" s="108" t="str">
         <f>"New commercial - "&amp;W17</f>
@@ -30213,10 +30222,10 @@
         <v>34</v>
       </c>
       <c r="R17" s="108" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="W17" s="108" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -30229,10 +30238,10 @@
         <v>New commercial - Refrigerators (A+, A++)</v>
       </c>
       <c r="C18" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D18" s="177" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E18" s="187">
         <f>Raw_COth!F23</f>
@@ -30266,7 +30275,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="158" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="P18" s="108" t="str">
         <f t="shared" ref="P18:P20" si="7">"New commercial - "&amp;W18</f>
@@ -30276,10 +30285,10 @@
         <v>34</v>
       </c>
       <c r="R18" s="108" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="W18" s="108" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -30292,10 +30301,10 @@
         <v>New commercial - Freezers (B,A)</v>
       </c>
       <c r="C19" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D19" s="177" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E19" s="187">
         <f>Raw_COth!F24</f>
@@ -30329,7 +30338,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="158" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="P19" s="108" t="str">
         <f t="shared" si="7"/>
@@ -30339,10 +30348,10 @@
         <v>34</v>
       </c>
       <c r="R19" s="108" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="W19" s="108" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -30355,10 +30364,10 @@
         <v>New commercial - Freezers (A+,A++)</v>
       </c>
       <c r="C20" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D20" s="177" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E20" s="187">
         <f>Raw_COth!F25</f>
@@ -30392,7 +30401,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="158" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="P20" s="108" t="str">
         <f t="shared" si="7"/>
@@ -30402,15 +30411,15 @@
         <v>34</v>
       </c>
       <c r="R20" s="108" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="W20" s="108" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="186" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B21" s="185"/>
       <c r="C21" s="185"/>
@@ -30424,7 +30433,7 @@
       <c r="K21" s="185"/>
       <c r="L21" s="185"/>
       <c r="N21" s="186" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="O21" s="185"/>
       <c r="P21" s="185"/>
@@ -30444,10 +30453,10 @@
         <v>New commercial - Other Electricity Appliances</v>
       </c>
       <c r="C22" s="176" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="D22" s="177" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E22" s="187">
         <f>Raw_COth!F31</f>
@@ -30481,7 +30490,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="158" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="P22" s="108" t="str">
         <f>"New commercial - "&amp;W22</f>
@@ -30491,10 +30500,10 @@
         <v>34</v>
       </c>
       <c r="R22" s="108" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="W22" s="158" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -30505,9 +30514,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30657,19 +30669,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A420273B-2C8D-4520-9FDE-EF20D51299FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A07C550-9056-4674-9B3B-CB67924D4B57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30693,9 +30701,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A07C550-9056-4674-9B3B-CB67924D4B57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A420273B-2C8D-4520-9FDE-EF20D51299FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>